--- a/output/Restab_D62_NTCnoRAPA_noDIFF_RAPA.xlsx
+++ b/output/Restab_D62_NTCnoRAPA_noDIFF_RAPA.xlsx
@@ -2102,16 +2102,16 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.783059582371466</v>
+        <v>-0.783059582371515</v>
       </c>
       <c r="D2" t="n">
-        <v>0.000000329547274336091</v>
+        <v>0.000000329547273680995</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.505191957179557</v>
+        <v>-0.505191957179563</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0439194739319148</v>
+        <v>0.0439194739357062</v>
       </c>
     </row>
     <row r="3">
@@ -2122,16 +2122,16 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>0.992586796763774</v>
+        <v>0.992586796763801</v>
       </c>
       <c r="D3" t="n">
-        <v>0.000000668945811117199</v>
+        <v>0.000000668945810095488</v>
       </c>
       <c r="E3" t="n">
-        <v>0.648281428483249</v>
+        <v>0.648281428483253</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0247911362855905</v>
+        <v>0.024791136287606</v>
       </c>
     </row>
     <row r="4">
@@ -2142,16 +2142,16 @@
         <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>0.581185598867823</v>
+        <v>0.581185598867845</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00251902206835391</v>
+        <v>0.00251902206636648</v>
       </c>
       <c r="E4" t="n">
-        <v>0.550732669354521</v>
+        <v>0.550732669354522</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00663588605721832</v>
+        <v>0.00663588605815396</v>
       </c>
     </row>
     <row r="5">
@@ -2162,16 +2162,16 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>1.44190901416354</v>
+        <v>1.44190901416359</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0000000000591964919766026</v>
+        <v>0.0000000000591964918745342</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9738968040722</v>
+        <v>0.973896804072197</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0000491638755256964</v>
+        <v>0.0000491638755344633</v>
       </c>
     </row>
     <row r="6">
@@ -2182,16 +2182,16 @@
         <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.644975877762402</v>
+        <v>-0.64497587776242</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0000181117144405734</v>
+        <v>0.0000181117144102582</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.696404876573824</v>
+        <v>-0.696404876573822</v>
       </c>
       <c r="F6" t="n">
-        <v>0.000240990122189053</v>
+        <v>0.00024099012223735</v>
       </c>
     </row>
     <row r="7">
@@ -2202,16 +2202,16 @@
         <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>1.44043695019426</v>
+        <v>1.44043695019419</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0000000000000112982172719881</v>
+        <v>0.00000000000001129821724038</v>
       </c>
       <c r="E7" t="n">
         <v>1.27286550386003</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0000000681478788391237</v>
+        <v>0.0000000681478788568312</v>
       </c>
     </row>
     <row r="8">
@@ -2222,16 +2222,16 @@
         <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>1.21127995028692</v>
+        <v>1.21127995028699</v>
       </c>
       <c r="D8" t="n">
-        <v>0.000108930450533698</v>
+        <v>0.00010893045047023</v>
       </c>
       <c r="E8" t="n">
-        <v>0.999460020269296</v>
+        <v>0.999460020269284</v>
       </c>
       <c r="F8" t="n">
-        <v>0.013773474992564</v>
+        <v>0.0137734749935059</v>
       </c>
     </row>
     <row r="9">
@@ -2242,16 +2242,16 @@
         <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>0.84724894333415</v>
+        <v>0.847248943334178</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00000000103746947530377</v>
+        <v>0.00000000103746947225589</v>
       </c>
       <c r="E9" t="n">
-        <v>0.494965245036598</v>
+        <v>0.494965245036606</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0318066328702521</v>
+        <v>0.0318066328734127</v>
       </c>
     </row>
     <row r="10">
@@ -2260,16 +2260,16 @@
       </c>
       <c r="B10"/>
       <c r="C10" t="n">
-        <v>-0.275317419828102</v>
+        <v>-0.275317419828105</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0281322900536412</v>
+        <v>0.0281322900219575</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.456156556343161</v>
+        <v>-0.456156556343157</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00244466074680814</v>
+        <v>0.00244466074736647</v>
       </c>
     </row>
     <row r="11">
@@ -2280,16 +2280,16 @@
         <v>24</v>
       </c>
       <c r="C11" t="n">
-        <v>1.57604101828907</v>
+        <v>1.57604101828909</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0000000000000000000687435068450219</v>
+        <v>0.0000000000000000000687435066951201</v>
       </c>
       <c r="E11" t="n">
         <v>1.23951426579392</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00000000181861595642493</v>
+        <v>0.00000000181861595708312</v>
       </c>
     </row>
     <row r="12">
@@ -2303,13 +2303,13 @@
         <v>1.71767650810491</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00000000000000000660228832008814</v>
+        <v>0.00000000000000000660228829961386</v>
       </c>
       <c r="E12" t="n">
         <v>1.28391832537501</v>
       </c>
       <c r="F12" t="n">
-        <v>0.000000244918081128367</v>
+        <v>0.00000024491808118795</v>
       </c>
     </row>
     <row r="13">
@@ -2320,16 +2320,16 @@
         <v>28</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.04785126363014</v>
+        <v>-1.04785126363008</v>
       </c>
       <c r="D13" t="n">
-        <v>0.000000000000165547769678679</v>
+        <v>0.000000000000165547769052174</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.976084528270812</v>
+        <v>-0.976084528270808</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00000000181189798154916</v>
+        <v>0.00000000181189798238894</v>
       </c>
     </row>
     <row r="14">
@@ -2340,16 +2340,16 @@
         <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>1.40203134123376</v>
+        <v>1.40203134123372</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00117106022175378</v>
+        <v>0.00117106022132615</v>
       </c>
       <c r="E14" t="n">
         <v>1.20172547736353</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0236123366046443</v>
+        <v>0.0236123366078186</v>
       </c>
     </row>
     <row r="15">
@@ -2360,16 +2360,16 @@
         <v>32</v>
       </c>
       <c r="C15" t="n">
-        <v>3.90619626658539</v>
+        <v>3.90619626658478</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00168161468855056</v>
+        <v>0.00168161468819498</v>
       </c>
       <c r="E15" t="n">
-        <v>4.40536840477364</v>
+        <v>4.40536840477381</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0000380723957553321</v>
+        <v>0.0000380723957585515</v>
       </c>
     </row>
     <row r="16">
@@ -2378,16 +2378,16 @@
       </c>
       <c r="B16"/>
       <c r="C16" t="n">
-        <v>-0.68281606307503</v>
+        <v>-0.682816063075055</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0000000000914797266948603</v>
+        <v>0.0000000000914797262419135</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.48115361667396</v>
+        <v>-0.481153616729721</v>
       </c>
       <c r="F16" t="n">
-        <v>0.000298118941003239</v>
+        <v>0.000298113803952398</v>
       </c>
     </row>
     <row r="17">
@@ -2398,16 +2398,16 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>0.856290408175232</v>
+        <v>0.8562904081752</v>
       </c>
       <c r="D17" t="n">
-        <v>0.00230574374892914</v>
+        <v>0.00230574374783276</v>
       </c>
       <c r="E17" t="n">
         <v>1.15866790298081</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0000000757432480093262</v>
+        <v>0.0000000757432480372331</v>
       </c>
     </row>
     <row r="18">
@@ -2418,16 +2418,16 @@
         <v>37</v>
       </c>
       <c r="C18" t="n">
-        <v>1.919493716684</v>
+        <v>1.91949371668405</v>
       </c>
       <c r="D18" t="n">
-        <v>0.000000000000000000000830736812535298</v>
+        <v>0.000000000000000000000830736810494827</v>
       </c>
       <c r="E18" t="n">
-        <v>2.3136946142872</v>
+        <v>2.31369461428719</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0000000000000000000000000000110635617380581</v>
+        <v>0.0000000000000000000000000000110635617487824</v>
       </c>
     </row>
     <row r="19">
@@ -2438,16 +2438,16 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.12703216518935</v>
+        <v>-1.12703216518943</v>
       </c>
       <c r="D19" t="n">
-        <v>0.00778360685325296</v>
+        <v>0.00778360685112354</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.76634557311093</v>
+        <v>-1.76634557311092</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00000017801918237822</v>
+        <v>0.000000178019182410976</v>
       </c>
     </row>
     <row r="20">
@@ -2458,16 +2458,16 @@
         <v>41</v>
       </c>
       <c r="C20" t="n">
-        <v>0.753475594553704</v>
+        <v>0.753475594553754</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00000794610007362091</v>
+        <v>0.00000794610006208183</v>
       </c>
       <c r="E20" t="n">
-        <v>0.572299251399353</v>
+        <v>0.572299251399351</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0351715465376414</v>
+        <v>0.0351715465397275</v>
       </c>
     </row>
     <row r="21">
@@ -2478,16 +2478,16 @@
         <v>43</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.463430417369702</v>
+        <v>-0.463430417369665</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0234105420730495</v>
+        <v>0.0234105420602988</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.670893521398436</v>
+        <v>-0.670893521398441</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00161053794145573</v>
+        <v>0.00161053794169965</v>
       </c>
     </row>
     <row r="22">
@@ -2498,16 +2498,16 @@
         <v>45</v>
       </c>
       <c r="C22" t="n">
-        <v>0.707257077673406</v>
+        <v>0.707257077673417</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0000000328243606176018</v>
+        <v>0.0000000328243605166744</v>
       </c>
       <c r="E22" t="n">
-        <v>0.529556485022744</v>
+        <v>0.529556485022742</v>
       </c>
       <c r="F22" t="n">
-        <v>0.000288883771876077</v>
+        <v>0.000288883771956776</v>
       </c>
     </row>
     <row r="23">
@@ -2518,16 +2518,16 @@
         <v>47</v>
       </c>
       <c r="C23" t="n">
-        <v>0.942174899672725</v>
+        <v>0.942174899672789</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0199689706601954</v>
+        <v>0.0199689706550216</v>
       </c>
       <c r="E23" t="n">
         <v>1.12333403211432</v>
       </c>
       <c r="F23" t="n">
-        <v>0.033246443521835</v>
+        <v>0.0332464435233389</v>
       </c>
     </row>
     <row r="24">
@@ -2538,16 +2538,16 @@
         <v>49</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.37119368662988</v>
+        <v>-2.37119368662972</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0000534259881861615</v>
+        <v>0.0000534259881653893</v>
       </c>
       <c r="E24" t="n">
         <v>-2.28182907712549</v>
       </c>
       <c r="F24" t="n">
-        <v>0.000694621528280431</v>
+        <v>0.000694621528331606</v>
       </c>
     </row>
     <row r="25">
@@ -2558,16 +2558,16 @@
         <v>51</v>
       </c>
       <c r="C25" t="n">
-        <v>0.487523655411413</v>
+        <v>0.487523655411476</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0169709646258018</v>
+        <v>0.0169709646160732</v>
       </c>
       <c r="E25" t="n">
-        <v>0.783351500176527</v>
+        <v>0.783351500176522</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0000275321565582339</v>
+        <v>0.0000275321565649672</v>
       </c>
     </row>
     <row r="26">
@@ -2578,16 +2578,16 @@
         <v>53</v>
       </c>
       <c r="C26" t="n">
-        <v>1.13117925435864</v>
+        <v>1.13117925435868</v>
       </c>
       <c r="D26" t="n">
-        <v>0.000000000826065174271208</v>
+        <v>0.000000000826065172615017</v>
       </c>
       <c r="E26" t="n">
         <v>1.07530883280854</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0000679837370384641</v>
+        <v>0.0000679837370484556</v>
       </c>
     </row>
     <row r="27">
@@ -2598,16 +2598,16 @@
         <v>55</v>
       </c>
       <c r="C27" t="n">
-        <v>2.04575507346854</v>
+        <v>2.04575507346853</v>
       </c>
       <c r="D27" t="n">
-        <v>0.000000710217381771512</v>
+        <v>0.000000710217381383683</v>
       </c>
       <c r="E27" t="n">
-        <v>1.91444279177329</v>
+        <v>1.91444279177328</v>
       </c>
       <c r="F27" t="n">
-        <v>0.000070856669365368</v>
+        <v>0.0000708566693732478</v>
       </c>
     </row>
     <row r="28">
@@ -2618,16 +2618,16 @@
         <v>57</v>
       </c>
       <c r="C28" t="n">
-        <v>0.619775806389143</v>
+        <v>0.619775806389201</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0157731150955893</v>
+        <v>0.0157731150916474</v>
       </c>
       <c r="E28" t="n">
-        <v>0.772669444103996</v>
+        <v>0.772669444103989</v>
       </c>
       <c r="F28" t="n">
-        <v>0.00242100277175732</v>
+        <v>0.00242100277196199</v>
       </c>
     </row>
     <row r="29">
@@ -2638,16 +2638,16 @@
         <v>59</v>
       </c>
       <c r="C29" t="n">
-        <v>1.57321933824546</v>
+        <v>1.57321933824552</v>
       </c>
       <c r="D29" t="n">
-        <v>0.00000012361030278208</v>
+        <v>0.000000123610302664322</v>
       </c>
       <c r="E29" t="n">
-        <v>1.417017727981</v>
+        <v>1.41701772798099</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0000518302544343506</v>
+        <v>0.0000518302544412736</v>
       </c>
     </row>
     <row r="30">
@@ -2658,16 +2658,16 @@
         <v>61</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.539020986907584</v>
+        <v>-0.539020986907587</v>
       </c>
       <c r="D30" t="n">
-        <v>0.00483061062243374</v>
+        <v>0.00483061061920846</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.604005562804415</v>
+        <v>-0.604005562804411</v>
       </c>
       <c r="F30" t="n">
-        <v>0.00539421875277296</v>
+        <v>0.00539421875349238</v>
       </c>
     </row>
     <row r="31">
@@ -2678,16 +2678,16 @@
         <v>63</v>
       </c>
       <c r="C31" t="n">
-        <v>0.807249349488829</v>
+        <v>0.807249349488872</v>
       </c>
       <c r="D31" t="n">
-        <v>0.00080052322802237</v>
+        <v>0.000800523227120862</v>
       </c>
       <c r="E31" t="n">
-        <v>0.828094901862017</v>
+        <v>0.828094901862013</v>
       </c>
       <c r="F31" t="n">
-        <v>0.000232883625693562</v>
+        <v>0.000232883625735257</v>
       </c>
     </row>
     <row r="32">
@@ -2698,16 +2698,16 @@
         <v>65</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.50163084221266</v>
+        <v>-1.50163084221261</v>
       </c>
       <c r="D32" t="n">
-        <v>0.00286695102203448</v>
+        <v>0.00286695102075169</v>
       </c>
       <c r="E32" t="n">
-        <v>-1.50608332673182</v>
+        <v>-1.50608332673181</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0108156646286211</v>
+        <v>0.0108156646292341</v>
       </c>
     </row>
     <row r="33">
@@ -2718,16 +2718,16 @@
         <v>67</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.593241821141252</v>
+        <v>-0.593241821141259</v>
       </c>
       <c r="D33" t="n">
-        <v>0.00000120503400003863</v>
+        <v>0.00000120503399669922</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.548590993549252</v>
+        <v>-0.548590993549254</v>
       </c>
       <c r="F33" t="n">
-        <v>0.00389904481566963</v>
+        <v>0.00389904481631688</v>
       </c>
     </row>
     <row r="34">
@@ -2738,16 +2738,16 @@
         <v>69</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.941701069065123</v>
+        <v>-0.941701069065171</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0163320326274877</v>
+        <v>0.0163320326230365</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.19756993669694</v>
+        <v>-1.19756993669692</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0105400354368468</v>
+        <v>0.0105400354374677</v>
       </c>
     </row>
     <row r="35">
@@ -2758,16 +2758,16 @@
         <v>71</v>
       </c>
       <c r="C35" t="n">
-        <v>0.816332371237792</v>
+        <v>0.816332371237823</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0000000404702431459589</v>
+        <v>0.0000000404702431198744</v>
       </c>
       <c r="E35" t="n">
-        <v>0.926423689521734</v>
+        <v>0.926423689521729</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0000000195752883729434</v>
+        <v>0.0000000195752883773561</v>
       </c>
     </row>
     <row r="36">
@@ -2778,16 +2778,16 @@
         <v>73</v>
       </c>
       <c r="C36" t="n">
-        <v>1.91273475590907</v>
+        <v>1.91273475590912</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0000000000216321888647674</v>
+        <v>0.0000000000216321888357606</v>
       </c>
       <c r="E36" t="n">
         <v>1.64341861083069</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0000000195752883729434</v>
+        <v>0.0000000195752883773561</v>
       </c>
     </row>
     <row r="37">
@@ -2798,16 +2798,16 @@
         <v>75</v>
       </c>
       <c r="C37" t="n">
-        <v>0.734955038333474</v>
+        <v>0.734955038333417</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0313813070288499</v>
+        <v>0.0313813070211352</v>
       </c>
       <c r="E37" t="n">
-        <v>0.826180996444481</v>
+        <v>0.826180996444494</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0279463567640493</v>
+        <v>0.027946356765891</v>
       </c>
     </row>
     <row r="38">
@@ -2818,16 +2818,16 @@
         <v>77</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.543132617315965</v>
+        <v>-0.543132617315906</v>
       </c>
       <c r="D38" t="n">
-        <v>0.000898928184102137</v>
+        <v>0.0008989281831243</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.571419966315192</v>
+        <v>-0.571419966315189</v>
       </c>
       <c r="F38" t="n">
-        <v>0.000299126764922607</v>
+        <v>0.000299126764999981</v>
       </c>
     </row>
     <row r="39">
@@ -2838,16 +2838,16 @@
         <v>79</v>
       </c>
       <c r="C39" t="n">
-        <v>1.22581866854018</v>
+        <v>1.22581866854015</v>
       </c>
       <c r="D39" t="n">
-        <v>0.00000260539713900808</v>
+        <v>0.00000260539713657185</v>
       </c>
       <c r="E39" t="n">
         <v>1.05957794934758</v>
       </c>
       <c r="F39" t="n">
-        <v>0.00135653586795966</v>
+        <v>0.00135653586810718</v>
       </c>
     </row>
     <row r="40">
@@ -2858,16 +2858,16 @@
         <v>81</v>
       </c>
       <c r="C40" t="n">
-        <v>1.22741804906822</v>
+        <v>1.22741804906831</v>
       </c>
       <c r="D40" t="n">
-        <v>0.013968944620087</v>
+        <v>0.0139689446170486</v>
       </c>
       <c r="E40" t="n">
-        <v>1.22993778486504</v>
+        <v>1.22993778486502</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0305495411430434</v>
+        <v>0.0305495411440607</v>
       </c>
     </row>
     <row r="41">
@@ -2878,16 +2878,16 @@
         <v>83</v>
       </c>
       <c r="C41" t="n">
-        <v>-1.34852431225242</v>
+        <v>-1.34852431225236</v>
       </c>
       <c r="D41" t="n">
-        <v>0.00000326708981166349</v>
+        <v>0.00000326708980887022</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.973581644983436</v>
+        <v>-0.973581644983448</v>
       </c>
       <c r="F41" t="n">
-        <v>0.00814066151411497</v>
+        <v>0.00814066151474704</v>
       </c>
     </row>
     <row r="42">
@@ -2898,16 +2898,16 @@
         <v>85</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.738287358520672</v>
+        <v>-0.73828735852067</v>
       </c>
       <c r="D42" t="n">
-        <v>0.000238975640017897</v>
+        <v>0.000238975639831262</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.597815170755619</v>
+        <v>-0.597815170755612</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0197329297517178</v>
+        <v>0.0197329297536516</v>
       </c>
     </row>
     <row r="43">
@@ -2918,16 +2918,16 @@
         <v>87</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.98562044896731</v>
+        <v>-1.98562044896721</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0000000000000000895384426368562</v>
+        <v>0.0000000000000000895384424188185</v>
       </c>
       <c r="E43" t="n">
         <v>-2.25785142020847</v>
       </c>
       <c r="F43" t="n">
-        <v>0.00000000000000000836947070239672</v>
+        <v>0.00000000000000000836947070667397</v>
       </c>
     </row>
     <row r="44">
@@ -2938,16 +2938,16 @@
         <v>89</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.516441024540593</v>
+        <v>-0.516441024540608</v>
       </c>
       <c r="D44" t="n">
-        <v>0.000126091822432156</v>
+        <v>0.00012609182221783</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.560988329127205</v>
+        <v>-0.560988329127208</v>
       </c>
       <c r="F44" t="n">
-        <v>0.00380174454643865</v>
+        <v>0.00380174454703808</v>
       </c>
     </row>
     <row r="45">
@@ -2958,16 +2958,16 @@
         <v>91</v>
       </c>
       <c r="C45" t="n">
-        <v>0.767134982753151</v>
+        <v>0.767134982753178</v>
       </c>
       <c r="D45" t="n">
-        <v>0.00000201521952147049</v>
+        <v>0.00000201521951806101</v>
       </c>
       <c r="E45" t="n">
         <v>0.631668610316932</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0301808643279894</v>
+        <v>0.0301808643303085</v>
       </c>
     </row>
     <row r="46">
@@ -2978,16 +2978,16 @@
         <v>93</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.548093466708702</v>
+        <v>-0.54809346670868</v>
       </c>
       <c r="D46" t="n">
-        <v>0.00121935672195798</v>
+        <v>0.00121935672074186</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.66359228633613</v>
+        <v>-0.663592286336137</v>
       </c>
       <c r="F46" t="n">
-        <v>0.00136884593712372</v>
+        <v>0.00136884593734195</v>
       </c>
     </row>
     <row r="47">
@@ -2998,16 +2998,16 @@
         <v>95</v>
       </c>
       <c r="C47" t="n">
-        <v>-2.57973554571358</v>
+        <v>-2.57973554571366</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0000000404702431459589</v>
+        <v>0.0000000404702431198744</v>
       </c>
       <c r="E47" t="n">
         <v>-2.60401316171274</v>
       </c>
       <c r="F47" t="n">
-        <v>0.00000000000000612810993537543</v>
+        <v>0.0000000000000061281099375159</v>
       </c>
     </row>
     <row r="48">
@@ -3016,16 +3016,16 @@
       </c>
       <c r="B48"/>
       <c r="C48" t="n">
-        <v>-0.379331034625169</v>
+        <v>-0.379331034625178</v>
       </c>
       <c r="D48" t="n">
-        <v>0.000188124016652604</v>
+        <v>0.000188124016456029</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.43153665500302</v>
+        <v>-0.43153665500303</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0201287889872213</v>
+        <v>0.0201287889891306</v>
       </c>
     </row>
     <row r="49">
@@ -3039,13 +3039,13 @@
         <v>1.78773204194994</v>
       </c>
       <c r="D49" t="n">
-        <v>0.00426407199737668</v>
+        <v>0.00426407199632929</v>
       </c>
       <c r="E49" t="n">
-        <v>1.55550863968926</v>
+        <v>1.55550863968925</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0426566960673555</v>
+        <v>0.0426566960692105</v>
       </c>
     </row>
     <row r="50">
@@ -3056,16 +3056,16 @@
         <v>100</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.843688735295901</v>
+        <v>-0.843688735295881</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0142838141752542</v>
+        <v>0.0142838141706477</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.933071348334871</v>
+        <v>-0.933071348334875</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0188497294853023</v>
+        <v>0.0188497294865877</v>
       </c>
     </row>
     <row r="51">
@@ -3076,16 +3076,16 @@
         <v>102</v>
       </c>
       <c r="C51" t="n">
-        <v>0.98126541644806</v>
+        <v>0.981265416448113</v>
       </c>
       <c r="D51" t="n">
-        <v>0.00245685941058292</v>
+        <v>0.00245685940964059</v>
       </c>
       <c r="E51" t="n">
-        <v>1.32500379258225</v>
+        <v>1.32500379258224</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0000148246456317341</v>
+        <v>0.0000148246456340455</v>
       </c>
     </row>
     <row r="52">
@@ -3096,16 +3096,16 @@
         <v>104</v>
       </c>
       <c r="C52" t="n">
-        <v>0.779404598302254</v>
+        <v>0.779404598302324</v>
       </c>
       <c r="D52" t="n">
-        <v>0.000850946810166821</v>
+        <v>0.000850946809585916</v>
       </c>
       <c r="E52" t="n">
-        <v>0.781270422429771</v>
+        <v>0.781270422429761</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0105400354368468</v>
+        <v>0.0105400354374677</v>
       </c>
     </row>
     <row r="53">
@@ -3116,16 +3116,16 @@
         <v>106</v>
       </c>
       <c r="C53" t="n">
-        <v>0.749630521491267</v>
+        <v>0.749630521491336</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0109741303410641</v>
+        <v>0.010974130336803</v>
       </c>
       <c r="E53" t="n">
-        <v>0.847791395548793</v>
+        <v>0.847791395548782</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0187494201730609</v>
+        <v>0.0187494201743571</v>
       </c>
     </row>
     <row r="54">
@@ -3136,16 +3136,16 @@
         <v>108</v>
       </c>
       <c r="C54" t="n">
-        <v>2.14369791853366</v>
+        <v>2.14369791853373</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0000024505621754144</v>
+        <v>0.00000245056217417327</v>
       </c>
       <c r="E54" t="n">
-        <v>1.93655981685755</v>
+        <v>1.93655981685754</v>
       </c>
       <c r="F54" t="n">
-        <v>0.00000718089783362076</v>
+        <v>0.00000718089783452488</v>
       </c>
     </row>
     <row r="55">
@@ -3156,16 +3156,16 @@
         <v>110</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.761291767390101</v>
+        <v>-0.761291767390058</v>
       </c>
       <c r="D55" t="n">
-        <v>0.00345740579887529</v>
+        <v>0.00345740579713197</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.859830115382271</v>
+        <v>-0.859830115382274</v>
       </c>
       <c r="F55" t="n">
-        <v>0.000451033890041222</v>
+        <v>0.000451033890139936</v>
       </c>
     </row>
     <row r="56">
@@ -3176,16 +3176,16 @@
         <v>112</v>
       </c>
       <c r="C56" t="n">
-        <v>0.443062334066893</v>
+        <v>0.443062334066894</v>
       </c>
       <c r="D56" t="n">
-        <v>0.000288248698919109</v>
+        <v>0.000288248698379089</v>
       </c>
       <c r="E56" t="n">
-        <v>0.516501117745949</v>
+        <v>0.516501117745955</v>
       </c>
       <c r="F56" t="n">
-        <v>0.00603024649340171</v>
+        <v>0.0060302464943363</v>
       </c>
     </row>
     <row r="57">
@@ -3196,16 +3196,16 @@
         <v>114</v>
       </c>
       <c r="C57" t="n">
-        <v>1.23482347456559</v>
+        <v>1.23482347456558</v>
       </c>
       <c r="D57" t="n">
-        <v>0.000000236007475048761</v>
+        <v>0.000000236007474784149</v>
       </c>
       <c r="E57" t="n">
-        <v>1.31931093652913</v>
+        <v>1.31931093652914</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0000000483954840287855</v>
+        <v>0.0000000483954840414845</v>
       </c>
     </row>
     <row r="58">
@@ -3216,16 +3216,16 @@
         <v>116</v>
       </c>
       <c r="C58" t="n">
-        <v>1.56301598543075</v>
+        <v>1.56301598543085</v>
       </c>
       <c r="D58" t="n">
-        <v>0.00941743208583027</v>
+        <v>0.00941743208355676</v>
       </c>
       <c r="E58" t="n">
-        <v>1.45669514594066</v>
+        <v>1.45669514594065</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0385529619140698</v>
+        <v>0.038552961915963</v>
       </c>
     </row>
     <row r="59">
@@ -3234,16 +3234,16 @@
       </c>
       <c r="B59"/>
       <c r="C59" t="n">
-        <v>-0.854319932225104</v>
+        <v>-0.854319932225181</v>
       </c>
       <c r="D59" t="n">
-        <v>0.00264606226528278</v>
+        <v>0.00264606226297218</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.702891336592454</v>
+        <v>-0.702891336592449</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0432621679910607</v>
+        <v>0.0432621679936524</v>
       </c>
     </row>
     <row r="60">
@@ -3254,16 +3254,16 @@
         <v>119</v>
       </c>
       <c r="C60" t="n">
-        <v>0.741932317817044</v>
+        <v>0.741932317817046</v>
       </c>
       <c r="D60" t="n">
-        <v>0.000119529656882102</v>
+        <v>0.000119529656758884</v>
       </c>
       <c r="E60" t="n">
-        <v>0.79861742840312</v>
+        <v>0.798617428403122</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0000359058071459425</v>
+        <v>0.0000359058071539384</v>
       </c>
     </row>
     <row r="61">
@@ -3274,16 +3274,16 @@
         <v>121</v>
       </c>
       <c r="C61" t="n">
-        <v>0.542635019264871</v>
+        <v>0.542635019264903</v>
       </c>
       <c r="D61" t="n">
-        <v>0.00103466497612327</v>
+        <v>0.00103466497495998</v>
       </c>
       <c r="E61" t="n">
         <v>0.601548207500357</v>
       </c>
       <c r="F61" t="n">
-        <v>0.000663018970286546</v>
+        <v>0.000663018970427577</v>
       </c>
     </row>
     <row r="62">
@@ -3294,16 +3294,16 @@
         <v>123</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.506750787360365</v>
+        <v>-0.506750787360335</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0000295304761965226</v>
+        <v>0.0000295304761305748</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.429198207494495</v>
+        <v>-0.429198207494492</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0236123366046443</v>
+        <v>0.0236123366078186</v>
       </c>
     </row>
     <row r="63">
@@ -3314,16 +3314,16 @@
         <v>125</v>
       </c>
       <c r="C63" t="n">
-        <v>1.64316288048175</v>
+        <v>1.64316288048163</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0332992697844006</v>
+        <v>0.0332992697786897</v>
       </c>
       <c r="E63" t="n">
-        <v>1.67310810054633</v>
+        <v>1.67310810054634</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0444000647374037</v>
+        <v>0.0444000647394483</v>
       </c>
     </row>
     <row r="64">
@@ -3334,16 +3334,16 @@
         <v>127</v>
       </c>
       <c r="C64" t="n">
-        <v>-3.78292657316212</v>
+        <v>-3.78292657316219</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0315716572788563</v>
+        <v>0.031571657271778</v>
       </c>
       <c r="E64" t="n">
-        <v>-5.2549443565443</v>
+        <v>-5.25494435654435</v>
       </c>
       <c r="F64" t="n">
-        <v>0.00262706225602326</v>
+        <v>0.00262706225613797</v>
       </c>
     </row>
     <row r="65">
@@ -3354,16 +3354,16 @@
         <v>129</v>
       </c>
       <c r="C65" t="n">
-        <v>-3.72480638253604</v>
+        <v>-3.72480638253509</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0416867883823371</v>
+        <v>0.0416867883765809</v>
       </c>
       <c r="E65" t="n">
         <v>-7.51683162962074</v>
       </c>
       <c r="F65" t="n">
-        <v>0.000240441240452677</v>
+        <v>0.000240441240464697</v>
       </c>
     </row>
     <row r="66">
@@ -3377,13 +3377,13 @@
         <v>-7.93664835425211</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0000238855043836862</v>
+        <v>0.0000238855043791796</v>
       </c>
       <c r="E66" t="n">
-        <v>-4.34695428729085</v>
+        <v>-4.34695428729079</v>
       </c>
       <c r="F66" t="n">
-        <v>0.00960023055445486</v>
+        <v>0.00960023055486114</v>
       </c>
     </row>
     <row r="67">
@@ -3394,16 +3394,16 @@
         <v>133</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.559796157587168</v>
+        <v>-0.559796157587176</v>
       </c>
       <c r="D67" t="n">
-        <v>0.00301577656526903</v>
+        <v>0.00301577656381937</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.681109345204918</v>
+        <v>-0.681109345204929</v>
       </c>
       <c r="F67" t="n">
-        <v>0.00424573041893115</v>
+        <v>0.00424573041945628</v>
       </c>
     </row>
     <row r="68">
@@ -3414,16 +3414,16 @@
         <v>135</v>
       </c>
       <c r="C68" t="n">
-        <v>0.893470055291587</v>
+        <v>0.893470055291608</v>
       </c>
       <c r="D68" t="n">
-        <v>0.00000000000199229342070807</v>
+        <v>0.00000000000199229341244144</v>
       </c>
       <c r="E68" t="n">
-        <v>1.01706014211109</v>
+        <v>1.01706014211108</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0000000000270363819609241</v>
+        <v>0.0000000000270363819761313</v>
       </c>
     </row>
     <row r="69">
@@ -3434,16 +3434,16 @@
         <v>137</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.679904650228583</v>
+        <v>-0.679904650228545</v>
       </c>
       <c r="D69" t="n">
-        <v>0.000000581983071796296</v>
+        <v>0.000000581983070056795</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.890281044712664</v>
+        <v>-0.890281044712667</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0000000702916521975463</v>
+        <v>0.0000000702916522240653</v>
       </c>
     </row>
     <row r="70">
@@ -3454,16 +3454,16 @@
         <v>139</v>
       </c>
       <c r="C70" t="n">
-        <v>4.81202633277831</v>
+        <v>4.81202633277723</v>
       </c>
       <c r="D70" t="n">
-        <v>0.000131574042545433</v>
+        <v>0.000131574042504778</v>
       </c>
       <c r="E70" t="n">
-        <v>5.66212902833496</v>
+        <v>5.66212902833529</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0000000139172390592012</v>
+        <v>0.0000000139172390612041</v>
       </c>
     </row>
     <row r="71">
@@ -3474,16 +3474,16 @@
         <v>141</v>
       </c>
       <c r="C71" t="n">
-        <v>-1.49494054583741</v>
+        <v>-1.49494054583733</v>
       </c>
       <c r="D71" t="n">
-        <v>0.000000131894972813938</v>
+        <v>0.000000131894972678089</v>
       </c>
       <c r="E71" t="n">
         <v>-1.5188115657998</v>
       </c>
       <c r="F71" t="n">
-        <v>0.00000349267943835453</v>
+        <v>0.00000349267943895633</v>
       </c>
     </row>
     <row r="72">
@@ -3494,16 +3494,16 @@
         <v>143</v>
       </c>
       <c r="C72" t="n">
-        <v>2.00804947520876</v>
+        <v>2.00804947520879</v>
       </c>
       <c r="D72" t="n">
-        <v>0.000000000792221346184277</v>
+        <v>0.000000000792221345488656</v>
       </c>
       <c r="E72" t="n">
-        <v>2.01339316810481</v>
+        <v>2.0133931681048</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0000000209613250127265</v>
+        <v>0.0000000209613250168067</v>
       </c>
     </row>
     <row r="73">
@@ -3514,16 +3514,16 @@
         <v>145</v>
       </c>
       <c r="C73" t="n">
-        <v>2.47049598007258</v>
+        <v>2.47049598007241</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0319845587674932</v>
+        <v>0.0319845587635829</v>
       </c>
       <c r="E73" t="n">
-        <v>2.85162344694796</v>
+        <v>2.85162344694803</v>
       </c>
       <c r="F73" t="n">
-        <v>0.00333988760829025</v>
+        <v>0.00333988760847428</v>
       </c>
     </row>
     <row r="74">
@@ -3534,16 +3534,16 @@
         <v>147</v>
       </c>
       <c r="C74" t="n">
-        <v>-1.71081947707662</v>
+        <v>-1.7108194770765</v>
       </c>
       <c r="D74" t="n">
-        <v>0.000000000166397844318618</v>
+        <v>0.000000000166397844093418</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.09523259493069</v>
+        <v>-1.0952325949307</v>
       </c>
       <c r="F74" t="n">
-        <v>0.00000316759176341651</v>
+        <v>0.00000316759176411592</v>
       </c>
     </row>
     <row r="75">
@@ -3552,16 +3552,16 @@
       </c>
       <c r="B75"/>
       <c r="C75" t="n">
-        <v>0.688924967787418</v>
+        <v>0.688924967787424</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0000024715865896528</v>
+        <v>0.00000247158658430577</v>
       </c>
       <c r="E75" t="n">
-        <v>0.446847068051142</v>
+        <v>0.446847068051139</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0108952106416159</v>
+        <v>0.0108952106433803</v>
       </c>
     </row>
     <row r="76">
@@ -3572,16 +3572,16 @@
         <v>150</v>
       </c>
       <c r="C76" t="n">
-        <v>0.832623083770599</v>
+        <v>0.832623083770608</v>
       </c>
       <c r="D76" t="n">
-        <v>0.000000000000000914325731416324</v>
+        <v>0.000000000000000914325724826369</v>
       </c>
       <c r="E76" t="n">
         <v>0.443657788772597</v>
       </c>
       <c r="F76" t="n">
-        <v>0.00288905240954244</v>
+        <v>0.00288905241020445</v>
       </c>
     </row>
     <row r="77">
@@ -3592,16 +3592,16 @@
         <v>152</v>
       </c>
       <c r="C77" t="n">
-        <v>1.11622512684708</v>
+        <v>1.11622512684714</v>
       </c>
       <c r="D77" t="n">
-        <v>0.00000000000000693866718475406</v>
+        <v>0.00000000000000693866715669347</v>
       </c>
       <c r="E77" t="n">
         <v>1.06120900324001</v>
       </c>
       <c r="F77" t="n">
-        <v>0.000000572094908863099</v>
+        <v>0.00000057209490900578</v>
       </c>
     </row>
     <row r="78">
@@ -3612,16 +3612,16 @@
         <v>154</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.528098844977349</v>
+        <v>-0.528098844977356</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0434187284987739</v>
+        <v>0.0434187284831477</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.871730750603286</v>
+        <v>-0.871730750603289</v>
       </c>
       <c r="F78" t="n">
-        <v>0.012397130212943</v>
+        <v>0.0123971302138492</v>
       </c>
     </row>
     <row r="79">
@@ -3632,16 +3632,16 @@
         <v>156</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.880454524171955</v>
+        <v>-0.88045452417194</v>
       </c>
       <c r="D79" t="n">
-        <v>0.000000000774949406501193</v>
+        <v>0.000000000774949404315459</v>
       </c>
       <c r="E79" t="n">
         <v>-0.716188450486325</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0000196220014966918</v>
+        <v>0.0000196220015020798</v>
       </c>
     </row>
     <row r="80">
@@ -3650,16 +3650,16 @@
       </c>
       <c r="B80"/>
       <c r="C80" t="n">
-        <v>1.41412601331553</v>
+        <v>1.41412601331546</v>
       </c>
       <c r="D80" t="n">
-        <v>0.00251902206835391</v>
+        <v>0.00251902206636648</v>
       </c>
       <c r="E80" t="n">
-        <v>1.72373333624477</v>
+        <v>1.72373333624479</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0000134531901609305</v>
+        <v>0.0000134531901626938</v>
       </c>
     </row>
     <row r="81">
@@ -3670,16 +3670,16 @@
         <v>159</v>
       </c>
       <c r="C81" t="n">
-        <v>0.914552695133526</v>
+        <v>0.914552695133569</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0249938200076611</v>
+        <v>0.0249938200015624</v>
       </c>
       <c r="E81" t="n">
-        <v>1.23795758445296</v>
+        <v>1.23795758445295</v>
       </c>
       <c r="F81" t="n">
-        <v>0.00242100277175732</v>
+        <v>0.00242100277196199</v>
       </c>
     </row>
     <row r="82">
@@ -3690,16 +3690,16 @@
         <v>161</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.361930247030586</v>
+        <v>-0.361930247030631</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0256532902790893</v>
+        <v>0.0256532902597594</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.430397440883135</v>
+        <v>-0.430397440883132</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0246045896980387</v>
+        <v>0.0246045897013219</v>
       </c>
     </row>
     <row r="83">
@@ -3710,16 +3710,16 @@
         <v>163</v>
       </c>
       <c r="C83" t="n">
-        <v>1.18821593076906</v>
+        <v>1.18821593076913</v>
       </c>
       <c r="D83" t="n">
-        <v>0.00474869996972526</v>
+        <v>0.00474869996829261</v>
       </c>
       <c r="E83" t="n">
-        <v>1.45697992140532</v>
+        <v>1.45697992140531</v>
       </c>
       <c r="F83" t="n">
-        <v>0.000408224922715147</v>
+        <v>0.000408224922753496</v>
       </c>
     </row>
     <row r="84">
@@ -3730,16 +3730,16 @@
         <v>165</v>
       </c>
       <c r="C84" t="n">
-        <v>1.71092305249682</v>
+        <v>1.71092305249683</v>
       </c>
       <c r="D84" t="n">
-        <v>0.00000000100932885345834</v>
+        <v>0.00000000100932885224252</v>
       </c>
       <c r="E84" t="n">
         <v>1.69669331338207</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0000000697985044125039</v>
+        <v>0.0000000697985044260454</v>
       </c>
     </row>
     <row r="85">
@@ -3750,16 +3750,16 @@
         <v>167</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.545806787730372</v>
+        <v>-0.545806787730398</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0365432093519065</v>
+        <v>0.0365432093368124</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.527629006842124</v>
+        <v>-0.52762900684213</v>
       </c>
       <c r="F85" t="n">
-        <v>0.00344117112968476</v>
+        <v>0.00344117113028518</v>
       </c>
     </row>
     <row r="86">
@@ -3770,16 +3770,16 @@
         <v>169</v>
       </c>
       <c r="C86" t="n">
-        <v>-1.13589068313869</v>
+        <v>-1.13589068313873</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0000990777394800107</v>
+        <v>0.0000990777394179609</v>
       </c>
       <c r="E86" t="n">
         <v>-1.43236730557775</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0000423517673715074</v>
+        <v>0.0000423517673760113</v>
       </c>
     </row>
     <row r="87">
@@ -3790,16 +3790,16 @@
         <v>171</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.816337918102504</v>
+        <v>-0.816337918102552</v>
       </c>
       <c r="D87" t="n">
-        <v>0.000000000322471898231163</v>
+        <v>0.000000000322471897132101</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.657863128493448</v>
+        <v>-0.657863128493452</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0000423517673715074</v>
+        <v>0.0000423517673760113</v>
       </c>
     </row>
     <row r="88">
@@ -3810,16 +3810,16 @@
         <v>173</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.403513146154253</v>
+        <v>-0.403513146154267</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0281322900536412</v>
+        <v>0.0281322900219575</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.453717439867468</v>
+        <v>-0.453717439867467</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0222751437018713</v>
+        <v>0.0222751437048257</v>
       </c>
     </row>
     <row r="89">
@@ -3830,16 +3830,16 @@
         <v>175</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.468289026939258</v>
+        <v>-0.468289026939251</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0340355883456573</v>
+        <v>0.0340355883298324</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.628318826914926</v>
+        <v>-0.628318826914924</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0141523020735033</v>
+        <v>0.0141523020749451</v>
       </c>
     </row>
     <row r="90">
@@ -3850,16 +3850,16 @@
         <v>177</v>
       </c>
       <c r="C90" t="n">
-        <v>1.29395120720681</v>
+        <v>1.29395120720687</v>
       </c>
       <c r="D90" t="n">
-        <v>0.00000326708981166349</v>
+        <v>0.00000326708980887022</v>
       </c>
       <c r="E90" t="n">
         <v>1.17788831368815</v>
       </c>
       <c r="F90" t="n">
-        <v>0.000209140142114072</v>
+        <v>0.000209140142142376</v>
       </c>
     </row>
     <row r="91">
@@ -3870,16 +3870,16 @@
         <v>179</v>
       </c>
       <c r="C91" t="n">
-        <v>8.88026853312096</v>
+        <v>8.88026853312092</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0000000202829758755632</v>
+        <v>0.0000000202829758711607</v>
       </c>
       <c r="E91" t="n">
-        <v>9.22321724166377</v>
+        <v>9.22321724166376</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0000000127595948724288</v>
+        <v>0.000000012759594873077</v>
       </c>
     </row>
     <row r="92">
@@ -3890,16 +3890,16 @@
         <v>181</v>
       </c>
       <c r="C92" t="n">
-        <v>0.595526965536332</v>
+        <v>0.595526965536351</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0000386923877976687</v>
+        <v>0.0000386923877334292</v>
       </c>
       <c r="E92" t="n">
         <v>0.699770878889555</v>
       </c>
       <c r="F92" t="n">
-        <v>0.000146930640256069</v>
+        <v>0.000146930640288074</v>
       </c>
     </row>
     <row r="93">
@@ -3910,16 +3910,16 @@
         <v>183</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.579360296178376</v>
+        <v>-0.579360296178417</v>
       </c>
       <c r="D93" t="n">
-        <v>0.00000385015403179502</v>
+        <v>0.00000385015402270224</v>
       </c>
       <c r="E93" t="n">
-        <v>-0.474178540734503</v>
+        <v>-0.4741785407345</v>
       </c>
       <c r="F93" t="n">
-        <v>0.00189961330660633</v>
+        <v>0.00189961330705052</v>
       </c>
     </row>
     <row r="94">
@@ -3930,16 +3930,16 @@
         <v>185</v>
       </c>
       <c r="C94" t="n">
-        <v>-1.93716433334265</v>
+        <v>-1.93716433334258</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0000000499047778230716</v>
+        <v>0.0000000499047777820098</v>
       </c>
       <c r="E94" t="n">
-        <v>-2.00829999886748</v>
+        <v>-2.00829999886749</v>
       </c>
       <c r="F94" t="n">
-        <v>0.00000893200156030305</v>
+        <v>0.00000893200156133389</v>
       </c>
     </row>
     <row r="95">
@@ -3950,16 +3950,16 @@
         <v>187</v>
       </c>
       <c r="C95" t="n">
-        <v>1.12012554350236</v>
+        <v>1.12012554350237</v>
       </c>
       <c r="D95" t="n">
-        <v>0.00000000463179610354391</v>
+        <v>0.00000000463179609539585</v>
       </c>
       <c r="E95" t="n">
         <v>1.15197894278232</v>
       </c>
       <c r="F95" t="n">
-        <v>0.00000000186447548932222</v>
+        <v>0.00000000186447549004504</v>
       </c>
     </row>
     <row r="96">
@@ -3970,16 +3970,16 @@
         <v>189</v>
       </c>
       <c r="C96" t="n">
-        <v>1.92986774050218</v>
+        <v>1.92986774050221</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0444300648235182</v>
+        <v>0.0444300648167333</v>
       </c>
       <c r="E96" t="n">
-        <v>2.07294148935096</v>
+        <v>2.07294148935095</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0488867700443574</v>
+        <v>0.0488867700464468</v>
       </c>
     </row>
     <row r="97">
@@ -3990,16 +3990,16 @@
         <v>191</v>
       </c>
       <c r="C97" t="n">
-        <v>1.81557045772489</v>
+        <v>1.81557045772487</v>
       </c>
       <c r="D97" t="n">
-        <v>0.000476344947507923</v>
+        <v>0.000476344947006271</v>
       </c>
       <c r="E97" t="n">
         <v>1.34421156174017</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0486742720124635</v>
+        <v>0.0486742720143057</v>
       </c>
     </row>
     <row r="98">
@@ -4008,16 +4008,16 @@
       </c>
       <c r="B98"/>
       <c r="C98" t="n">
-        <v>2.12317419564191</v>
+        <v>2.1231741956419</v>
       </c>
       <c r="D98" t="n">
-        <v>0.000000000286188532238422</v>
+        <v>0.000000000286188531918969</v>
       </c>
       <c r="E98" t="n">
         <v>2.05656429280392</v>
       </c>
       <c r="F98" t="n">
-        <v>0.00000000400095253663012</v>
+        <v>0.00000000400095253760343</v>
       </c>
     </row>
     <row r="99">
@@ -4026,16 +4026,16 @@
       </c>
       <c r="B99"/>
       <c r="C99" t="n">
-        <v>1.59479690745687</v>
+        <v>1.59479690745682</v>
       </c>
       <c r="D99" t="n">
-        <v>0.000310217999132982</v>
+        <v>0.000310217999018514</v>
       </c>
       <c r="E99" t="n">
-        <v>1.47959072059093</v>
+        <v>1.47959072059094</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0138494482083353</v>
+        <v>0.0138494482089687</v>
       </c>
     </row>
     <row r="100">
@@ -4046,16 +4046,16 @@
         <v>195</v>
       </c>
       <c r="C100" t="n">
-        <v>1.52324296814117</v>
+        <v>1.52324296814115</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0000000000000000000819303950635461</v>
+        <v>0.0000000000000000000819303947171067</v>
       </c>
       <c r="E100" t="n">
         <v>1.57468225403991</v>
       </c>
       <c r="F100" t="n">
-        <v>0.000000000000249527367583566</v>
+        <v>0.000000000000249527367722808</v>
       </c>
     </row>
     <row r="101">
@@ -4066,16 +4066,16 @@
         <v>197</v>
       </c>
       <c r="C101" t="n">
-        <v>-2.85393147744912</v>
+        <v>-2.85393147744944</v>
       </c>
       <c r="D101" t="n">
-        <v>0.000000168116673734667</v>
+        <v>0.00000016811667363141</v>
       </c>
       <c r="E101" t="n">
         <v>-1.28311232552361</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0152429669120002</v>
+        <v>0.0152429669129793</v>
       </c>
     </row>
     <row r="102">
@@ -4086,16 +4086,16 @@
         <v>199</v>
       </c>
       <c r="C102" t="n">
-        <v>1.06672232604751</v>
+        <v>1.06672232604748</v>
       </c>
       <c r="D102" t="n">
-        <v>0.00000174271468415301</v>
+        <v>0.00000174271468226444</v>
       </c>
       <c r="E102" t="n">
-        <v>1.0011397623892</v>
+        <v>1.00113976238921</v>
       </c>
       <c r="F102" t="n">
-        <v>0.000262641776557251</v>
+        <v>0.00026264177659157</v>
       </c>
     </row>
     <row r="103">
@@ -4106,16 +4106,16 @@
         <v>201</v>
       </c>
       <c r="C103" t="n">
-        <v>0.430464988208856</v>
+        <v>0.430464988208846</v>
       </c>
       <c r="D103" t="n">
-        <v>0.000120612144463501</v>
+        <v>0.000120612144186454</v>
       </c>
       <c r="E103" t="n">
-        <v>0.402992085519266</v>
+        <v>0.402992085519259</v>
       </c>
       <c r="F103" t="n">
-        <v>0.00472490643532603</v>
+        <v>0.00472490643643583</v>
       </c>
     </row>
     <row r="104">
@@ -4126,16 +4126,16 @@
         <v>203</v>
       </c>
       <c r="C104" t="n">
-        <v>0.909757025782268</v>
+        <v>0.909757025782293</v>
       </c>
       <c r="D104" t="n">
-        <v>0.000000000000000447970495076109</v>
+        <v>0.00000000000000044797049220988</v>
       </c>
       <c r="E104" t="n">
-        <v>0.815512772682336</v>
+        <v>0.815512772682332</v>
       </c>
       <c r="F104" t="n">
-        <v>0.00000000400095253663012</v>
+        <v>0.00000000400095253760343</v>
       </c>
     </row>
     <row r="105">
@@ -4146,16 +4146,16 @@
         <v>205</v>
       </c>
       <c r="C105" t="n">
-        <v>1.73724158497011</v>
+        <v>1.73724158497009</v>
       </c>
       <c r="D105" t="n">
-        <v>0.00594915514246181</v>
+        <v>0.00594915514098658</v>
       </c>
       <c r="E105" t="n">
         <v>1.59498631866354</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0260614603879118</v>
+        <v>0.0260614603893252</v>
       </c>
     </row>
     <row r="106">
@@ -4166,16 +4166,16 @@
         <v>207</v>
       </c>
       <c r="C106" t="n">
-        <v>0.898148632546481</v>
+        <v>0.898148632546458</v>
       </c>
       <c r="D106" t="n">
-        <v>0.000000129591212297907</v>
+        <v>0.000000129591212066089</v>
       </c>
       <c r="E106" t="n">
-        <v>0.729159179392835</v>
+        <v>0.72915917939283</v>
       </c>
       <c r="F106" t="n">
-        <v>0.00047652633341709</v>
+        <v>0.000476526333498281</v>
       </c>
     </row>
     <row r="107">
@@ -4184,16 +4184,16 @@
       </c>
       <c r="B107"/>
       <c r="C107" t="n">
-        <v>0.421437128849631</v>
+        <v>0.421437128849645</v>
       </c>
       <c r="D107" t="n">
-        <v>0.000487339574732688</v>
+        <v>0.000487339573838062</v>
       </c>
       <c r="E107" t="n">
-        <v>0.430098071922156</v>
+        <v>0.430098071922159</v>
       </c>
       <c r="F107" t="n">
-        <v>0.00584633102756856</v>
+        <v>0.00584633102874646</v>
       </c>
     </row>
     <row r="108">
@@ -4204,16 +4204,16 @@
         <v>210</v>
       </c>
       <c r="C108" t="n">
-        <v>-1.55513811184238</v>
+        <v>-1.55513811184231</v>
       </c>
       <c r="D108" t="n">
-        <v>0.000330572481043112</v>
+        <v>0.000330572480728281</v>
       </c>
       <c r="E108" t="n">
         <v>-1.49508478152825</v>
       </c>
       <c r="F108" t="n">
-        <v>0.00066175837986167</v>
+        <v>0.000661758379927201</v>
       </c>
     </row>
     <row r="109">
@@ -4224,16 +4224,16 @@
         <v>212</v>
       </c>
       <c r="C109" t="n">
-        <v>1.11265798103267</v>
+        <v>1.11265798103263</v>
       </c>
       <c r="D109" t="n">
-        <v>0.00000116642979966335</v>
+        <v>0.00000116642979839257</v>
       </c>
       <c r="E109" t="n">
-        <v>0.927999535097804</v>
+        <v>0.92799953509781</v>
       </c>
       <c r="F109" t="n">
-        <v>0.000509032009849559</v>
+        <v>0.000509032009917982</v>
       </c>
     </row>
     <row r="110">
@@ -4244,16 +4244,16 @@
         <v>214</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.674350800508416</v>
+        <v>-0.674350800508459</v>
       </c>
       <c r="D110" t="n">
-        <v>0.00861500663348863</v>
+        <v>0.00861500663073574</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.781376560684188</v>
+        <v>-0.781376560684181</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0155083830970297</v>
+        <v>0.015508383098218</v>
       </c>
     </row>
     <row r="111">
@@ -4264,16 +4264,16 @@
         <v>216</v>
       </c>
       <c r="C111" t="n">
-        <v>1.38364629962277</v>
+        <v>1.38364629962279</v>
       </c>
       <c r="D111" t="n">
-        <v>0.00000000000000000700472805645515</v>
+        <v>0.00000000000000000700472802841331</v>
       </c>
       <c r="E111" t="n">
         <v>1.25602813872401</v>
       </c>
       <c r="F111" t="n">
-        <v>0.00000147446799715378</v>
+        <v>0.00000147446799742995</v>
       </c>
     </row>
     <row r="112">
@@ -4282,16 +4282,16 @@
       </c>
       <c r="B112"/>
       <c r="C112" t="n">
-        <v>-2.10334291717053</v>
+        <v>-2.10334291717082</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0307516718304481</v>
+        <v>0.0307516718258493</v>
       </c>
       <c r="E112" t="n">
-        <v>-2.55267453114166</v>
+        <v>-2.55267453114168</v>
       </c>
       <c r="F112" t="n">
-        <v>0.00603024649340171</v>
+        <v>0.0060302464943363</v>
       </c>
     </row>
     <row r="113">
@@ -4302,16 +4302,16 @@
         <v>219</v>
       </c>
       <c r="C113" t="n">
-        <v>-1.35643445731738</v>
+        <v>-1.35643445731739</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0000000000000824859887284372</v>
+        <v>0.0000000000000824859885043473</v>
       </c>
       <c r="E113" t="n">
-        <v>-1.01985855584433</v>
+        <v>-1.01985855584432</v>
       </c>
       <c r="F113" t="n">
-        <v>0.00000169299809217433</v>
+        <v>0.00000169299809258707</v>
       </c>
     </row>
     <row r="114">
@@ -4322,16 +4322,16 @@
         <v>221</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.57082278689247</v>
+        <v>-0.570822786892494</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0209097991055576</v>
+        <v>0.0209097991003014</v>
       </c>
       <c r="E114" t="n">
-        <v>-0.820002249335972</v>
+        <v>-0.820002249335967</v>
       </c>
       <c r="F114" t="n">
-        <v>0.000298118941003239</v>
+        <v>0.000298113803952398</v>
       </c>
     </row>
     <row r="115">
@@ -4342,16 +4342,16 @@
         <v>223</v>
       </c>
       <c r="C115" t="n">
-        <v>2.78629164703596</v>
+        <v>2.78629164703604</v>
       </c>
       <c r="D115" t="n">
-        <v>0.000000000000000000000830736812535298</v>
+        <v>0.000000000000000000000830736810494827</v>
       </c>
       <c r="E115" t="n">
-        <v>1.86592352017205</v>
+        <v>1.86592352017204</v>
       </c>
       <c r="F115" t="n">
-        <v>0.00000120467690247401</v>
+        <v>0.0000012046769028012</v>
       </c>
     </row>
     <row r="116">
@@ -4362,16 +4362,16 @@
         <v>225</v>
       </c>
       <c r="C116" t="n">
-        <v>-1.24753748023053</v>
+        <v>-1.24753748023059</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0148603782174596</v>
+        <v>0.0148603782144514</v>
       </c>
       <c r="E116" t="n">
         <v>-1.13338051169565</v>
       </c>
       <c r="F116" t="n">
-        <v>0.0414906334167328</v>
+        <v>0.0414906334183696</v>
       </c>
     </row>
     <row r="117">
@@ -4383,13 +4383,13 @@
         <v>2.56054561793604</v>
       </c>
       <c r="D117" t="n">
-        <v>0.00139043286714835</v>
+        <v>0.00139043286680129</v>
       </c>
       <c r="E117" t="n">
-        <v>2.78463327641348</v>
+        <v>2.7846332764135</v>
       </c>
       <c r="F117" t="n">
-        <v>0.0000423517673715074</v>
+        <v>0.0000423517673760113</v>
       </c>
     </row>
     <row r="118">
@@ -4400,16 +4400,16 @@
         <v>228</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.963859645865664</v>
+        <v>-0.963859645865659</v>
       </c>
       <c r="D118" t="n">
-        <v>0.000012031265685308</v>
+        <v>0.0000120312656729027</v>
       </c>
       <c r="E118" t="n">
         <v>-0.729616360837306</v>
       </c>
       <c r="F118" t="n">
-        <v>0.00696655647358443</v>
+        <v>0.00696655647435416</v>
       </c>
     </row>
     <row r="119">
@@ -4420,16 +4420,16 @@
         <v>230</v>
       </c>
       <c r="C119" t="n">
-        <v>0.672666174255297</v>
+        <v>0.672666174255338</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0000475823119334199</v>
+        <v>0.000047582311868191</v>
       </c>
       <c r="E119" t="n">
-        <v>0.584558781080786</v>
+        <v>0.584558781080777</v>
       </c>
       <c r="F119" t="n">
-        <v>0.00024157002214106</v>
+        <v>0.000241570022189459</v>
       </c>
     </row>
     <row r="120">
@@ -4440,16 +4440,16 @@
         <v>232</v>
       </c>
       <c r="C120" t="n">
-        <v>0.33717154563996</v>
+        <v>0.337171545639972</v>
       </c>
       <c r="D120" t="n">
-        <v>0.036489354981986</v>
+        <v>0.0364893549555313</v>
       </c>
       <c r="E120" t="n">
-        <v>0.499262606402247</v>
+        <v>0.499262606402248</v>
       </c>
       <c r="F120" t="n">
-        <v>0.0020983161034229</v>
+        <v>0.00209831610387846</v>
       </c>
     </row>
     <row r="121">
@@ -4460,16 +4460,16 @@
         <v>234</v>
       </c>
       <c r="C121" t="n">
-        <v>1.37410196314481</v>
+        <v>1.37410196314489</v>
       </c>
       <c r="D121" t="n">
-        <v>0.00000000149021866186042</v>
+        <v>0.00000000149021865967114</v>
       </c>
       <c r="E121" t="n">
         <v>1.10936933442901</v>
       </c>
       <c r="F121" t="n">
-        <v>0.00592915612057923</v>
+        <v>0.00592915612096947</v>
       </c>
     </row>
     <row r="122">
@@ -4480,16 +4480,16 @@
         <v>236</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.491822405115344</v>
+        <v>-0.491822405115355</v>
       </c>
       <c r="D122" t="n">
-        <v>0.00000201521952147049</v>
+        <v>0.00000201521951806101</v>
       </c>
       <c r="E122" t="n">
         <v>-0.5708962154728</v>
       </c>
       <c r="F122" t="n">
-        <v>0.0000114763091119526</v>
+        <v>0.0000114763091166172</v>
       </c>
     </row>
     <row r="123">
@@ -4500,16 +4500,16 @@
         <v>238</v>
       </c>
       <c r="C123" t="n">
-        <v>1.28396645607106</v>
+        <v>1.28396645607104</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0000000000980462148788846</v>
+        <v>0.0000000000980462146849181</v>
       </c>
       <c r="E123" t="n">
-        <v>0.98442027434542</v>
+        <v>0.984420274345416</v>
       </c>
       <c r="F123" t="n">
-        <v>0.00024157002214106</v>
+        <v>0.000241570022189459</v>
       </c>
     </row>
     <row r="124">
@@ -4518,16 +4518,16 @@
       </c>
       <c r="B124"/>
       <c r="C124" t="n">
-        <v>-0.997366768527964</v>
+        <v>-0.997366768528037</v>
       </c>
       <c r="D124" t="n">
-        <v>0.000357627776493495</v>
+        <v>0.00035762777627592</v>
       </c>
       <c r="E124" t="n">
         <v>-1.08812478590085</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0000000757432480093262</v>
+        <v>0.0000000757432480372331</v>
       </c>
     </row>
     <row r="125">
@@ -4538,16 +4538,16 @@
         <v>241</v>
       </c>
       <c r="C125" t="n">
-        <v>-1.26283943812905</v>
+        <v>-1.26283943812901</v>
       </c>
       <c r="D125" t="n">
-        <v>0.00163992730683942</v>
+        <v>0.00163992730497551</v>
       </c>
       <c r="E125" t="n">
         <v>-1.56127155326901</v>
       </c>
       <c r="F125" t="n">
-        <v>0.00463530762150436</v>
+        <v>0.00463530762181743</v>
       </c>
     </row>
     <row r="126">
@@ -4558,16 +4558,16 @@
         <v>243</v>
       </c>
       <c r="C126" t="n">
-        <v>0.922102138241544</v>
+        <v>0.922102138241602</v>
       </c>
       <c r="D126" t="n">
-        <v>0.00105757252929715</v>
+        <v>0.00105757252874418</v>
       </c>
       <c r="E126" t="n">
-        <v>0.725835969493461</v>
+        <v>0.725835969493452</v>
       </c>
       <c r="F126" t="n">
-        <v>0.0352750495598387</v>
+        <v>0.0352750495639703</v>
       </c>
     </row>
     <row r="127">
@@ -4578,16 +4578,16 @@
         <v>245</v>
       </c>
       <c r="C127" t="n">
-        <v>1.04164577397253</v>
+        <v>1.04164577397254</v>
       </c>
       <c r="D127" t="n">
-        <v>0.000000581465727217158</v>
+        <v>0.000000581465726911176</v>
       </c>
       <c r="E127" t="n">
         <v>1.19398954712738</v>
       </c>
       <c r="F127" t="n">
-        <v>0.00000327052601634202</v>
+        <v>0.00000327052601695408</v>
       </c>
     </row>
     <row r="128">
@@ -4598,16 +4598,16 @@
         <v>247</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.512995929778031</v>
+        <v>-0.512995929777985</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0178351812881112</v>
+        <v>0.0178351812778124</v>
       </c>
       <c r="E128" t="n">
-        <v>-0.430576889071581</v>
+        <v>-0.430576889071582</v>
       </c>
       <c r="F128" t="n">
-        <v>0.0144241732462673</v>
+        <v>0.0144241732485111</v>
       </c>
     </row>
     <row r="129">
@@ -4616,16 +4616,16 @@
       </c>
       <c r="B129"/>
       <c r="C129" t="n">
-        <v>-0.667690068000785</v>
+        <v>-0.667690068000753</v>
       </c>
       <c r="D129" t="n">
-        <v>0.000130260873620285</v>
+        <v>0.000130260873470083</v>
       </c>
       <c r="E129" t="n">
-        <v>-0.751114286317947</v>
+        <v>-0.751114286317945</v>
       </c>
       <c r="F129" t="n">
-        <v>0.000298118941003239</v>
+        <v>0.000298113803952398</v>
       </c>
     </row>
     <row r="130">
@@ -4636,16 +4636,16 @@
         <v>250</v>
       </c>
       <c r="C130" t="n">
-        <v>0.668518980843588</v>
+        <v>0.668518980843622</v>
       </c>
       <c r="D130" t="n">
-        <v>0.000400622723376183</v>
+        <v>0.000400622722997635</v>
       </c>
       <c r="E130" t="n">
-        <v>0.53906157631227</v>
+        <v>0.539061576312275</v>
       </c>
       <c r="F130" t="n">
-        <v>0.0210848564453242</v>
+        <v>0.0210848564475835</v>
       </c>
     </row>
     <row r="131">
@@ -4656,16 +4656,16 @@
         <v>252</v>
       </c>
       <c r="C131" t="n">
-        <v>-1.38020600466815</v>
+        <v>-1.38020600466825</v>
       </c>
       <c r="D131" t="n">
-        <v>0.00253685477237419</v>
+        <v>0.00253685477158878</v>
       </c>
       <c r="E131" t="n">
         <v>-1.09615009026203</v>
       </c>
       <c r="F131" t="n">
-        <v>0.0224590013328397</v>
+        <v>0.0224590013341727</v>
       </c>
     </row>
     <row r="132">
@@ -4676,16 +4676,16 @@
         <v>254</v>
       </c>
       <c r="C132" t="n">
-        <v>0.494453723479659</v>
+        <v>0.494453723479677</v>
       </c>
       <c r="D132" t="n">
-        <v>0.000266351965930337</v>
+        <v>0.000266351965506438</v>
       </c>
       <c r="E132" t="n">
-        <v>0.699633581487644</v>
+        <v>0.699633581487643</v>
       </c>
       <c r="F132" t="n">
-        <v>0.0000220777456806869</v>
+        <v>0.0000220777456868376</v>
       </c>
     </row>
     <row r="133">
@@ -4696,16 +4696,16 @@
         <v>256</v>
       </c>
       <c r="C133" t="n">
-        <v>6.92882618455989</v>
+        <v>6.92882618455984</v>
       </c>
       <c r="D133" t="n">
-        <v>0.00530325962504181</v>
+        <v>0.00530325962320334</v>
       </c>
       <c r="E133" t="n">
         <v>6.92033597247407</v>
       </c>
       <c r="F133" t="n">
-        <v>0.011684312626439</v>
+        <v>0.0116843126268831</v>
       </c>
     </row>
     <row r="134">
@@ -4714,16 +4714,16 @@
       </c>
       <c r="B134"/>
       <c r="C134" t="n">
-        <v>-0.711926604615914</v>
+        <v>-0.711926604615854</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0000563121575506207</v>
+        <v>0.0000563121574830756</v>
       </c>
       <c r="E134" t="n">
-        <v>-0.81152455610548</v>
+        <v>-0.811524556105481</v>
       </c>
       <c r="F134" t="n">
-        <v>0.0000167747377328908</v>
+        <v>0.0000167747377370732</v>
       </c>
     </row>
     <row r="135">
@@ -4734,16 +4734,16 @@
         <v>259</v>
       </c>
       <c r="C135" t="n">
-        <v>-2.52344774058824</v>
+        <v>-2.523447740588</v>
       </c>
       <c r="D135" t="n">
-        <v>0.000000710217381771512</v>
+        <v>0.000000710217381383683</v>
       </c>
       <c r="E135" t="n">
-        <v>-1.92414215637318</v>
+        <v>-1.92414215637317</v>
       </c>
       <c r="F135" t="n">
-        <v>0.0000349845642981733</v>
+        <v>0.0000349845643021402</v>
       </c>
     </row>
     <row r="136">
@@ -4754,16 +4754,16 @@
         <v>261</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.913826929951024</v>
+        <v>-0.913826929950955</v>
       </c>
       <c r="D136" t="n">
-        <v>0.00194729620229802</v>
+        <v>0.00194729620139228</v>
       </c>
       <c r="E136" t="n">
-        <v>-0.907379753325723</v>
+        <v>-0.907379753325714</v>
       </c>
       <c r="F136" t="n">
-        <v>0.000907017376302668</v>
+        <v>0.000907017376415899</v>
       </c>
     </row>
     <row r="137">
@@ -4774,16 +4774,16 @@
         <v>263</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.455164201051057</v>
+        <v>-0.455164201051049</v>
       </c>
       <c r="D137" t="n">
-        <v>0.000113551553721819</v>
+        <v>0.000113551553480614</v>
       </c>
       <c r="E137" t="n">
-        <v>-0.412948251899245</v>
+        <v>-0.412948251899246</v>
       </c>
       <c r="F137" t="n">
-        <v>0.00874630100287821</v>
+        <v>0.00874630100457782</v>
       </c>
     </row>
     <row r="138">
@@ -4794,16 +4794,16 @@
         <v>265</v>
       </c>
       <c r="C138" t="n">
-        <v>0.913060300216592</v>
+        <v>0.913060300216635</v>
       </c>
       <c r="D138" t="n">
-        <v>0.000000730149514392714</v>
+        <v>0.000000730149513292543</v>
       </c>
       <c r="E138" t="n">
         <v>0.696272968349175</v>
       </c>
       <c r="F138" t="n">
-        <v>0.00502926214176572</v>
+        <v>0.00502926214232977</v>
       </c>
     </row>
     <row r="139">
@@ -4814,16 +4814,16 @@
         <v>267</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.462089877350451</v>
+        <v>-0.462089877350446</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0000510046962548244</v>
+        <v>0.0000510046961319842</v>
       </c>
       <c r="E139" t="n">
-        <v>-0.646782701017567</v>
+        <v>-0.646782701017568</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0000000681478788391237</v>
+        <v>0.0000000681478788568312</v>
       </c>
     </row>
     <row r="140">
@@ -4834,16 +4834,16 @@
         <v>269</v>
       </c>
       <c r="C140" t="n">
-        <v>0.982451624764506</v>
+        <v>0.982451624764548</v>
       </c>
       <c r="D140" t="n">
-        <v>0.000841785562046259</v>
+        <v>0.000841785561603025</v>
       </c>
       <c r="E140" t="n">
-        <v>0.761201587509517</v>
+        <v>0.761201587509514</v>
       </c>
       <c r="F140" t="n">
-        <v>0.0442901604725531</v>
+        <v>0.044290160475365</v>
       </c>
     </row>
     <row r="141">
@@ -4854,16 +4854,16 @@
         <v>271</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.579111381122389</v>
+        <v>-0.579111381122436</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0167807930352909</v>
+        <v>0.0167807930312292</v>
       </c>
       <c r="E141" t="n">
-        <v>-0.524025018162084</v>
+        <v>-0.524025018162086</v>
       </c>
       <c r="F141" t="n">
-        <v>0.0347943571872454</v>
+        <v>0.0347943571904024</v>
       </c>
     </row>
     <row r="142">
@@ -4874,16 +4874,16 @@
         <v>273</v>
       </c>
       <c r="C142" t="n">
-        <v>0.68944578493105</v>
+        <v>0.689445784931033</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0000369157299072883</v>
+        <v>0.0000369157298579863</v>
       </c>
       <c r="E142" t="n">
-        <v>0.753712909045154</v>
+        <v>0.753712909045158</v>
       </c>
       <c r="F142" t="n">
-        <v>0.000223806059369121</v>
+        <v>0.000223806059410394</v>
       </c>
     </row>
     <row r="143">
@@ -4894,16 +4894,16 @@
         <v>275</v>
       </c>
       <c r="C143" t="n">
-        <v>-2.08897923213409</v>
+        <v>-2.08897923213421</v>
       </c>
       <c r="D143" t="n">
-        <v>0.00004439245072468</v>
+        <v>0.0000443924507053958</v>
       </c>
       <c r="E143" t="n">
         <v>-1.45888537797331</v>
       </c>
       <c r="F143" t="n">
-        <v>0.00355212840831851</v>
+        <v>0.00355212840859384</v>
       </c>
     </row>
     <row r="144">
@@ -4914,16 +4914,16 @@
         <v>277</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.611039442809304</v>
+        <v>-0.611039442809241</v>
       </c>
       <c r="D144" t="n">
-        <v>0.0234877976574836</v>
+        <v>0.0234877976486552</v>
       </c>
       <c r="E144" t="n">
-        <v>-0.61121164398935</v>
+        <v>-0.611211643989351</v>
       </c>
       <c r="F144" t="n">
-        <v>0.0427235368476854</v>
+        <v>0.0427235368507549</v>
       </c>
     </row>
     <row r="145">
@@ -4934,16 +4934,16 @@
         <v>279</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.660903253871007</v>
+        <v>-0.660903253871079</v>
       </c>
       <c r="D145" t="n">
-        <v>0.0354568215622947</v>
+        <v>0.0354568215559693</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.742633662330985</v>
+        <v>-0.742633662330977</v>
       </c>
       <c r="F145" t="n">
-        <v>0.0170511942695535</v>
+        <v>0.0170511942708797</v>
       </c>
     </row>
     <row r="146">
@@ -4954,16 +4954,16 @@
         <v>281</v>
       </c>
       <c r="C146" t="n">
-        <v>0.907964190163984</v>
+        <v>0.907964190163981</v>
       </c>
       <c r="D146" t="n">
-        <v>0.00286695102203448</v>
+        <v>0.00286695102075169</v>
       </c>
       <c r="E146" t="n">
-        <v>0.984973582028868</v>
+        <v>0.984973582028873</v>
       </c>
       <c r="F146" t="n">
-        <v>0.0221310323041082</v>
+        <v>0.0221310323053746</v>
       </c>
     </row>
     <row r="147">
@@ -4974,16 +4974,16 @@
         <v>283</v>
       </c>
       <c r="C147" t="n">
-        <v>-1.13066871927929</v>
+        <v>-1.13066871927927</v>
       </c>
       <c r="D147" t="n">
-        <v>0.00000000740876799111635</v>
+        <v>0.00000000740876797868175</v>
       </c>
       <c r="E147" t="n">
         <v>-1.35778338487911</v>
       </c>
       <c r="F147" t="n">
-        <v>0.000000000132911257499578</v>
+        <v>0.000000000132911257550241</v>
       </c>
     </row>
     <row r="148">
@@ -4994,16 +4994,16 @@
         <v>285</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.43871261024121</v>
+        <v>-0.438712610241186</v>
       </c>
       <c r="D148" t="n">
-        <v>0.0111226954404716</v>
+        <v>0.0111226954310956</v>
       </c>
       <c r="E148" t="n">
-        <v>-0.50917924662848</v>
+        <v>-0.509179246628487</v>
       </c>
       <c r="F148" t="n">
-        <v>0.00881256791527495</v>
+        <v>0.00881256791654562</v>
       </c>
     </row>
     <row r="149">
@@ -5014,16 +5014,16 @@
         <v>287</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.795464457098024</v>
+        <v>-0.795464457097999</v>
       </c>
       <c r="D149" t="n">
-        <v>0.00000285014283063089</v>
+        <v>0.00000285014282037735</v>
       </c>
       <c r="E149" t="n">
         <v>-1.03221580811506</v>
       </c>
       <c r="F149" t="n">
-        <v>0.00000092752149214264</v>
+        <v>0.000000927521492310209</v>
       </c>
     </row>
     <row r="150">
@@ -5034,16 +5034,16 @@
         <v>289</v>
       </c>
       <c r="C150" t="n">
-        <v>0.952193235869925</v>
+        <v>0.952193235869934</v>
       </c>
       <c r="D150" t="n">
-        <v>0.00150079722298924</v>
+        <v>0.00150079722223399</v>
       </c>
       <c r="E150" t="n">
         <v>1.05124853052912</v>
       </c>
       <c r="F150" t="n">
-        <v>0.0055996829072911</v>
+        <v>0.00559968290772928</v>
       </c>
     </row>
     <row r="151">
@@ -5054,16 +5054,16 @@
         <v>291</v>
       </c>
       <c r="C151" t="n">
-        <v>0.801224508936412</v>
+        <v>0.801224508936476</v>
       </c>
       <c r="D151" t="n">
-        <v>0.0292210493357635</v>
+        <v>0.0292210493284035</v>
       </c>
       <c r="E151" t="n">
-        <v>0.942614397057932</v>
+        <v>0.942614397057928</v>
       </c>
       <c r="F151" t="n">
-        <v>0.0488867700443574</v>
+        <v>0.0488867700464468</v>
       </c>
     </row>
     <row r="152">
@@ -5074,16 +5074,16 @@
         <v>293</v>
       </c>
       <c r="C152" t="n">
-        <v>0.455763655512027</v>
+        <v>0.455763655512034</v>
       </c>
       <c r="D152" t="n">
-        <v>0.0000175527631528071</v>
+        <v>0.0000175527631029411</v>
       </c>
       <c r="E152" t="n">
-        <v>0.440042791026361</v>
+        <v>0.440042791026357</v>
       </c>
       <c r="F152" t="n">
-        <v>0.0251606236945274</v>
+        <v>0.0251606236977308</v>
       </c>
     </row>
     <row r="153">
@@ -5094,16 +5094,16 @@
         <v>295</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.881153086396198</v>
+        <v>-0.881153086396227</v>
       </c>
       <c r="D153" t="n">
-        <v>0.01229614665113</v>
+        <v>0.0122961466472147</v>
       </c>
       <c r="E153" t="n">
-        <v>-0.935554175272571</v>
+        <v>-0.935554175272577</v>
       </c>
       <c r="F153" t="n">
-        <v>0.0193772634599005</v>
+        <v>0.0193772634611877</v>
       </c>
     </row>
     <row r="154">
@@ -5117,13 +5117,13 @@
         <v>1.08868300753797</v>
       </c>
       <c r="D154" t="n">
-        <v>0.0157731150955893</v>
+        <v>0.0157731150916474</v>
       </c>
       <c r="E154" t="n">
-        <v>1.42096319891124</v>
+        <v>1.42096319891126</v>
       </c>
       <c r="F154" t="n">
-        <v>0.000204749918078509</v>
+        <v>0.000204749918102638</v>
       </c>
     </row>
     <row r="155">
@@ -5134,16 +5134,16 @@
         <v>299</v>
       </c>
       <c r="C155" t="n">
-        <v>4.98366851868267</v>
+        <v>4.98366851868183</v>
       </c>
       <c r="D155" t="n">
-        <v>0.00135001365995188</v>
+        <v>0.00135001365967694</v>
       </c>
       <c r="E155" t="n">
-        <v>4.56575293096857</v>
+        <v>4.56575293096874</v>
       </c>
       <c r="F155" t="n">
-        <v>0.0388416838313168</v>
+        <v>0.0388416838325277</v>
       </c>
     </row>
     <row r="156">
@@ -5154,16 +5154,16 @@
         <v>301</v>
       </c>
       <c r="C156" t="n">
-        <v>1.12173407903947</v>
+        <v>1.12173407903948</v>
       </c>
       <c r="D156" t="n">
-        <v>0.0000112489499328562</v>
+        <v>0.000011248949923534</v>
       </c>
       <c r="E156" t="n">
         <v>1.20703701513775</v>
       </c>
       <c r="F156" t="n">
-        <v>0.00000053873989393868</v>
+        <v>0.000000538739894065293</v>
       </c>
     </row>
     <row r="157">
@@ -5174,16 +5174,16 @@
         <v>303</v>
       </c>
       <c r="C157" t="n">
-        <v>1.42340662348034</v>
+        <v>1.42340662348032</v>
       </c>
       <c r="D157" t="n">
-        <v>0.0000000000914797266948603</v>
+        <v>0.0000000000914797262419135</v>
       </c>
       <c r="E157" t="n">
-        <v>1.36820213253792</v>
+        <v>1.36820213253793</v>
       </c>
       <c r="F157" t="n">
-        <v>0.0000000681478788391237</v>
+        <v>0.0000000681478788568312</v>
       </c>
     </row>
     <row r="158">
@@ -5194,16 +5194,16 @@
         <v>305</v>
       </c>
       <c r="C158" t="n">
-        <v>1.39597841431097</v>
+        <v>1.39597841431106</v>
       </c>
       <c r="D158" t="n">
-        <v>0.0000000202278560417325</v>
+        <v>0.0000000202278560171105</v>
       </c>
       <c r="E158" t="n">
-        <v>1.41537332898259</v>
+        <v>1.41537332898258</v>
       </c>
       <c r="F158" t="n">
-        <v>0.00197488820822895</v>
+        <v>0.00197488820836043</v>
       </c>
     </row>
     <row r="159">
@@ -5212,16 +5212,16 @@
       </c>
       <c r="B159"/>
       <c r="C159" t="n">
-        <v>-0.42376218677033</v>
+        <v>-0.423762186770283</v>
       </c>
       <c r="D159" t="n">
-        <v>0.0287717874752976</v>
+        <v>0.0287717874666185</v>
       </c>
       <c r="E159" t="n">
-        <v>-0.50374523663043</v>
+        <v>-0.503745236630433</v>
       </c>
       <c r="F159" t="n">
-        <v>0.0308255388862927</v>
+        <v>0.0308255388874648</v>
       </c>
     </row>
     <row r="160">
@@ -5232,16 +5232,16 @@
         <v>308</v>
       </c>
       <c r="C160" t="n">
-        <v>1.65071683758569</v>
+        <v>1.65071683758571</v>
       </c>
       <c r="D160" t="n">
-        <v>0.000622295583713882</v>
+        <v>0.0006222955834898</v>
       </c>
       <c r="E160" t="n">
         <v>1.49419155834567</v>
       </c>
       <c r="F160" t="n">
-        <v>0.00874630100287821</v>
+        <v>0.00874630100457782</v>
       </c>
     </row>
     <row r="161">
@@ -5252,16 +5252,16 @@
         <v>310</v>
       </c>
       <c r="C161" t="n">
-        <v>0.882573982529174</v>
+        <v>0.882573982529164</v>
       </c>
       <c r="D161" t="n">
-        <v>0.0166651932260255</v>
+        <v>0.0166651932211407</v>
       </c>
       <c r="E161" t="n">
-        <v>0.999334944273206</v>
+        <v>0.999334944273207</v>
       </c>
       <c r="F161" t="n">
-        <v>0.0207666750746127</v>
+        <v>0.0207666750752681</v>
       </c>
     </row>
     <row r="162">
@@ -5272,16 +5272,16 @@
         <v>312</v>
       </c>
       <c r="C162" t="n">
-        <v>-6.46179831376269</v>
+        <v>-6.46179831376267</v>
       </c>
       <c r="D162" t="n">
-        <v>0.017115816760687</v>
+        <v>0.017115816757235</v>
       </c>
       <c r="E162" t="n">
-        <v>-6.33189095382294</v>
+        <v>-6.33189095382295</v>
       </c>
       <c r="F162" t="n">
-        <v>0.0421237288704674</v>
+        <v>0.0421237288718573</v>
       </c>
     </row>
     <row r="163">
@@ -5292,16 +5292,16 @@
         <v>314</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.841342943648954</v>
+        <v>-0.841342943648951</v>
       </c>
       <c r="D163" t="n">
-        <v>0.00119270286559121</v>
+        <v>0.00119270286488678</v>
       </c>
       <c r="E163" t="n">
-        <v>-0.766025067000503</v>
+        <v>-0.7660250670005</v>
       </c>
       <c r="F163" t="n">
-        <v>0.0201416697803352</v>
+        <v>0.020141669782452</v>
       </c>
     </row>
     <row r="164">
@@ -5312,16 +5312,16 @@
         <v>316</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.565924962193726</v>
+        <v>-0.565924962193767</v>
       </c>
       <c r="D164" t="n">
-        <v>0.00053198497131403</v>
+        <v>0.000531984970662524</v>
       </c>
       <c r="E164" t="n">
         <v>-0.372400024322602</v>
       </c>
       <c r="F164" t="n">
-        <v>0.0152697900851169</v>
+        <v>0.015269790085944</v>
       </c>
     </row>
     <row r="165">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="B165"/>
       <c r="C165" t="n">
-        <v>1.21909683272913</v>
+        <v>1.21909683272916</v>
       </c>
       <c r="D165" t="n">
-        <v>0.00000000000092212271678564</v>
+        <v>0.000000000000922122714246652</v>
       </c>
       <c r="E165" t="n">
-        <v>1.27492063321359</v>
+        <v>1.2749206332136</v>
       </c>
       <c r="F165" t="n">
-        <v>0.000000000000249527367583566</v>
+        <v>0.000000000000249527367722808</v>
       </c>
     </row>
     <row r="166">
@@ -5350,16 +5350,16 @@
         <v>319</v>
       </c>
       <c r="C166" t="n">
-        <v>1.28782191551443</v>
+        <v>1.2878219155145</v>
       </c>
       <c r="D166" t="n">
-        <v>0.00246803481499363</v>
+        <v>0.00246803481418209</v>
       </c>
       <c r="E166" t="n">
-        <v>1.4105290104795</v>
+        <v>1.41052901047948</v>
       </c>
       <c r="F166" t="n">
-        <v>0.00154042017840119</v>
+        <v>0.00154042017852777</v>
       </c>
     </row>
     <row r="167">
@@ -5368,16 +5368,16 @@
       </c>
       <c r="B167"/>
       <c r="C167" t="n">
-        <v>-0.682695557633647</v>
+        <v>-0.682695557633659</v>
       </c>
       <c r="D167" t="n">
-        <v>0.0000000328243606176018</v>
+        <v>0.0000000328243605166744</v>
       </c>
       <c r="E167" t="n">
-        <v>-0.617708214888411</v>
+        <v>-0.617708214888407</v>
       </c>
       <c r="F167" t="n">
-        <v>0.000497519644219878</v>
+        <v>0.000497519644323336</v>
       </c>
     </row>
     <row r="168">
@@ -5388,16 +5388,16 @@
         <v>322</v>
       </c>
       <c r="C168" t="n">
-        <v>0.804085159459184</v>
+        <v>0.804085159459172</v>
       </c>
       <c r="D168" t="n">
-        <v>0.000833846550394074</v>
+        <v>0.000833846549854277</v>
       </c>
       <c r="E168" t="n">
-        <v>0.998265956374199</v>
+        <v>0.998265956374195</v>
       </c>
       <c r="F168" t="n">
-        <v>0.00000381032660266356</v>
+        <v>0.0000038103266035241</v>
       </c>
     </row>
     <row r="169">
@@ -5408,10 +5408,10 @@
         <v>324</v>
       </c>
       <c r="C169" t="n">
-        <v>2.66935941724349</v>
+        <v>2.66935941724356</v>
       </c>
       <c r="D169" t="n">
-        <v>0.0000000000000000000000000000000000000217269173546783</v>
+        <v>0.0000000000000000000000000000000000000217269172240609</v>
       </c>
       <c r="E169" t="n">
         <v>2.59164596581392</v>
@@ -5428,16 +5428,16 @@
         <v>326</v>
       </c>
       <c r="C170" t="n">
-        <v>-1.46886261154856</v>
+        <v>-1.46886261154868</v>
       </c>
       <c r="D170" t="n">
-        <v>0.0000853153950705112</v>
+        <v>0.0000853153950240933</v>
       </c>
       <c r="E170" t="n">
         <v>-1.07710366338156</v>
       </c>
       <c r="F170" t="n">
-        <v>0.0107576239009372</v>
+        <v>0.0107576239017627</v>
       </c>
     </row>
     <row r="171">
@@ -5448,16 +5448,16 @@
         <v>328</v>
       </c>
       <c r="C171" t="n">
-        <v>0.934146207338604</v>
+        <v>0.934146207338607</v>
       </c>
       <c r="D171" t="n">
-        <v>0.00735032821274003</v>
+        <v>0.00735032820472684</v>
       </c>
       <c r="E171" t="n">
-        <v>0.936523744810015</v>
+        <v>0.93652374481002</v>
       </c>
       <c r="F171" t="n">
-        <v>0.00763531506604483</v>
+        <v>0.00763531506660882</v>
       </c>
     </row>
     <row r="172">
@@ -5468,16 +5468,16 @@
         <v>330</v>
       </c>
       <c r="C172" t="n">
-        <v>-0.689694257964884</v>
+        <v>-0.689694257964865</v>
       </c>
       <c r="D172" t="n">
-        <v>0.00000000000722270410448828</v>
+        <v>0.0000000000072227040625416</v>
       </c>
       <c r="E172" t="n">
-        <v>-0.730741797721601</v>
+        <v>-0.730741797721603</v>
       </c>
       <c r="F172" t="n">
-        <v>0.00000000013374408396191</v>
+        <v>0.000000000133744084070993</v>
       </c>
     </row>
     <row r="173">
@@ -5488,16 +5488,16 @@
         <v>332</v>
       </c>
       <c r="C173" t="n">
-        <v>0.548866498914232</v>
+        <v>0.548866498914212</v>
       </c>
       <c r="D173" t="n">
-        <v>0.00202432705237241</v>
+        <v>0.00202432705094281</v>
       </c>
       <c r="E173" t="n">
-        <v>0.460781738281047</v>
+        <v>0.460781738281036</v>
       </c>
       <c r="F173" t="n">
-        <v>0.0266476997061319</v>
+        <v>0.0266476997093591</v>
       </c>
     </row>
     <row r="174">
@@ -5508,16 +5508,16 @@
         <v>334</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.718014788331047</v>
+        <v>-0.718014788331015</v>
       </c>
       <c r="D174" t="n">
-        <v>0.00000285014283063089</v>
+        <v>0.00000285014282037735</v>
       </c>
       <c r="E174" t="n">
-        <v>-0.629321093681403</v>
+        <v>-0.629321093681407</v>
       </c>
       <c r="F174" t="n">
-        <v>0.000153235708465566</v>
+        <v>0.000153235708504487</v>
       </c>
     </row>
     <row r="175">
@@ -5528,16 +5528,16 @@
         <v>336</v>
       </c>
       <c r="C175" t="n">
-        <v>0.728118049688983</v>
+        <v>0.728118049688987</v>
       </c>
       <c r="D175" t="n">
-        <v>0.00000000000407643715243985</v>
+        <v>0.0000000000040764371298055</v>
       </c>
       <c r="E175" t="n">
-        <v>0.480795801574477</v>
+        <v>0.480795801574473</v>
       </c>
       <c r="F175" t="n">
-        <v>0.00077314736310521</v>
+        <v>0.000773147363312539</v>
       </c>
     </row>
     <row r="176">
@@ -5548,16 +5548,16 @@
         <v>338</v>
       </c>
       <c r="C176" t="n">
-        <v>1.45161925233547</v>
+        <v>1.45161925233552</v>
       </c>
       <c r="D176" t="n">
-        <v>0.0000000000732940059879703</v>
+        <v>0.0000000000732940058619558</v>
       </c>
       <c r="E176" t="n">
         <v>1.41912662711516</v>
       </c>
       <c r="F176" t="n">
-        <v>0.0000216418656425382</v>
+        <v>0.0000216418656452424</v>
       </c>
     </row>
     <row r="177">
@@ -5568,16 +5568,16 @@
         <v>340</v>
       </c>
       <c r="C177" t="n">
-        <v>2.0080539720441</v>
+        <v>2.00805397204409</v>
       </c>
       <c r="D177" t="n">
-        <v>0.00606290052349329</v>
+        <v>0.00606290052224124</v>
       </c>
       <c r="E177" t="n">
-        <v>1.80936169993251</v>
+        <v>1.8093616999325</v>
       </c>
       <c r="F177" t="n">
-        <v>0.0298355918382848</v>
+        <v>0.0298355918396147</v>
       </c>
     </row>
     <row r="178">
@@ -5586,16 +5586,16 @@
       </c>
       <c r="B178"/>
       <c r="C178" t="n">
-        <v>0.765521800414744</v>
+        <v>0.765521800414706</v>
       </c>
       <c r="D178" t="n">
-        <v>0.00118911138474933</v>
+        <v>0.00118911138399066</v>
       </c>
       <c r="E178" t="n">
-        <v>0.671502073513109</v>
+        <v>0.671502073513112</v>
       </c>
       <c r="F178" t="n">
-        <v>0.0355119875865496</v>
+        <v>0.0355119875886207</v>
       </c>
     </row>
     <row r="179">
@@ -5606,16 +5606,16 @@
         <v>343</v>
       </c>
       <c r="C179" t="n">
-        <v>0.446880807699577</v>
+        <v>0.446880807699543</v>
       </c>
       <c r="D179" t="n">
-        <v>0.00790595661933298</v>
+        <v>0.00790595661273943</v>
       </c>
       <c r="E179" t="n">
-        <v>0.67536406067413</v>
+        <v>0.675364060674126</v>
       </c>
       <c r="F179" t="n">
-        <v>0.000264757844271029</v>
+        <v>0.000264757844325431</v>
       </c>
     </row>
     <row r="180">
@@ -5629,13 +5629,13 @@
         <v>0.645349144453083</v>
       </c>
       <c r="D180" t="n">
-        <v>0.00202432705237241</v>
+        <v>0.00202432705094281</v>
       </c>
       <c r="E180" t="n">
-        <v>0.570685666674216</v>
+        <v>0.570685666674213</v>
       </c>
       <c r="F180" t="n">
-        <v>0.0257342243989604</v>
+        <v>0.0257342244013323</v>
       </c>
     </row>
     <row r="181">
@@ -5646,16 +5646,16 @@
         <v>347</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.881978106027289</v>
+        <v>-0.881978106027287</v>
       </c>
       <c r="D181" t="n">
-        <v>0.00000000662777448167063</v>
+        <v>0.00000000662777446585241</v>
       </c>
       <c r="E181" t="n">
         <v>-0.567142707164319</v>
       </c>
       <c r="F181" t="n">
-        <v>0.00662980141204385</v>
+        <v>0.00662980141295981</v>
       </c>
     </row>
     <row r="182">
@@ -5664,16 +5664,16 @@
       </c>
       <c r="B182"/>
       <c r="C182" t="n">
-        <v>1.57953986788676</v>
+        <v>1.57953986788673</v>
       </c>
       <c r="D182" t="n">
-        <v>0.000000000000126993990359207</v>
+        <v>0.000000000000126993990082385</v>
       </c>
       <c r="E182" t="n">
         <v>1.28935294118259</v>
       </c>
       <c r="F182" t="n">
-        <v>0.000000155219527847728</v>
+        <v>0.000000155219527882693</v>
       </c>
     </row>
     <row r="183">
@@ -5684,16 +5684,16 @@
         <v>350</v>
       </c>
       <c r="C183" t="n">
-        <v>-1.1569375187239</v>
+        <v>-1.15693751872385</v>
       </c>
       <c r="D183" t="n">
-        <v>0.000000000000000988450089777318</v>
+        <v>0.000000000000000988450085545706</v>
       </c>
       <c r="E183" t="n">
-        <v>-0.588529820344336</v>
+        <v>-0.588529820344332</v>
       </c>
       <c r="F183" t="n">
-        <v>0.0210848564453242</v>
+        <v>0.0210848564475835</v>
       </c>
     </row>
     <row r="184">
@@ -5704,16 +5704,16 @@
         <v>352</v>
       </c>
       <c r="C184" t="n">
-        <v>0.636879336221134</v>
+        <v>0.636879336221171</v>
       </c>
       <c r="D184" t="n">
-        <v>0.00222610796368224</v>
+        <v>0.00222610796200278</v>
       </c>
       <c r="E184" t="n">
-        <v>0.63424993388139</v>
+        <v>0.634249933881391</v>
       </c>
       <c r="F184" t="n">
-        <v>0.00782691527960373</v>
+        <v>0.00782691528048319</v>
       </c>
     </row>
     <row r="185">
@@ -5724,16 +5724,16 @@
         <v>354</v>
       </c>
       <c r="C185" t="n">
-        <v>0.54148630286344</v>
+        <v>0.541486302863484</v>
       </c>
       <c r="D185" t="n">
-        <v>0.00080052322802237</v>
+        <v>0.000800523227120862</v>
       </c>
       <c r="E185" t="n">
-        <v>0.53524803672497</v>
+        <v>0.535248036724968</v>
       </c>
       <c r="F185" t="n">
-        <v>0.00521852053714541</v>
+        <v>0.0052185205379866</v>
       </c>
     </row>
     <row r="186">
@@ -5744,16 +5744,16 @@
         <v>356</v>
       </c>
       <c r="C186" t="n">
-        <v>-1.91575453006233</v>
+        <v>-1.91575453006224</v>
       </c>
       <c r="D186" t="n">
-        <v>0.000985694638025013</v>
+        <v>0.000985694637694614</v>
       </c>
       <c r="E186" t="n">
         <v>-1.37693005339029</v>
       </c>
       <c r="F186" t="n">
-        <v>0.0423924138468006</v>
+        <v>0.0423924138488904</v>
       </c>
     </row>
     <row r="187">
@@ -5764,16 +5764,16 @@
         <v>358</v>
       </c>
       <c r="C187" t="n">
-        <v>3.24668583500247</v>
+        <v>3.24668583500271</v>
       </c>
       <c r="D187" t="n">
-        <v>0.0000539686585914476</v>
+        <v>0.0000539686585734999</v>
       </c>
       <c r="E187" t="n">
-        <v>3.13252013658987</v>
+        <v>3.13252013658981</v>
       </c>
       <c r="F187" t="n">
-        <v>0.000271185890900799</v>
+        <v>0.000271185890921422</v>
       </c>
     </row>
     <row r="188">
@@ -5784,16 +5784,16 @@
         <v>360</v>
       </c>
       <c r="C188" t="n">
-        <v>0.78419712635412</v>
+        <v>0.784197126354124</v>
       </c>
       <c r="D188" t="n">
-        <v>0.0471457322346587</v>
+        <v>0.0471457322237746</v>
       </c>
       <c r="E188" t="n">
         <v>1.48713591260695</v>
       </c>
       <c r="F188" t="n">
-        <v>0.00000387161833069213</v>
+        <v>0.00000387161833130159</v>
       </c>
     </row>
     <row r="189">
@@ -5804,16 +5804,16 @@
         <v>362</v>
       </c>
       <c r="C189" t="n">
-        <v>0.529917240075118</v>
+        <v>0.529917240075084</v>
       </c>
       <c r="D189" t="n">
-        <v>0.0286070292428224</v>
+        <v>0.028607029230833</v>
       </c>
       <c r="E189" t="n">
-        <v>0.584783890147754</v>
+        <v>0.584783890147752</v>
       </c>
       <c r="F189" t="n">
-        <v>0.03975828144482</v>
+        <v>0.0397582814478472</v>
       </c>
     </row>
     <row r="190">
@@ -5824,16 +5824,16 @@
         <v>364</v>
       </c>
       <c r="C190" t="n">
-        <v>-0.959127507153966</v>
+        <v>-0.959127507153906</v>
       </c>
       <c r="D190" t="n">
-        <v>0.00000409632051299245</v>
+        <v>0.00000409632050834098</v>
       </c>
       <c r="E190" t="n">
-        <v>-0.567544383438967</v>
+        <v>-0.567544383438964</v>
       </c>
       <c r="F190" t="n">
-        <v>0.0195815360420407</v>
+        <v>0.0195815360440569</v>
       </c>
     </row>
     <row r="191">
@@ -5844,16 +5844,16 @@
         <v>366</v>
       </c>
       <c r="C191" t="n">
-        <v>2.14339655865058</v>
+        <v>2.14339655865055</v>
       </c>
       <c r="D191" t="n">
-        <v>0.0000000469132391430014</v>
+        <v>0.00000004691323910696</v>
       </c>
       <c r="E191" t="n">
-        <v>2.5850131671062</v>
+        <v>2.58501316710621</v>
       </c>
       <c r="F191" t="n">
-        <v>0.0000000000000723789658988222</v>
+        <v>0.0000000000000723789659222127</v>
       </c>
     </row>
     <row r="192">
@@ -5864,16 +5864,16 @@
         <v>368</v>
       </c>
       <c r="C192" t="n">
-        <v>-0.383933600508777</v>
+        <v>-0.383933600508747</v>
       </c>
       <c r="D192" t="n">
-        <v>0.00735032821274003</v>
+        <v>0.00735032820472684</v>
       </c>
       <c r="E192" t="n">
-        <v>-0.483325349938951</v>
+        <v>-0.483325349938952</v>
       </c>
       <c r="F192" t="n">
-        <v>0.000481614994239314</v>
+        <v>0.000481614994288203</v>
       </c>
     </row>
     <row r="193">
@@ -5884,16 +5884,16 @@
         <v>370</v>
       </c>
       <c r="C193" t="n">
-        <v>1.27066442523353</v>
+        <v>1.2706644252335</v>
       </c>
       <c r="D193" t="n">
-        <v>0.00000419878247632767</v>
+        <v>0.00000419878247295188</v>
       </c>
       <c r="E193" t="n">
-        <v>0.969297304450885</v>
+        <v>0.969297304450889</v>
       </c>
       <c r="F193" t="n">
-        <v>0.00755494928129066</v>
+        <v>0.00755494928184491</v>
       </c>
     </row>
     <row r="194">
@@ -5904,16 +5904,16 @@
         <v>372</v>
       </c>
       <c r="C194" t="n">
-        <v>-1.39187242163393</v>
+        <v>-1.391872421634</v>
       </c>
       <c r="D194" t="n">
-        <v>0.00108563857176288</v>
+        <v>0.00108563857134896</v>
       </c>
       <c r="E194" t="n">
-        <v>-1.39888161294913</v>
+        <v>-1.39888161294912</v>
       </c>
       <c r="F194" t="n">
-        <v>0.00242100277175732</v>
+        <v>0.00242100277196199</v>
       </c>
     </row>
     <row r="195">
@@ -5924,16 +5924,16 @@
         <v>374</v>
       </c>
       <c r="C195" t="n">
-        <v>-0.50629928279875</v>
+        <v>-0.506299282798707</v>
       </c>
       <c r="D195" t="n">
-        <v>0.00516568294534811</v>
+        <v>0.0051656829412726</v>
       </c>
       <c r="E195" t="n">
         <v>-0.50017913945523</v>
       </c>
       <c r="F195" t="n">
-        <v>0.00752884548663969</v>
+        <v>0.0075288454878159</v>
       </c>
     </row>
     <row r="196">
@@ -5944,16 +5944,16 @@
         <v>376</v>
       </c>
       <c r="C196" t="n">
-        <v>-0.388684470243044</v>
+        <v>-0.388684470243017</v>
       </c>
       <c r="D196" t="n">
-        <v>0.00122873635430235</v>
+        <v>0.00122873635220963</v>
       </c>
       <c r="E196" t="n">
-        <v>-0.458855076268375</v>
+        <v>-0.458855076268378</v>
       </c>
       <c r="F196" t="n">
-        <v>0.0132796937820849</v>
+        <v>0.0132796937840279</v>
       </c>
     </row>
     <row r="197">
@@ -5964,16 +5964,16 @@
         <v>378</v>
       </c>
       <c r="C197" t="n">
-        <v>-0.889841727512066</v>
+        <v>-0.889841727512086</v>
       </c>
       <c r="D197" t="n">
-        <v>0.000000000259246513890295</v>
+        <v>0.000000000259246513104856</v>
       </c>
       <c r="E197" t="n">
-        <v>-0.775961989088153</v>
+        <v>-0.775961989129808</v>
       </c>
       <c r="F197" t="n">
-        <v>0.000000572094908863099</v>
+        <v>0.00000057209490900578</v>
       </c>
     </row>
     <row r="198">
@@ -5984,16 +5984,16 @@
         <v>380</v>
       </c>
       <c r="C198" t="n">
-        <v>-0.753190443785657</v>
+        <v>-0.753190443785652</v>
       </c>
       <c r="D198" t="n">
-        <v>0.00000000000292969879831411</v>
+        <v>0.00000000000292969878272635</v>
       </c>
       <c r="E198" t="n">
-        <v>-0.378790455341412</v>
+        <v>-0.378790455341409</v>
       </c>
       <c r="F198" t="n">
-        <v>0.0349353807411208</v>
+        <v>0.0349353807458901</v>
       </c>
     </row>
     <row r="199">
@@ -6004,16 +6004,16 @@
         <v>382</v>
       </c>
       <c r="C199" t="n">
-        <v>0.948772541512711</v>
+        <v>0.948772541512792</v>
       </c>
       <c r="D199" t="n">
-        <v>0.00817679646907751</v>
+        <v>0.00817679646647203</v>
       </c>
       <c r="E199" t="n">
-        <v>0.956093830491431</v>
+        <v>0.956093830491421</v>
       </c>
       <c r="F199" t="n">
-        <v>0.0316031202504957</v>
+        <v>0.0316031202521412</v>
       </c>
     </row>
     <row r="200">
@@ -6024,16 +6024,16 @@
         <v>384</v>
       </c>
       <c r="C200" t="n">
-        <v>0.687884607348507</v>
+        <v>0.687884607348519</v>
       </c>
       <c r="D200" t="n">
-        <v>0.000330572481043112</v>
+        <v>0.000330572480728281</v>
       </c>
       <c r="E200" t="n">
-        <v>0.972743914042314</v>
+        <v>0.972743914042315</v>
       </c>
       <c r="F200" t="n">
-        <v>0.000017763501984571</v>
+        <v>0.0000177635019880174</v>
       </c>
     </row>
     <row r="201">
@@ -6044,16 +6044,16 @@
         <v>386</v>
       </c>
       <c r="C201" t="n">
-        <v>-0.935553966956344</v>
+        <v>-0.935553966956327</v>
       </c>
       <c r="D201" t="n">
-        <v>0.00000000000381123628242822</v>
+        <v>0.0000000000038112362682483</v>
       </c>
       <c r="E201" t="n">
-        <v>-0.942707866384514</v>
+        <v>-0.942707866384519</v>
       </c>
       <c r="F201" t="n">
-        <v>0.000000000412513605991479</v>
+        <v>0.000000000412513606209698</v>
       </c>
     </row>
     <row r="202">
@@ -6062,16 +6062,16 @@
       </c>
       <c r="B202"/>
       <c r="C202" t="n">
-        <v>1.69371375404811</v>
+        <v>1.69371375404817</v>
       </c>
       <c r="D202" t="n">
-        <v>0.00109128740172839</v>
+        <v>0.00109128740012385</v>
       </c>
       <c r="E202" t="n">
-        <v>2.07281890953455</v>
+        <v>2.07281890953454</v>
       </c>
       <c r="F202" t="n">
-        <v>0.00000402055718531767</v>
+        <v>0.00000402055718589449</v>
       </c>
     </row>
     <row r="203">
@@ -6082,16 +6082,16 @@
         <v>389</v>
       </c>
       <c r="C203" t="n">
-        <v>1.15345712662649</v>
+        <v>1.15345712662646</v>
       </c>
       <c r="D203" t="n">
-        <v>0.00000000000000000000111695156903407</v>
+        <v>0.00000000000000000000111695156085935</v>
       </c>
       <c r="E203" t="n">
-        <v>0.968692913583477</v>
+        <v>0.968692913583471</v>
       </c>
       <c r="F203" t="n">
-        <v>0.000000686172816395122</v>
+        <v>0.00000068617281658144</v>
       </c>
     </row>
     <row r="204">
@@ -6102,16 +6102,16 @@
         <v>391</v>
       </c>
       <c r="C204" t="n">
-        <v>1.85807491220985</v>
+        <v>1.85807491220989</v>
       </c>
       <c r="D204" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000247769778901257</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000024776977281488</v>
       </c>
       <c r="E204" t="n">
-        <v>1.46256119598478</v>
+        <v>1.46256119598477</v>
       </c>
       <c r="F204" t="n">
-        <v>0.0000000000000000000000000000000487749793031073</v>
+        <v>0.0000000000000000000000000000000487749793931468</v>
       </c>
     </row>
     <row r="205">
@@ -6122,16 +6122,16 @@
         <v>393</v>
       </c>
       <c r="C205" t="n">
-        <v>0.805912758687345</v>
+        <v>0.805912758687395</v>
       </c>
       <c r="D205" t="n">
-        <v>0.00228828457694736</v>
+        <v>0.00228828457594902</v>
       </c>
       <c r="E205" t="n">
-        <v>0.785903388685479</v>
+        <v>0.78590338868547</v>
       </c>
       <c r="F205" t="n">
-        <v>0.0234482794907188</v>
+        <v>0.0234482794921234</v>
       </c>
     </row>
     <row r="206">
@@ -6142,16 +6142,16 @@
         <v>395</v>
       </c>
       <c r="C206" t="n">
-        <v>2.74844131948523</v>
+        <v>2.74844131948508</v>
       </c>
       <c r="D206" t="n">
-        <v>0.0000000487369995918376</v>
+        <v>0.0000000487369995061132</v>
       </c>
       <c r="E206" t="n">
-        <v>2.97781879972437</v>
+        <v>2.97781879972441</v>
       </c>
       <c r="F206" t="n">
-        <v>0.00000000722165288960657</v>
+        <v>0.0000000072216528908061</v>
       </c>
     </row>
     <row r="207">
@@ -6162,16 +6162,16 @@
         <v>397</v>
       </c>
       <c r="C207" t="n">
-        <v>-0.495753535060636</v>
+        <v>-0.495753535060664</v>
       </c>
       <c r="D207" t="n">
-        <v>0.0130552279250313</v>
+        <v>0.0130552279169701</v>
       </c>
       <c r="E207" t="n">
-        <v>-0.653358781460519</v>
+        <v>-0.65335878146052</v>
       </c>
       <c r="F207" t="n">
-        <v>0.0032436654420388</v>
+        <v>0.00324366544249738</v>
       </c>
     </row>
     <row r="208">
@@ -6182,16 +6182,16 @@
         <v>399</v>
       </c>
       <c r="C208" t="n">
-        <v>0.732345351651519</v>
+        <v>0.732345351651516</v>
       </c>
       <c r="D208" t="n">
-        <v>0.0000100752572140603</v>
+        <v>0.0000100752571992029</v>
       </c>
       <c r="E208" t="n">
-        <v>0.82856744969497</v>
+        <v>0.828567449694975</v>
       </c>
       <c r="F208" t="n">
-        <v>0.0000080660860175852</v>
+        <v>0.00000806608601972051</v>
       </c>
     </row>
     <row r="209">
@@ -6202,16 +6202,16 @@
         <v>401</v>
       </c>
       <c r="C209" t="n">
-        <v>-0.812682593245265</v>
+        <v>-0.812682593245288</v>
       </c>
       <c r="D209" t="n">
-        <v>0.00301577656526903</v>
+        <v>0.00301577656381937</v>
       </c>
       <c r="E209" t="n">
-        <v>-1.00639832285064</v>
+        <v>-1.00639832285065</v>
       </c>
       <c r="F209" t="n">
-        <v>0.0000278148379531546</v>
+        <v>0.0000278148379583304</v>
       </c>
     </row>
     <row r="210">
@@ -6222,16 +6222,16 @@
         <v>403</v>
       </c>
       <c r="C210" t="n">
-        <v>-0.588647121295877</v>
+        <v>-0.588647121295813</v>
       </c>
       <c r="D210" t="n">
-        <v>0.000241406870551168</v>
+        <v>0.000241406870247795</v>
       </c>
       <c r="E210" t="n">
-        <v>-0.546565809117832</v>
+        <v>-0.546565809117834</v>
       </c>
       <c r="F210" t="n">
-        <v>0.00993274359251924</v>
+        <v>0.00993274359348852</v>
       </c>
     </row>
     <row r="211">
@@ -6242,16 +6242,16 @@
         <v>405</v>
       </c>
       <c r="C211" t="n">
-        <v>-3.09539619998185</v>
+        <v>-3.09539619998189</v>
       </c>
       <c r="D211" t="n">
-        <v>0.000000403450203791428</v>
+        <v>0.000000403450203590529</v>
       </c>
       <c r="E211" t="n">
-        <v>-2.27126422419861</v>
+        <v>-2.27126422419862</v>
       </c>
       <c r="F211" t="n">
-        <v>0.0217771853639422</v>
+        <v>0.0217771853647056</v>
       </c>
     </row>
     <row r="212">
@@ -6262,16 +6262,16 @@
         <v>407</v>
       </c>
       <c r="C212" t="n">
-        <v>-0.358012953342966</v>
+        <v>-0.358012953342949</v>
       </c>
       <c r="D212" t="n">
-        <v>0.00516568294534811</v>
+        <v>0.0051656829412726</v>
       </c>
       <c r="E212" t="n">
-        <v>-0.42665509717418</v>
+        <v>-0.426655097174181</v>
       </c>
       <c r="F212" t="n">
-        <v>0.00197488820822895</v>
+        <v>0.00197488820836043</v>
       </c>
     </row>
     <row r="213">
@@ -6282,16 +6282,16 @@
         <v>409</v>
       </c>
       <c r="C213" t="n">
-        <v>-0.645085571054392</v>
+        <v>-0.645085571054351</v>
       </c>
       <c r="D213" t="n">
-        <v>0.0246137898742819</v>
+        <v>0.0246137898657588</v>
       </c>
       <c r="E213" t="n">
-        <v>-0.898937116135246</v>
+        <v>-0.898937116135243</v>
       </c>
       <c r="F213" t="n">
-        <v>0.00345891703683181</v>
+        <v>0.00345891703715627</v>
       </c>
     </row>
     <row r="214">
@@ -6302,16 +6302,16 @@
         <v>411</v>
       </c>
       <c r="C214" t="n">
-        <v>-0.520781637493355</v>
+        <v>-0.520781637493295</v>
       </c>
       <c r="D214" t="n">
-        <v>0.0281322900536412</v>
+        <v>0.0281322900219575</v>
       </c>
       <c r="E214" t="n">
-        <v>-0.57397104201611</v>
+        <v>-0.573971042016102</v>
       </c>
       <c r="F214" t="n">
-        <v>0.0201416697803352</v>
+        <v>0.020141669782452</v>
       </c>
     </row>
     <row r="215">
@@ -6322,16 +6322,16 @@
         <v>413</v>
       </c>
       <c r="C215" t="n">
-        <v>-0.939224080761344</v>
+        <v>-0.939224080761367</v>
       </c>
       <c r="D215" t="n">
-        <v>0.00000000118630245446047</v>
+        <v>0.00000000118630245148969</v>
       </c>
       <c r="E215" t="n">
-        <v>-0.966509167309238</v>
+        <v>-0.966509167309239</v>
       </c>
       <c r="F215" t="n">
-        <v>0.00000402055718531767</v>
+        <v>0.00000402055718589449</v>
       </c>
     </row>
     <row r="216">
@@ -6342,16 +6342,16 @@
         <v>415</v>
       </c>
       <c r="C216" t="n">
-        <v>1.15343797880592</v>
+        <v>1.15343797880589</v>
       </c>
       <c r="D216" t="n">
-        <v>0.0000000000023446373445152</v>
+        <v>0.00000000000234463733783663</v>
       </c>
       <c r="E216" t="n">
-        <v>1.25429941972968</v>
+        <v>1.25429941972969</v>
       </c>
       <c r="F216" t="n">
-        <v>0.00000000000478272148801092</v>
+        <v>0.00000000000478272149033525</v>
       </c>
     </row>
     <row r="217">
@@ -6362,16 +6362,16 @@
         <v>417</v>
       </c>
       <c r="C217" t="n">
-        <v>0.48518159661959</v>
+        <v>0.485181596619596</v>
       </c>
       <c r="D217" t="n">
-        <v>0.0106381957233423</v>
+        <v>0.0106381957212255</v>
       </c>
       <c r="E217" t="n">
-        <v>0.467938682130323</v>
+        <v>0.467938682130317</v>
       </c>
       <c r="F217" t="n">
-        <v>0.0401748018705945</v>
+        <v>0.0401748018745156</v>
       </c>
     </row>
     <row r="218">
@@ -6382,16 +6382,16 @@
         <v>419</v>
       </c>
       <c r="C218" t="n">
-        <v>0.327226880122983</v>
+        <v>0.32722688012295</v>
       </c>
       <c r="D218" t="n">
-        <v>0.0184445648304356</v>
+        <v>0.0184445648118095</v>
       </c>
       <c r="E218" t="n">
-        <v>0.410257369852556</v>
+        <v>0.410257369852557</v>
       </c>
       <c r="F218" t="n">
-        <v>0.0190673147291582</v>
+        <v>0.0190673147321075</v>
       </c>
     </row>
     <row r="219">
@@ -6402,16 +6402,16 @@
         <v>421</v>
       </c>
       <c r="C219" t="n">
-        <v>2.80871751054656</v>
+        <v>2.80871751054657</v>
       </c>
       <c r="D219" t="n">
-        <v>0.0000000000000190533260709991</v>
+        <v>0.0000000000000190533260472855</v>
       </c>
       <c r="E219" t="n">
-        <v>1.8385527620552</v>
+        <v>1.83855276205519</v>
       </c>
       <c r="F219" t="n">
-        <v>0.000000862613625733599</v>
+        <v>0.000000862613625878314</v>
       </c>
     </row>
     <row r="220">
@@ -6422,16 +6422,16 @@
         <v>423</v>
       </c>
       <c r="C220" t="n">
-        <v>-0.432901687720046</v>
+        <v>-0.432901687720035</v>
       </c>
       <c r="D220" t="n">
-        <v>0.000160155142853663</v>
+        <v>0.000160155142505307</v>
       </c>
       <c r="E220" t="n">
-        <v>-0.603513988093213</v>
+        <v>-0.603513988093211</v>
       </c>
       <c r="F220" t="n">
-        <v>0.000451033890041222</v>
+        <v>0.000451033890139936</v>
       </c>
     </row>
     <row r="221">
@@ -6442,16 +6442,16 @@
         <v>425</v>
       </c>
       <c r="C221" t="n">
-        <v>-1.50877023684685</v>
+        <v>-1.50877023684672</v>
       </c>
       <c r="D221" t="n">
-        <v>0.0080270254556763</v>
+        <v>0.00802702545383152</v>
       </c>
       <c r="E221" t="n">
-        <v>-1.6376176706301</v>
+        <v>-1.63761767063009</v>
       </c>
       <c r="F221" t="n">
-        <v>0.00860347499652041</v>
+        <v>0.00860347499700606</v>
       </c>
     </row>
     <row r="222">
@@ -6462,16 +6462,16 @@
         <v>427</v>
       </c>
       <c r="C222" t="n">
-        <v>-2.21386233853983</v>
+        <v>-2.21386233853972</v>
       </c>
       <c r="D222" t="n">
-        <v>0.00000000144906614591551</v>
+        <v>0.00000000144906614456891</v>
       </c>
       <c r="E222" t="n">
         <v>-1.07675665195174</v>
       </c>
       <c r="F222" t="n">
-        <v>0.00544199126176405</v>
+        <v>0.00544199126215718</v>
       </c>
     </row>
     <row r="223">
@@ -6482,16 +6482,16 @@
         <v>429</v>
       </c>
       <c r="C223" t="n">
-        <v>-0.834055155457538</v>
+        <v>-0.834055155457617</v>
       </c>
       <c r="D223" t="n">
-        <v>0.0209097991055576</v>
+        <v>0.0209097991003014</v>
       </c>
       <c r="E223" t="n">
-        <v>-0.873913021734685</v>
+        <v>-0.873913021734686</v>
       </c>
       <c r="F223" t="n">
-        <v>0.00732922999658767</v>
+        <v>0.00732922999719742</v>
       </c>
     </row>
     <row r="224">
@@ -6502,16 +6502,16 @@
         <v>431</v>
       </c>
       <c r="C224" t="n">
-        <v>0.789013558704027</v>
+        <v>0.789013558704083</v>
       </c>
       <c r="D224" t="n">
-        <v>0.00201652631570314</v>
+        <v>0.00201652631458273</v>
       </c>
       <c r="E224" t="n">
-        <v>0.804355577532829</v>
+        <v>0.804355577532831</v>
       </c>
       <c r="F224" t="n">
-        <v>0.00014024953186572</v>
+        <v>0.000140249531892163</v>
       </c>
     </row>
     <row r="225">
@@ -6522,16 +6522,16 @@
         <v>433</v>
       </c>
       <c r="C225" t="n">
-        <v>-0.844468702864214</v>
+        <v>-0.844468702864183</v>
       </c>
       <c r="D225" t="n">
-        <v>0.00000185550751802223</v>
+        <v>0.00000185550751527891</v>
       </c>
       <c r="E225" t="n">
-        <v>-0.445992601149141</v>
+        <v>-0.445992601149145</v>
       </c>
       <c r="F225" t="n">
-        <v>0.0474865776372068</v>
+        <v>0.0474865776389973</v>
       </c>
     </row>
     <row r="226">
@@ -6542,16 +6542,16 @@
         <v>435</v>
       </c>
       <c r="C226" t="n">
-        <v>-0.483803867251837</v>
+        <v>-0.48380386725187</v>
       </c>
       <c r="D226" t="n">
-        <v>0.000476931645287935</v>
+        <v>0.000476931644581295</v>
       </c>
       <c r="E226" t="n">
-        <v>-0.463059766504171</v>
+        <v>-0.463059766504168</v>
       </c>
       <c r="F226" t="n">
-        <v>0.00881468603402344</v>
+        <v>0.00881468603546925</v>
       </c>
     </row>
     <row r="227">
@@ -6562,16 +6562,16 @@
         <v>437</v>
       </c>
       <c r="C227" t="n">
-        <v>1.69851215259883</v>
+        <v>1.69851215259888</v>
       </c>
       <c r="D227" t="n">
-        <v>0.000000000000036461391897995</v>
+        <v>0.0000000000000364613918200987</v>
       </c>
       <c r="E227" t="n">
-        <v>1.89871119363745</v>
+        <v>1.89871119363743</v>
       </c>
       <c r="F227" t="n">
-        <v>0.000000000000000010263696404246</v>
+        <v>0.000000000000000010263696409852</v>
       </c>
     </row>
     <row r="228">
@@ -6582,16 +6582,16 @@
         <v>439</v>
       </c>
       <c r="C228" t="n">
-        <v>-1.42016560620631</v>
+        <v>-1.42016560620637</v>
       </c>
       <c r="D228" t="n">
-        <v>0.000000190123070690886</v>
+        <v>0.000000190123070503615</v>
       </c>
       <c r="E228" t="n">
-        <v>-1.51949705512268</v>
+        <v>-1.51949705512269</v>
       </c>
       <c r="F228" t="n">
-        <v>0.00000000477509639379396</v>
+        <v>0.00000000477509639507605</v>
       </c>
     </row>
     <row r="229">
@@ -6602,16 +6602,16 @@
         <v>441</v>
       </c>
       <c r="C229" t="n">
-        <v>1.61892676062886</v>
+        <v>1.61892676062892</v>
       </c>
       <c r="D229" t="n">
-        <v>0.00000000218970965490878</v>
+        <v>0.00000000218970965224496</v>
       </c>
       <c r="E229" t="n">
-        <v>1.66579793928706</v>
+        <v>1.66579793928704</v>
       </c>
       <c r="F229" t="n">
-        <v>0.00000000943924159062405</v>
+        <v>0.00000000943924159325337</v>
       </c>
     </row>
     <row r="230">
@@ -6622,16 +6622,16 @@
         <v>443</v>
       </c>
       <c r="C230" t="n">
-        <v>6.80552998661252</v>
+        <v>6.80552998661244</v>
       </c>
       <c r="D230" t="n">
-        <v>0.0109743024079307</v>
+        <v>0.0109743024064492</v>
       </c>
       <c r="E230" t="n">
         <v>7.25681024359257</v>
       </c>
       <c r="F230" t="n">
-        <v>0.00195964496272556</v>
+        <v>0.0019596449628182</v>
       </c>
     </row>
     <row r="231">
@@ -6642,16 +6642,16 @@
         <v>445</v>
       </c>
       <c r="C231" t="n">
-        <v>-1.51458548920076</v>
+        <v>-1.51458548920084</v>
       </c>
       <c r="D231" t="n">
-        <v>0.000000403450203791428</v>
+        <v>0.000000403450203590529</v>
       </c>
       <c r="E231" t="n">
-        <v>-1.15298839228531</v>
+        <v>-1.1529883922853</v>
       </c>
       <c r="F231" t="n">
-        <v>0.000481614994239314</v>
+        <v>0.000481614994288203</v>
       </c>
     </row>
     <row r="232">
@@ -6662,16 +6662,16 @@
         <v>447</v>
       </c>
       <c r="C232" t="n">
-        <v>1.68369294345316</v>
+        <v>1.68369294345315</v>
       </c>
       <c r="D232" t="n">
-        <v>0.00253685477237419</v>
+        <v>0.00253685477158878</v>
       </c>
       <c r="E232" t="n">
-        <v>2.12663872683091</v>
+        <v>2.1266387268309</v>
       </c>
       <c r="F232" t="n">
-        <v>0.00000100276028629866</v>
+        <v>0.00000100276028645578</v>
       </c>
     </row>
     <row r="233">
@@ -6680,16 +6680,16 @@
       </c>
       <c r="B233"/>
       <c r="C233" t="n">
-        <v>1.12327493400236</v>
+        <v>1.12327493400244</v>
       </c>
       <c r="D233" t="n">
-        <v>0.0000380698571011467</v>
+        <v>0.0000380698570741845</v>
       </c>
       <c r="E233" t="n">
-        <v>0.934677835628978</v>
+        <v>0.93467783562897</v>
       </c>
       <c r="F233" t="n">
-        <v>0.0010001571612464</v>
+        <v>0.00100015716136324</v>
       </c>
     </row>
     <row r="234">
@@ -6700,16 +6700,16 @@
         <v>450</v>
       </c>
       <c r="C234" t="n">
-        <v>-0.687841982640813</v>
+        <v>-0.687841982640829</v>
       </c>
       <c r="D234" t="n">
-        <v>0.0159093011275436</v>
+        <v>0.0159093011229255</v>
       </c>
       <c r="E234" t="n">
-        <v>-0.717910209358788</v>
+        <v>-0.717910209358797</v>
       </c>
       <c r="F234" t="n">
-        <v>0.00518169371057896</v>
+        <v>0.00518169371101175</v>
       </c>
     </row>
     <row r="235">
@@ -6720,16 +6720,16 @@
         <v>452</v>
       </c>
       <c r="C235" t="n">
-        <v>-1.64712288543052</v>
+        <v>-1.64712288543063</v>
       </c>
       <c r="D235" t="n">
-        <v>0.026185197598194</v>
+        <v>0.0261851975940305</v>
       </c>
       <c r="E235" t="n">
-        <v>-2.70779587666749</v>
+        <v>-2.70779587666751</v>
       </c>
       <c r="F235" t="n">
-        <v>0.00301735003325111</v>
+        <v>0.00301735003341857</v>
       </c>
     </row>
     <row r="236">
@@ -6740,16 +6740,16 @@
         <v>454</v>
       </c>
       <c r="C236" t="n">
-        <v>-1.41963137058821</v>
+        <v>-1.41963137058807</v>
       </c>
       <c r="D236" t="n">
-        <v>0.000714135820060223</v>
+        <v>0.000714135819776432</v>
       </c>
       <c r="E236" t="n">
         <v>-1.20767283361853</v>
       </c>
       <c r="F236" t="n">
-        <v>0.0105400354368468</v>
+        <v>0.0105400354374677</v>
       </c>
     </row>
     <row r="237">
@@ -6760,16 +6760,16 @@
         <v>456</v>
       </c>
       <c r="C237" t="n">
-        <v>5.87065416271664</v>
+        <v>5.87065416271673</v>
       </c>
       <c r="D237" t="n">
-        <v>0.024159682874031</v>
+        <v>0.0241596828714545</v>
       </c>
       <c r="E237" t="n">
         <v>6.39244106971008</v>
       </c>
       <c r="F237" t="n">
-        <v>0.00638110962729046</v>
+        <v>0.00638110962751462</v>
       </c>
     </row>
     <row r="238">
@@ -6783,13 +6783,13 @@
         <v>1.37140552567137</v>
       </c>
       <c r="D238" t="n">
-        <v>0.000000000000000000000000000000000000156251500326179</v>
+        <v>0.000000000000000000000000000000000000156251498077402</v>
       </c>
       <c r="E238" t="n">
         <v>1.13338550444235</v>
       </c>
       <c r="F238" t="n">
-        <v>0.000000000000000000581053332926041</v>
+        <v>0.00000000000000000058105333317741</v>
       </c>
     </row>
     <row r="239">
@@ -6800,16 +6800,16 @@
         <v>460</v>
       </c>
       <c r="C239" t="n">
-        <v>-0.60876274365265</v>
+        <v>-0.608762743652672</v>
       </c>
       <c r="D239" t="n">
-        <v>0.000000000244638278895726</v>
+        <v>0.000000000244638277531819</v>
       </c>
       <c r="E239" t="n">
         <v>-0.713803386153259</v>
       </c>
       <c r="F239" t="n">
-        <v>0.000200138825132437</v>
+        <v>0.000200138825174013</v>
       </c>
     </row>
     <row r="240">
@@ -6820,16 +6820,16 @@
         <v>462</v>
       </c>
       <c r="C240" t="n">
-        <v>1.38499458197123</v>
+        <v>1.3849945819712</v>
       </c>
       <c r="D240" t="n">
-        <v>0.00756370198951204</v>
+        <v>0.00756370198776933</v>
       </c>
       <c r="E240" t="n">
         <v>1.88093006986332</v>
       </c>
       <c r="F240" t="n">
-        <v>0.000000140453031942401</v>
+        <v>0.00000014045303196814</v>
       </c>
     </row>
     <row r="241">
@@ -6840,16 +6840,16 @@
         <v>464</v>
       </c>
       <c r="C241" t="n">
-        <v>-3.05187356407757</v>
+        <v>-3.05187356407729</v>
       </c>
       <c r="D241" t="n">
-        <v>0.00000000000000305998334125672</v>
+        <v>0.00000000000000305998333659182</v>
       </c>
       <c r="E241" t="n">
-        <v>-2.9008147055721</v>
+        <v>-2.90081470557211</v>
       </c>
       <c r="F241" t="n">
-        <v>0.00000000000000239352271544778</v>
+        <v>0.00000000000000239352271627453</v>
       </c>
     </row>
     <row r="242">
@@ -6860,16 +6860,16 @@
         <v>466</v>
       </c>
       <c r="C242" t="n">
-        <v>-0.326598126530925</v>
+        <v>-0.326598126530897</v>
       </c>
       <c r="D242" t="n">
-        <v>0.0185494561187496</v>
+        <v>0.0185494560998929</v>
       </c>
       <c r="E242" t="n">
-        <v>-0.45061102577311</v>
+        <v>-0.450611025773108</v>
       </c>
       <c r="F242" t="n">
-        <v>0.00861333781228348</v>
+        <v>0.00861333781374668</v>
       </c>
     </row>
     <row r="243">
@@ -6880,16 +6880,16 @@
         <v>468</v>
       </c>
       <c r="C243" t="n">
-        <v>-1.0011656302598</v>
+        <v>-1.00116563025979</v>
       </c>
       <c r="D243" t="n">
-        <v>0.00000222368924113006</v>
+        <v>0.00000222368923855444</v>
       </c>
       <c r="E243" t="n">
-        <v>-0.783268989824526</v>
+        <v>-0.783268989824522</v>
       </c>
       <c r="F243" t="n">
-        <v>0.000209140142114072</v>
+        <v>0.000209140142142376</v>
       </c>
     </row>
     <row r="244">
@@ -6900,16 +6900,16 @@
         <v>470</v>
       </c>
       <c r="C244" t="n">
-        <v>-1.64837508032277</v>
+        <v>-1.64837508032265</v>
       </c>
       <c r="D244" t="n">
-        <v>0.00000181918270417061</v>
+        <v>0.00000181918270294279</v>
       </c>
       <c r="E244" t="n">
-        <v>-1.30187141441818</v>
+        <v>-1.30187141441819</v>
       </c>
       <c r="F244" t="n">
-        <v>0.000135203239636985</v>
+        <v>0.000135203239653196</v>
       </c>
     </row>
     <row r="245">
@@ -6920,16 +6920,16 @@
         <v>472</v>
       </c>
       <c r="C245" t="n">
-        <v>-0.40052583373147</v>
+        <v>-0.400525833731504</v>
       </c>
       <c r="D245" t="n">
-        <v>0.0319309814633642</v>
+        <v>0.0319309814441998</v>
       </c>
       <c r="E245" t="n">
-        <v>-0.57808095243954</v>
+        <v>-0.578080952439535</v>
       </c>
       <c r="F245" t="n">
-        <v>0.00136884593712372</v>
+        <v>0.00136884593734195</v>
       </c>
     </row>
     <row r="246">
@@ -6940,16 +6940,16 @@
         <v>474</v>
       </c>
       <c r="C246" t="n">
-        <v>0.893677162918481</v>
+        <v>0.893677162918426</v>
       </c>
       <c r="D246" t="n">
-        <v>0.00971342593450403</v>
+        <v>0.00971342593138347</v>
       </c>
       <c r="E246" t="n">
-        <v>0.784419258027094</v>
+        <v>0.7844192580271</v>
       </c>
       <c r="F246" t="n">
-        <v>0.0356576275690464</v>
+        <v>0.0356576275712023</v>
       </c>
     </row>
     <row r="247">
@@ -6960,16 +6960,16 @@
         <v>476</v>
       </c>
       <c r="C247" t="n">
-        <v>-0.967594377703362</v>
+        <v>-0.967594377703446</v>
       </c>
       <c r="D247" t="n">
-        <v>0.00159445579826559</v>
+        <v>0.00159445579752762</v>
       </c>
       <c r="E247" t="n">
-        <v>-0.785262065578924</v>
+        <v>-0.78526206557879</v>
       </c>
       <c r="F247" t="n">
-        <v>0.0417614209456355</v>
+        <v>0.0417614210966517</v>
       </c>
     </row>
     <row r="248">
@@ -6980,16 +6980,16 @@
         <v>478</v>
       </c>
       <c r="C248" t="n">
-        <v>-1.21564468526973</v>
+        <v>-1.21564468526971</v>
       </c>
       <c r="D248" t="n">
-        <v>0.00293251335541415</v>
+        <v>0.00293251335434658</v>
       </c>
       <c r="E248" t="n">
-        <v>-1.16829659036683</v>
+        <v>-1.16829659036682</v>
       </c>
       <c r="F248" t="n">
-        <v>0.0287757967305163</v>
+        <v>0.0287757967320883</v>
       </c>
     </row>
     <row r="249">
@@ -7000,16 +7000,16 @@
         <v>480</v>
       </c>
       <c r="C249" t="n">
-        <v>0.562230199422033</v>
+        <v>0.562230199422059</v>
       </c>
       <c r="D249" t="n">
-        <v>0.000523652237688772</v>
+        <v>0.000523652237054788</v>
       </c>
       <c r="E249" t="n">
         <v>0.51164588369293</v>
       </c>
       <c r="F249" t="n">
-        <v>0.00863587608189812</v>
+        <v>0.0086358760831343</v>
       </c>
     </row>
     <row r="250">
@@ -7020,16 +7020,16 @@
         <v>482</v>
       </c>
       <c r="C250" t="n">
-        <v>0.748007252952216</v>
+        <v>0.748007252952246</v>
       </c>
       <c r="D250" t="n">
-        <v>0.00349764383813589</v>
+        <v>0.00349764383627273</v>
       </c>
       <c r="E250" t="n">
-        <v>0.999818613240306</v>
+        <v>0.999818613240307</v>
       </c>
       <c r="F250" t="n">
-        <v>0.00254604768186758</v>
+        <v>0.00254604768209999</v>
       </c>
     </row>
     <row r="251">
@@ -7040,16 +7040,16 @@
         <v>484</v>
       </c>
       <c r="C251" t="n">
-        <v>0.882755792445032</v>
+        <v>0.882755792445024</v>
       </c>
       <c r="D251" t="n">
-        <v>0.000000000479569468641954</v>
+        <v>0.00000000047956946717428</v>
       </c>
       <c r="E251" t="n">
-        <v>0.903723002398946</v>
+        <v>0.903723002398954</v>
       </c>
       <c r="F251" t="n">
-        <v>0.0000000757432480093262</v>
+        <v>0.0000000757432480372331</v>
       </c>
     </row>
     <row r="252">
@@ -7060,16 +7060,16 @@
         <v>486</v>
       </c>
       <c r="C252" t="n">
-        <v>-2.15367899048263</v>
+        <v>-2.15367899048276</v>
       </c>
       <c r="D252" t="n">
-        <v>0.0000170670539121932</v>
+        <v>0.0000170670539035152</v>
       </c>
       <c r="E252" t="n">
-        <v>-1.71305599921513</v>
+        <v>-1.71305599921512</v>
       </c>
       <c r="F252" t="n">
-        <v>0.00343608190064152</v>
+        <v>0.00343608190089016</v>
       </c>
     </row>
     <row r="253">
@@ -7078,16 +7078,16 @@
       </c>
       <c r="B253"/>
       <c r="C253" t="n">
-        <v>-0.55244836689774</v>
+        <v>-0.552448366897736</v>
       </c>
       <c r="D253" t="n">
-        <v>0.0000108260313755113</v>
+        <v>0.0000108260313515067</v>
       </c>
       <c r="E253" t="n">
         <v>-0.648629454899283</v>
       </c>
       <c r="F253" t="n">
-        <v>0.00000891916784080064</v>
+        <v>0.00000891916784395576</v>
       </c>
     </row>
     <row r="254">
@@ -7096,16 +7096,16 @@
       </c>
       <c r="B254"/>
       <c r="C254" t="n">
-        <v>0.644660904576788</v>
+        <v>0.644660904576836</v>
       </c>
       <c r="D254" t="n">
-        <v>0.00148530880538769</v>
+        <v>0.00148530880423618</v>
       </c>
       <c r="E254" t="n">
-        <v>0.506377779476719</v>
+        <v>0.50637777947671</v>
       </c>
       <c r="F254" t="n">
-        <v>0.03975828144482</v>
+        <v>0.0397582814478472</v>
       </c>
     </row>
     <row r="255">
@@ -7116,16 +7116,16 @@
         <v>490</v>
       </c>
       <c r="C255" t="n">
-        <v>-1.53762142728903</v>
+        <v>-1.53762142728896</v>
       </c>
       <c r="D255" t="n">
-        <v>0.0000000015128541478225</v>
+        <v>0.00000000151285414585189</v>
       </c>
       <c r="E255" t="n">
         <v>-1.35738687555203</v>
       </c>
       <c r="F255" t="n">
-        <v>0.0000000832588032148027</v>
+        <v>0.0000000832588032346948</v>
       </c>
     </row>
     <row r="256">
@@ -7136,16 +7136,16 @@
         <v>492</v>
       </c>
       <c r="C256" t="n">
-        <v>0.946510295713841</v>
+        <v>0.9465102957139</v>
       </c>
       <c r="D256" t="n">
-        <v>0.00695813497872561</v>
+        <v>0.00695813497642844</v>
       </c>
       <c r="E256" t="n">
-        <v>0.811352451068789</v>
+        <v>0.811352451068781</v>
       </c>
       <c r="F256" t="n">
-        <v>0.0211736720903336</v>
+        <v>0.0211736720918819</v>
       </c>
     </row>
     <row r="257">
@@ -7156,16 +7156,16 @@
         <v>494</v>
       </c>
       <c r="C257" t="n">
-        <v>-0.674452046257249</v>
+        <v>-0.674452046257205</v>
       </c>
       <c r="D257" t="n">
-        <v>0.00780052815525166</v>
+        <v>0.00780052815151827</v>
       </c>
       <c r="E257" t="n">
-        <v>-0.845841418613353</v>
+        <v>-0.845841418613355</v>
       </c>
       <c r="F257" t="n">
-        <v>0.00235450108199139</v>
+        <v>0.00235450108232942</v>
       </c>
     </row>
     <row r="258">
@@ -7176,16 +7176,16 @@
         <v>496</v>
       </c>
       <c r="C258" t="n">
-        <v>-2.23042604166851</v>
+        <v>-2.23042604166836</v>
       </c>
       <c r="D258" t="n">
-        <v>0.000224773820114274</v>
+        <v>0.000224773820032198</v>
       </c>
       <c r="E258" t="n">
-        <v>-1.61236943275248</v>
+        <v>-1.61236943275249</v>
       </c>
       <c r="F258" t="n">
-        <v>0.0240243780401775</v>
+        <v>0.0240243780413908</v>
       </c>
     </row>
     <row r="259">
@@ -7196,16 +7196,16 @@
         <v>498</v>
       </c>
       <c r="C259" t="n">
-        <v>-0.572185731851353</v>
+        <v>-0.57218573185137</v>
       </c>
       <c r="D259" t="n">
-        <v>0.00251902206835391</v>
+        <v>0.00251902206636648</v>
       </c>
       <c r="E259" t="n">
-        <v>-0.626890673264065</v>
+        <v>-0.626890673264062</v>
       </c>
       <c r="F259" t="n">
-        <v>0.00470831095818916</v>
+        <v>0.0047083109588141</v>
       </c>
     </row>
     <row r="260">
@@ -7216,16 +7216,16 @@
         <v>500</v>
       </c>
       <c r="C260" t="n">
-        <v>-0.926855679968238</v>
+        <v>-0.92685567996832</v>
       </c>
       <c r="D260" t="n">
-        <v>0.000000099854698610658</v>
+        <v>0.0000000998546984352418</v>
       </c>
       <c r="E260" t="n">
-        <v>-0.940524517699714</v>
+        <v>-0.940524517699712</v>
       </c>
       <c r="F260" t="n">
-        <v>0.000251468351684155</v>
+        <v>0.000251468351719534</v>
       </c>
     </row>
     <row r="261">
@@ -7236,16 +7236,16 @@
         <v>502</v>
       </c>
       <c r="C261" t="n">
-        <v>-1.25825150670807</v>
+        <v>-1.25825150670802</v>
       </c>
       <c r="D261" t="n">
-        <v>0.000777382195400822</v>
+        <v>0.000777382194519152</v>
       </c>
       <c r="E261" t="n">
-        <v>-1.83846700141393</v>
+        <v>-1.83846700141395</v>
       </c>
       <c r="F261" t="n">
-        <v>0.0000383428599842692</v>
+        <v>0.0000383428599886528</v>
       </c>
     </row>
     <row r="262">
@@ -7256,16 +7256,16 @@
         <v>504</v>
       </c>
       <c r="C262" t="n">
-        <v>3.00958676038467</v>
+        <v>3.00958676038468</v>
       </c>
       <c r="D262" t="n">
-        <v>0.00000000000000000397306096204336</v>
+        <v>0.00000000000000000397306095518192</v>
       </c>
       <c r="E262" t="n">
         <v>2.24700074681461</v>
       </c>
       <c r="F262" t="n">
-        <v>0.000000972493974193692</v>
+        <v>0.000000972493974322554</v>
       </c>
     </row>
     <row r="263">
@@ -7276,16 +7276,16 @@
         <v>506</v>
       </c>
       <c r="C263" t="n">
-        <v>1.58658176380355</v>
+        <v>1.58658176380356</v>
       </c>
       <c r="D263" t="n">
-        <v>0.00000000000000349151234127892</v>
+        <v>0.00000000000000349151233197511</v>
       </c>
       <c r="E263" t="n">
         <v>1.67479821936982</v>
       </c>
       <c r="F263" t="n">
-        <v>0.0000000000000371000710768552</v>
+        <v>0.0000000000000371000710943898</v>
       </c>
     </row>
     <row r="264">
@@ -7296,16 +7296,16 @@
         <v>508</v>
       </c>
       <c r="C264" t="n">
-        <v>-0.718886424243849</v>
+        <v>-0.718886424243888</v>
       </c>
       <c r="D264" t="n">
-        <v>0.00647507490203816</v>
+        <v>0.0064750748995247</v>
       </c>
       <c r="E264" t="n">
         <v>-0.706235782403816</v>
       </c>
       <c r="F264" t="n">
-        <v>0.00535072811595119</v>
+        <v>0.00535072811655056</v>
       </c>
     </row>
     <row r="265">
@@ -7316,16 +7316,16 @@
         <v>510</v>
       </c>
       <c r="C265" t="n">
-        <v>2.68418551050844</v>
+        <v>2.68418551050861</v>
       </c>
       <c r="D265" t="n">
-        <v>0.0000000000000000000687435068450219</v>
+        <v>0.0000000000000000000687435066951201</v>
       </c>
       <c r="E265" t="n">
-        <v>2.70150705333497</v>
+        <v>2.70150705333494</v>
       </c>
       <c r="F265" t="n">
-        <v>0.000000000000000000581053332926041</v>
+        <v>0.00000000000000000058105333317741</v>
       </c>
     </row>
     <row r="266">
@@ -7336,16 +7336,16 @@
         <v>512</v>
       </c>
       <c r="C266" t="n">
-        <v>1.62160281717829</v>
+        <v>1.62160281717821</v>
       </c>
       <c r="D266" t="n">
-        <v>0.0000000000357447662448676</v>
+        <v>0.00000000003574476618813</v>
       </c>
       <c r="E266" t="n">
-        <v>1.35094598163402</v>
+        <v>1.35094598163403</v>
       </c>
       <c r="F266" t="n">
-        <v>0.00000495501809937114</v>
+        <v>0.00000495501810020143</v>
       </c>
     </row>
     <row r="267">
@@ -7354,16 +7354,16 @@
       </c>
       <c r="B267"/>
       <c r="C267" t="n">
-        <v>-1.05836042353356</v>
+        <v>-1.05836042353364</v>
       </c>
       <c r="D267" t="n">
-        <v>0.000354510750857488</v>
+        <v>0.00035451075065446</v>
       </c>
       <c r="E267" t="n">
-        <v>-0.971035329270075</v>
+        <v>-0.971035329270069</v>
       </c>
       <c r="F267" t="n">
-        <v>0.0042027293506812</v>
+        <v>0.00420272935099139</v>
       </c>
     </row>
     <row r="268">
@@ -7374,16 +7374,16 @@
         <v>515</v>
       </c>
       <c r="C268" t="n">
-        <v>0.562250045959837</v>
+        <v>0.562250045959906</v>
       </c>
       <c r="D268" t="n">
-        <v>0.000914447574107546</v>
+        <v>0.000914447573165122</v>
       </c>
       <c r="E268" t="n">
-        <v>0.547746265619945</v>
+        <v>0.547746265619937</v>
       </c>
       <c r="F268" t="n">
-        <v>0.0047384088777106</v>
+        <v>0.00473840887845781</v>
       </c>
     </row>
     <row r="269">
@@ -7394,16 +7394,16 @@
         <v>517</v>
       </c>
       <c r="C269" t="n">
-        <v>-0.251425122793752</v>
+        <v>-0.25142512279374</v>
       </c>
       <c r="D269" t="n">
-        <v>0.048980695087088</v>
+        <v>0.0489806950723473</v>
       </c>
       <c r="E269" t="n">
         <v>-0.447076206061719</v>
       </c>
       <c r="F269" t="n">
-        <v>0.00293926885543203</v>
+        <v>0.00293926885609689</v>
       </c>
     </row>
     <row r="270">
@@ -7414,16 +7414,16 @@
         <v>519</v>
       </c>
       <c r="C270" t="n">
-        <v>-0.661044416244883</v>
+        <v>-0.661044416244937</v>
       </c>
       <c r="D270" t="n">
-        <v>0.0000387340601869236</v>
+        <v>0.0000387340601320185</v>
       </c>
       <c r="E270" t="n">
         <v>-0.582310925931955</v>
       </c>
       <c r="F270" t="n">
-        <v>0.000475348834933771</v>
+        <v>0.000475348835044505</v>
       </c>
     </row>
     <row r="271">
@@ -7434,16 +7434,16 @@
         <v>521</v>
       </c>
       <c r="C271" t="n">
-        <v>0.630402950740223</v>
+        <v>0.630402950740229</v>
       </c>
       <c r="D271" t="n">
-        <v>0.0167807930352909</v>
+        <v>0.0167807930312292</v>
       </c>
       <c r="E271" t="n">
-        <v>0.606912281869438</v>
+        <v>0.60691228186943</v>
       </c>
       <c r="F271" t="n">
-        <v>0.0423924138468006</v>
+        <v>0.0423924138488904</v>
       </c>
     </row>
     <row r="272">
@@ -7454,16 +7454,16 @@
         <v>523</v>
       </c>
       <c r="C272" t="n">
-        <v>-0.858015660703738</v>
+        <v>-0.858015660703802</v>
       </c>
       <c r="D272" t="n">
-        <v>0.000190481556917999</v>
+        <v>0.000190481556768304</v>
       </c>
       <c r="E272" t="n">
-        <v>-0.975428145271621</v>
+        <v>-0.975428145271622</v>
       </c>
       <c r="F272" t="n">
-        <v>0.0091357498576532</v>
+        <v>0.00913574985828895</v>
       </c>
     </row>
     <row r="273">
@@ -7474,16 +7474,16 @@
         <v>525</v>
       </c>
       <c r="C273" t="n">
-        <v>-5.45186527272591</v>
+        <v>-5.45186527272472</v>
       </c>
       <c r="D273" t="n">
-        <v>0.00918429383804098</v>
+        <v>0.00918429383679633</v>
       </c>
       <c r="E273" t="n">
-        <v>-7.12463135522337</v>
+        <v>-7.12463135522336</v>
       </c>
       <c r="F273" t="n">
-        <v>0.00185445772182437</v>
+        <v>0.00185445772190996</v>
       </c>
     </row>
     <row r="274">
@@ -7494,16 +7494,16 @@
         <v>527</v>
       </c>
       <c r="C274" t="n">
-        <v>-0.854161368766498</v>
+        <v>-0.854161368766534</v>
       </c>
       <c r="D274" t="n">
-        <v>0.00000000740876799111635</v>
+        <v>0.00000000740876797868175</v>
       </c>
       <c r="E274" t="n">
         <v>-0.526359906209313</v>
       </c>
       <c r="F274" t="n">
-        <v>0.0366211733171563</v>
+        <v>0.0366211733204731</v>
       </c>
     </row>
     <row r="275">
@@ -7514,16 +7514,16 @@
         <v>529</v>
       </c>
       <c r="C275" t="n">
-        <v>0.614964475637329</v>
+        <v>0.614964475637325</v>
       </c>
       <c r="D275" t="n">
-        <v>0.00216165752665564</v>
+        <v>0.00216165752572125</v>
       </c>
       <c r="E275" t="n">
-        <v>0.678957301296843</v>
+        <v>0.678957301296839</v>
       </c>
       <c r="F275" t="n">
-        <v>0.0272843469365057</v>
+        <v>0.0272843469386269</v>
       </c>
     </row>
     <row r="276">
@@ -7534,16 +7534,16 @@
         <v>531</v>
       </c>
       <c r="C276" t="n">
-        <v>-0.430456770838743</v>
+        <v>-0.430456770838728</v>
       </c>
       <c r="D276" t="n">
-        <v>0.000450210770330454</v>
+        <v>0.000450210769512291</v>
       </c>
       <c r="E276" t="n">
-        <v>-0.511809876952549</v>
+        <v>-0.511809876952547</v>
       </c>
       <c r="F276" t="n">
-        <v>0.0000322987996509817</v>
+        <v>0.0000322987996645155</v>
       </c>
     </row>
     <row r="277">
@@ -7554,16 +7554,16 @@
         <v>533</v>
       </c>
       <c r="C277" t="n">
-        <v>-0.931823456085648</v>
+        <v>-0.931823456085637</v>
       </c>
       <c r="D277" t="n">
-        <v>0.0000000000000000000000666692666936573</v>
+        <v>0.0000000000000000000000666692659196824</v>
       </c>
       <c r="E277" t="n">
-        <v>-0.424666300621066</v>
+        <v>-0.424666300621069</v>
       </c>
       <c r="F277" t="n">
-        <v>0.00286966278494318</v>
+        <v>0.00286966278565468</v>
       </c>
     </row>
     <row r="278">
@@ -7574,16 +7574,16 @@
         <v>535</v>
       </c>
       <c r="C278" t="n">
-        <v>-0.899692849431848</v>
+        <v>-0.899692849431854</v>
       </c>
       <c r="D278" t="n">
-        <v>0.0000383152382667592</v>
+        <v>0.0000383152382304348</v>
       </c>
       <c r="E278" t="n">
-        <v>-0.562129782839102</v>
+        <v>-0.562129782839104</v>
       </c>
       <c r="F278" t="n">
-        <v>0.00743396313536303</v>
+        <v>0.00743396313636793</v>
       </c>
     </row>
     <row r="279">
@@ -7594,16 +7594,16 @@
         <v>537</v>
       </c>
       <c r="C279" t="n">
-        <v>2.59718396433168</v>
+        <v>2.59718396433158</v>
       </c>
       <c r="D279" t="n">
-        <v>0.000000000792221346184277</v>
+        <v>0.000000000792221345488656</v>
       </c>
       <c r="E279" t="n">
-        <v>1.61745393681612</v>
+        <v>1.61745393681614</v>
       </c>
       <c r="F279" t="n">
-        <v>0.0207071303544542</v>
+        <v>0.0207071303555358</v>
       </c>
     </row>
     <row r="280">
@@ -7614,16 +7614,16 @@
         <v>539</v>
       </c>
       <c r="C280" t="n">
-        <v>0.482953096249916</v>
+        <v>0.482953096249909</v>
       </c>
       <c r="D280" t="n">
-        <v>0.0108288252142266</v>
+        <v>0.01082882520682</v>
       </c>
       <c r="E280" t="n">
-        <v>0.529521448908587</v>
+        <v>0.529521448908586</v>
       </c>
       <c r="F280" t="n">
-        <v>0.02218858851325</v>
+        <v>0.0221885885156524</v>
       </c>
     </row>
     <row r="281">
@@ -7634,16 +7634,16 @@
         <v>541</v>
       </c>
       <c r="C281" t="n">
-        <v>-0.508367751056134</v>
+        <v>-0.508367751056144</v>
       </c>
       <c r="D281" t="n">
-        <v>0.00000422948949427011</v>
+        <v>0.00000422948948213043</v>
       </c>
       <c r="E281" t="n">
-        <v>-0.380544974057335</v>
+        <v>-0.380544974057325</v>
       </c>
       <c r="F281" t="n">
-        <v>0.0314099767928462</v>
+        <v>0.031409976797324</v>
       </c>
     </row>
     <row r="282">
@@ -7654,16 +7654,16 @@
         <v>543</v>
       </c>
       <c r="C282" t="n">
-        <v>0.956574161231127</v>
+        <v>0.956574161231153</v>
       </c>
       <c r="D282" t="n">
-        <v>0.0000210935685693446</v>
+        <v>0.0000210935685494807</v>
       </c>
       <c r="E282" t="n">
-        <v>0.883872435222759</v>
+        <v>0.883872435222753</v>
       </c>
       <c r="F282" t="n">
-        <v>0.000942065251875157</v>
+        <v>0.00094206525199637</v>
       </c>
     </row>
     <row r="283">
@@ -7672,16 +7672,16 @@
       </c>
       <c r="B283"/>
       <c r="C283" t="n">
-        <v>1.87966929620986</v>
+        <v>1.87966929620981</v>
       </c>
       <c r="D283" t="n">
-        <v>0.000000000000000000000758830137934985</v>
+        <v>0.000000000000000000000758830134998934</v>
       </c>
       <c r="E283" t="n">
-        <v>1.7156601117036</v>
+        <v>1.71566011170361</v>
       </c>
       <c r="F283" t="n">
-        <v>0.000000000000249527367583566</v>
+        <v>0.000000000000249527367722808</v>
       </c>
     </row>
     <row r="284">
@@ -7693,13 +7693,13 @@
         <v>2.70994337021089</v>
       </c>
       <c r="D284" t="n">
-        <v>0.0212242977499254</v>
+        <v>0.0212242977473133</v>
       </c>
       <c r="E284" t="n">
-        <v>2.46050503895443</v>
+        <v>2.46050503895445</v>
       </c>
       <c r="F284" t="n">
-        <v>0.0206745341453889</v>
+        <v>0.0206745341463296</v>
       </c>
     </row>
     <row r="285">
@@ -7710,16 +7710,16 @@
         <v>547</v>
       </c>
       <c r="C285" t="n">
-        <v>-1.56091300067841</v>
+        <v>-1.56091300067851</v>
       </c>
       <c r="D285" t="n">
-        <v>0.000000235311177601756</v>
+        <v>0.000000235311177385666</v>
       </c>
       <c r="E285" t="n">
         <v>-1.04193849448156</v>
       </c>
       <c r="F285" t="n">
-        <v>0.00105206719171923</v>
+        <v>0.00105206719184394</v>
       </c>
     </row>
     <row r="286">
@@ -7730,16 +7730,16 @@
         <v>549</v>
       </c>
       <c r="C286" t="n">
-        <v>-0.97411858311704</v>
+        <v>-0.974118583117074</v>
       </c>
       <c r="D286" t="n">
-        <v>0.0000000487369995918376</v>
+        <v>0.0000000487369995061132</v>
       </c>
       <c r="E286" t="n">
-        <v>-0.798735879985171</v>
+        <v>-0.798735879985173</v>
       </c>
       <c r="F286" t="n">
-        <v>0.000758687577043879</v>
+        <v>0.000758687577150515</v>
       </c>
     </row>
     <row r="287">
@@ -7750,16 +7750,16 @@
         <v>551</v>
       </c>
       <c r="C287" t="n">
-        <v>1.1052894865477</v>
+        <v>1.10528948654768</v>
       </c>
       <c r="D287" t="n">
-        <v>0.0000000809447775762736</v>
+        <v>0.0000000809447774559006</v>
       </c>
       <c r="E287" t="n">
-        <v>0.811291897238176</v>
+        <v>0.811291897238183</v>
       </c>
       <c r="F287" t="n">
-        <v>0.00189180697634083</v>
+        <v>0.0018918069765613</v>
       </c>
     </row>
     <row r="288">
@@ -7770,16 +7770,16 @@
         <v>553</v>
       </c>
       <c r="C288" t="n">
-        <v>2.1917556703705</v>
+        <v>2.19175567037061</v>
       </c>
       <c r="D288" t="n">
-        <v>0.0130552279250313</v>
+        <v>0.0130552279169701</v>
       </c>
       <c r="E288" t="n">
-        <v>2.40617370330327</v>
+        <v>2.40617370330325</v>
       </c>
       <c r="F288" t="n">
-        <v>0.00720285250840813</v>
+        <v>0.00720285250877427</v>
       </c>
     </row>
     <row r="289">
@@ -7790,16 +7790,16 @@
         <v>555</v>
       </c>
       <c r="C289" t="n">
-        <v>-5.67821160419249</v>
+        <v>-5.67821160419262</v>
       </c>
       <c r="D289" t="n">
-        <v>0.000000429209769281932</v>
+        <v>0.000000429209769098582</v>
       </c>
       <c r="E289" t="n">
-        <v>-2.2762204366177</v>
+        <v>-2.27622043661772</v>
       </c>
       <c r="F289" t="n">
-        <v>0.0393479453526611</v>
+        <v>0.039347945354202</v>
       </c>
     </row>
     <row r="290">
@@ -7810,16 +7810,16 @@
         <v>557</v>
       </c>
       <c r="C290" t="n">
-        <v>1.01184926230507</v>
+        <v>1.01184926230506</v>
       </c>
       <c r="D290" t="n">
-        <v>0.00000129454834592089</v>
+        <v>0.00000129454834436108</v>
       </c>
       <c r="E290" t="n">
-        <v>0.69579619042349</v>
+        <v>0.695796190423493</v>
       </c>
       <c r="F290" t="n">
-        <v>0.0136957438127367</v>
+        <v>0.0136957438140039</v>
       </c>
     </row>
     <row r="291">
@@ -7830,16 +7830,16 @@
         <v>559</v>
       </c>
       <c r="C291" t="n">
-        <v>-1.14284770033024</v>
+        <v>-1.14284770033031</v>
       </c>
       <c r="D291" t="n">
-        <v>0.0263265257670356</v>
+        <v>0.0263265257615136</v>
       </c>
       <c r="E291" t="n">
-        <v>-2.17906032270124</v>
+        <v>-2.17906032270125</v>
       </c>
       <c r="F291" t="n">
-        <v>0.00293856587462454</v>
+        <v>0.00293856587478981</v>
       </c>
     </row>
     <row r="292">
@@ -7848,16 +7848,16 @@
       </c>
       <c r="B292"/>
       <c r="C292" t="n">
-        <v>0.890456926150705</v>
+        <v>0.89045692615075</v>
       </c>
       <c r="D292" t="n">
-        <v>0.000463329187897025</v>
+        <v>0.000463329187602843</v>
       </c>
       <c r="E292" t="n">
-        <v>0.973877089341916</v>
+        <v>0.973877089341915</v>
       </c>
       <c r="F292" t="n">
-        <v>0.00000120467690247401</v>
+        <v>0.0000012046769028012</v>
       </c>
     </row>
     <row r="293">
@@ -7866,16 +7866,16 @@
       </c>
       <c r="B293"/>
       <c r="C293" t="n">
-        <v>-0.683172203176027</v>
+        <v>-0.683172203176056</v>
       </c>
       <c r="D293" t="n">
-        <v>0.00000666214769002467</v>
+        <v>0.00000666214767852926</v>
       </c>
       <c r="E293" t="n">
-        <v>-0.664610300845644</v>
+        <v>-0.664610300845643</v>
       </c>
       <c r="F293" t="n">
-        <v>0.00204130270747435</v>
+        <v>0.00204130270777252</v>
       </c>
     </row>
     <row r="294">
@@ -7886,16 +7886,16 @@
         <v>563</v>
       </c>
       <c r="C294" t="n">
-        <v>1.12228893521321</v>
+        <v>1.12228893521323</v>
       </c>
       <c r="D294" t="n">
-        <v>0.0242450221955876</v>
+        <v>0.0242450221907407</v>
       </c>
       <c r="E294" t="n">
-        <v>1.10123054796182</v>
+        <v>1.10123054796181</v>
       </c>
       <c r="F294" t="n">
-        <v>0.0308255388862927</v>
+        <v>0.0308255388874648</v>
       </c>
     </row>
     <row r="295">
@@ -7906,16 +7906,16 @@
         <v>565</v>
       </c>
       <c r="C295" t="n">
-        <v>-0.922856337531371</v>
+        <v>-0.922856337531467</v>
       </c>
       <c r="D295" t="n">
-        <v>0.00253685477237419</v>
+        <v>0.00253685477158878</v>
       </c>
       <c r="E295" t="n">
-        <v>-0.869071171936135</v>
+        <v>-0.869071171936128</v>
       </c>
       <c r="F295" t="n">
-        <v>0.00129084624925167</v>
+        <v>0.00129084624942077</v>
       </c>
     </row>
     <row r="296">
@@ -7924,16 +7924,16 @@
       </c>
       <c r="B296"/>
       <c r="C296" t="n">
-        <v>-0.559457192975426</v>
+        <v>-0.559457192975431</v>
       </c>
       <c r="D296" t="n">
-        <v>0.000000160596401102817</v>
+        <v>0.000000160596400524678</v>
       </c>
       <c r="E296" t="n">
-        <v>-0.357359217407939</v>
+        <v>-0.357359217407938</v>
       </c>
       <c r="F296" t="n">
-        <v>0.0347128261825528</v>
+        <v>0.0347128261877484</v>
       </c>
     </row>
     <row r="297">
@@ -7944,16 +7944,16 @@
         <v>568</v>
       </c>
       <c r="C297" t="n">
-        <v>1.17329072974609</v>
+        <v>1.17329072974604</v>
       </c>
       <c r="D297" t="n">
-        <v>0.00268342292493278</v>
+        <v>0.00268342292252068</v>
       </c>
       <c r="E297" t="n">
-        <v>1.46761621263242</v>
+        <v>1.46761621263243</v>
       </c>
       <c r="F297" t="n">
-        <v>0.00000457116015647403</v>
+        <v>0.00000457116015729174</v>
       </c>
     </row>
     <row r="298">
@@ -7964,16 +7964,16 @@
         <v>570</v>
       </c>
       <c r="C298" t="n">
-        <v>1.35366976980456</v>
+        <v>1.35366976980453</v>
       </c>
       <c r="D298" t="n">
-        <v>0.00000195344168799001</v>
+        <v>0.00000195344168627336</v>
       </c>
       <c r="E298" t="n">
         <v>1.47109666674508</v>
       </c>
       <c r="F298" t="n">
-        <v>0.000000372823365001068</v>
+        <v>0.000000372823365083554</v>
       </c>
     </row>
     <row r="299">
@@ -7984,16 +7984,16 @@
         <v>572</v>
       </c>
       <c r="C299" t="n">
-        <v>1.0009870926727</v>
+        <v>1.00098709267273</v>
       </c>
       <c r="D299" t="n">
-        <v>0.0000000000000000000268402622011797</v>
+        <v>0.000000000000000000026840261980959</v>
       </c>
       <c r="E299" t="n">
-        <v>0.855753400891795</v>
+        <v>0.855753400891793</v>
       </c>
       <c r="F299" t="n">
-        <v>0.00000048275567550619</v>
+        <v>0.000000482755675667034</v>
       </c>
     </row>
     <row r="300">
@@ -8004,16 +8004,16 @@
         <v>574</v>
       </c>
       <c r="C300" t="n">
-        <v>1.37663103372158</v>
+        <v>1.37663103372167</v>
       </c>
       <c r="D300" t="n">
-        <v>0.0000206847682448175</v>
+        <v>0.0000206847682318738</v>
       </c>
       <c r="E300" t="n">
-        <v>1.11678225166772</v>
+        <v>1.1167822516677</v>
       </c>
       <c r="F300" t="n">
-        <v>0.00603024649340171</v>
+        <v>0.0060302464943363</v>
       </c>
     </row>
     <row r="301">
@@ -8024,16 +8024,16 @@
         <v>576</v>
       </c>
       <c r="C301" t="n">
-        <v>-1.01665878449349</v>
+        <v>-1.01665878449352</v>
       </c>
       <c r="D301" t="n">
-        <v>0.00159445579826559</v>
+        <v>0.00159445579752762</v>
       </c>
       <c r="E301" t="n">
         <v>-1.06127704094103</v>
       </c>
       <c r="F301" t="n">
-        <v>0.031713321185275</v>
+        <v>0.0317133211868074</v>
       </c>
     </row>
   </sheetData>

--- a/output/Restab_D62_NTCnoRAPA_noDIFF_RAPA.xlsx
+++ b/output/Restab_D62_NTCnoRAPA_noDIFF_RAPA.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="600">
   <si>
     <t xml:space="preserve">entrezgene</t>
   </si>
@@ -83,6 +83,9 @@
     <t xml:space="preserve">6202</t>
   </si>
   <si>
+    <t xml:space="preserve">RPS8</t>
+  </si>
+  <si>
     <t xml:space="preserve">8503</t>
   </si>
   <si>
@@ -116,6 +119,9 @@
     <t xml:space="preserve">6125</t>
   </si>
   <si>
+    <t xml:space="preserve">RPL5</t>
+  </si>
+  <si>
     <t xml:space="preserve">1301</t>
   </si>
   <si>
@@ -305,6 +311,9 @@
     <t xml:space="preserve">6157</t>
   </si>
   <si>
+    <t xml:space="preserve">RPL27A</t>
+  </si>
+  <si>
     <t xml:space="preserve">10335</t>
   </si>
   <si>
@@ -368,6 +377,9 @@
     <t xml:space="preserve">114908</t>
   </si>
   <si>
+    <t xml:space="preserve">TMEM123</t>
+  </si>
+  <si>
     <t xml:space="preserve">1410</t>
   </si>
   <si>
@@ -461,6 +473,9 @@
     <t xml:space="preserve">10376</t>
   </si>
   <si>
+    <t xml:space="preserve">TUBA1B</t>
+  </si>
+  <si>
     <t xml:space="preserve">7846</t>
   </si>
   <si>
@@ -488,6 +503,9 @@
     <t xml:space="preserve">84324</t>
   </si>
   <si>
+    <t xml:space="preserve">SARNP</t>
+  </si>
+  <si>
     <t xml:space="preserve">23344</t>
   </si>
   <si>
@@ -596,6 +614,9 @@
     <t xml:space="preserve">10278</t>
   </si>
   <si>
+    <t xml:space="preserve">EFS</t>
+  </si>
+  <si>
     <t xml:space="preserve">9985</t>
   </si>
   <si>
@@ -641,6 +662,9 @@
     <t xml:space="preserve">51065</t>
   </si>
   <si>
+    <t xml:space="preserve">RPS27L</t>
+  </si>
+  <si>
     <t xml:space="preserve">57611</t>
   </si>
   <si>
@@ -668,6 +692,9 @@
     <t xml:space="preserve">7023</t>
   </si>
   <si>
+    <t xml:space="preserve">TFAP4</t>
+  </si>
+  <si>
     <t xml:space="preserve">2013</t>
   </si>
   <si>
@@ -734,6 +761,9 @@
     <t xml:space="preserve">9953</t>
   </si>
   <si>
+    <t xml:space="preserve">HS3ST3B1</t>
+  </si>
+  <si>
     <t xml:space="preserve">256302</t>
   </si>
   <si>
@@ -761,6 +791,9 @@
     <t xml:space="preserve">27092</t>
   </si>
   <si>
+    <t xml:space="preserve">CACNG4</t>
+  </si>
+  <si>
     <t xml:space="preserve">23580</t>
   </si>
   <si>
@@ -788,6 +821,9 @@
     <t xml:space="preserve">283991</t>
   </si>
   <si>
+    <t xml:space="preserve">UBALD2</t>
+  </si>
+  <si>
     <t xml:space="preserve">146664</t>
   </si>
   <si>
@@ -935,6 +971,9 @@
     <t xml:space="preserve">29997</t>
   </si>
   <si>
+    <t xml:space="preserve">NOP53</t>
+  </si>
+  <si>
     <t xml:space="preserve">2014</t>
   </si>
   <si>
@@ -968,6 +1007,9 @@
     <t xml:space="preserve">151354</t>
   </si>
   <si>
+    <t xml:space="preserve">LRATD1</t>
+  </si>
+  <si>
     <t xml:space="preserve">81553</t>
   </si>
   <si>
@@ -977,6 +1019,9 @@
     <t xml:space="preserve">91461</t>
   </si>
   <si>
+    <t xml:space="preserve">PKDCC</t>
+  </si>
+  <si>
     <t xml:space="preserve">23433</t>
   </si>
   <si>
@@ -1040,6 +1085,9 @@
     <t xml:space="preserve">165215</t>
   </si>
   <si>
+    <t xml:space="preserve">FAM171B</t>
+  </si>
+  <si>
     <t xml:space="preserve">3329</t>
   </si>
   <si>
@@ -1061,6 +1109,9 @@
     <t xml:space="preserve">7857</t>
   </si>
   <si>
+    <t xml:space="preserve">SCG2</t>
+  </si>
+  <si>
     <t xml:space="preserve">81618</t>
   </si>
   <si>
@@ -1361,6 +1412,9 @@
     <t xml:space="preserve">85027</t>
   </si>
   <si>
+    <t xml:space="preserve">SMIM3</t>
+  </si>
+  <si>
     <t xml:space="preserve">10569</t>
   </si>
   <si>
@@ -1454,9 +1508,6 @@
     <t xml:space="preserve">2970</t>
   </si>
   <si>
-    <t xml:space="preserve">GTF2IP1</t>
-  </si>
-  <si>
     <t xml:space="preserve">2791</t>
   </si>
   <si>
@@ -1478,9 +1529,15 @@
     <t xml:space="preserve">25798</t>
   </si>
   <si>
+    <t xml:space="preserve">BRI3</t>
+  </si>
+  <si>
     <t xml:space="preserve">11333</t>
   </si>
   <si>
+    <t xml:space="preserve">PDAP1</t>
+  </si>
+  <si>
     <t xml:space="preserve">5054</t>
   </si>
   <si>
@@ -1556,6 +1613,9 @@
     <t xml:space="preserve">55893</t>
   </si>
   <si>
+    <t xml:space="preserve">ZNF395</t>
+  </si>
+  <si>
     <t xml:space="preserve">5327</t>
   </si>
   <si>
@@ -1649,6 +1709,9 @@
     <t xml:space="preserve">9568</t>
   </si>
   <si>
+    <t xml:space="preserve">GABBR2</t>
+  </si>
+  <si>
     <t xml:space="preserve">114299</t>
   </si>
   <si>
@@ -1700,6 +1763,9 @@
     <t xml:space="preserve">6303</t>
   </si>
   <si>
+    <t xml:space="preserve">SAT1</t>
+  </si>
+  <si>
     <t xml:space="preserve">8406</t>
   </si>
   <si>
@@ -1713,6 +1779,9 @@
   </si>
   <si>
     <t xml:space="preserve">6191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPS4X</t>
   </si>
   <si>
     <t xml:space="preserve">56062</t>
@@ -2258,7 +2327,9 @@
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10"/>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
       <c r="C10" t="n">
         <v>-0.275317419828105</v>
       </c>
@@ -2274,10 +2345,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
         <v>1.57604101828909</v>
@@ -2294,10 +2365,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="n">
         <v>1.71767650810491</v>
@@ -2314,10 +2385,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" t="n">
         <v>-1.04785126363008</v>
@@ -2334,10 +2405,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" t="n">
         <v>1.40203134123372</v>
@@ -2354,10 +2425,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" t="n">
         <v>3.90619626658478</v>
@@ -2374,9 +2445,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16"/>
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
       <c r="C16" t="n">
         <v>-0.682816063075055</v>
       </c>
@@ -2392,10 +2465,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C17" t="n">
         <v>0.8562904081752</v>
@@ -2412,10 +2485,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C18" t="n">
         <v>1.91949371668405</v>
@@ -2432,10 +2505,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C19" t="n">
         <v>-1.12703216518943</v>
@@ -2452,10 +2525,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C20" t="n">
         <v>0.753475594553754</v>
@@ -2472,10 +2545,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C21" t="n">
         <v>-0.463430417369665</v>
@@ -2492,10 +2565,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C22" t="n">
         <v>0.707257077673417</v>
@@ -2512,10 +2585,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C23" t="n">
         <v>0.942174899672789</v>
@@ -2532,10 +2605,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C24" t="n">
         <v>-2.37119368662972</v>
@@ -2552,10 +2625,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C25" t="n">
         <v>0.487523655411476</v>
@@ -2572,10 +2645,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C26" t="n">
         <v>1.13117925435868</v>
@@ -2592,10 +2665,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C27" t="n">
         <v>2.04575507346853</v>
@@ -2612,10 +2685,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C28" t="n">
         <v>0.619775806389201</v>
@@ -2632,10 +2705,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C29" t="n">
         <v>1.57321933824552</v>
@@ -2652,10 +2725,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C30" t="n">
         <v>-0.539020986907587</v>
@@ -2672,10 +2745,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C31" t="n">
         <v>0.807249349488872</v>
@@ -2692,10 +2765,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C32" t="n">
         <v>-1.50163084221261</v>
@@ -2712,10 +2785,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C33" t="n">
         <v>-0.593241821141259</v>
@@ -2732,10 +2805,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C34" t="n">
         <v>-0.941701069065171</v>
@@ -2752,10 +2825,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C35" t="n">
         <v>0.816332371237823</v>
@@ -2772,10 +2845,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C36" t="n">
         <v>1.91273475590912</v>
@@ -2792,10 +2865,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C37" t="n">
         <v>0.734955038333417</v>
@@ -2812,10 +2885,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C38" t="n">
         <v>-0.543132617315906</v>
@@ -2832,10 +2905,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C39" t="n">
         <v>1.22581866854015</v>
@@ -2852,10 +2925,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C40" t="n">
         <v>1.22741804906831</v>
@@ -2872,10 +2945,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C41" t="n">
         <v>-1.34852431225236</v>
@@ -2892,10 +2965,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C42" t="n">
         <v>-0.73828735852067</v>
@@ -2912,10 +2985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C43" t="n">
         <v>-1.98562044896721</v>
@@ -2932,10 +3005,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C44" t="n">
         <v>-0.516441024540608</v>
@@ -2952,10 +3025,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C45" t="n">
         <v>0.767134982753178</v>
@@ -2972,10 +3045,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C46" t="n">
         <v>-0.54809346670868</v>
@@ -2992,10 +3065,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C47" t="n">
         <v>-2.57973554571366</v>
@@ -3012,9 +3085,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>96</v>
-      </c>
-      <c r="B48"/>
+        <v>98</v>
+      </c>
+      <c r="B48" t="s">
+        <v>99</v>
+      </c>
       <c r="C48" t="n">
         <v>-0.379331034625178</v>
       </c>
@@ -3030,10 +3105,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C49" t="n">
         <v>1.78773204194994</v>
@@ -3050,10 +3125,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C50" t="n">
         <v>-0.843688735295881</v>
@@ -3070,10 +3145,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C51" t="n">
         <v>0.981265416448113</v>
@@ -3090,10 +3165,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C52" t="n">
         <v>0.779404598302324</v>
@@ -3110,10 +3185,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B53" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C53" t="n">
         <v>0.749630521491336</v>
@@ -3130,10 +3205,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B54" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C54" t="n">
         <v>2.14369791853373</v>
@@ -3150,10 +3225,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B55" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C55" t="n">
         <v>-0.761291767390058</v>
@@ -3170,10 +3245,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B56" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C56" t="n">
         <v>0.443062334066894</v>
@@ -3190,10 +3265,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B57" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C57" t="n">
         <v>1.23482347456558</v>
@@ -3210,10 +3285,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B58" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C58" t="n">
         <v>1.56301598543085</v>
@@ -3230,9 +3305,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>117</v>
-      </c>
-      <c r="B59"/>
+        <v>120</v>
+      </c>
+      <c r="B59" t="s">
+        <v>121</v>
+      </c>
       <c r="C59" t="n">
         <v>-0.854319932225181</v>
       </c>
@@ -3248,10 +3325,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C60" t="n">
         <v>0.741932317817046</v>
@@ -3268,10 +3345,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C61" t="n">
         <v>0.542635019264903</v>
@@ -3288,10 +3365,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C62" t="n">
         <v>-0.506750787360335</v>
@@ -3308,10 +3385,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C63" t="n">
         <v>1.64316288048163</v>
@@ -3328,10 +3405,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C64" t="n">
         <v>-3.78292657316219</v>
@@ -3348,10 +3425,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B65" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C65" t="n">
         <v>-3.72480638253509</v>
@@ -3368,10 +3445,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B66" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C66" t="n">
         <v>-7.93664835425211</v>
@@ -3388,10 +3465,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C67" t="n">
         <v>-0.559796157587176</v>
@@ -3408,10 +3485,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C68" t="n">
         <v>0.893470055291608</v>
@@ -3428,10 +3505,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C69" t="n">
         <v>-0.679904650228545</v>
@@ -3448,10 +3525,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C70" t="n">
         <v>4.81202633277723</v>
@@ -3468,10 +3545,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B71" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C71" t="n">
         <v>-1.49494054583733</v>
@@ -3488,10 +3565,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B72" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C72" t="n">
         <v>2.00804947520879</v>
@@ -3508,10 +3585,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B73" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C73" t="n">
         <v>2.47049598007241</v>
@@ -3528,10 +3605,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B74" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C74" t="n">
         <v>-1.7108194770765</v>
@@ -3548,9 +3625,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>148</v>
-      </c>
-      <c r="B75"/>
+        <v>152</v>
+      </c>
+      <c r="B75" t="s">
+        <v>153</v>
+      </c>
       <c r="C75" t="n">
         <v>0.688924967787424</v>
       </c>
@@ -3566,10 +3645,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B76" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C76" t="n">
         <v>0.832623083770608</v>
@@ -3586,10 +3665,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B77" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C77" t="n">
         <v>1.11622512684714</v>
@@ -3606,10 +3685,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B78" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C78" t="n">
         <v>-0.528098844977356</v>
@@ -3626,10 +3705,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B79" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C79" t="n">
         <v>-0.88045452417194</v>
@@ -3646,9 +3725,11 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>157</v>
-      </c>
-      <c r="B80"/>
+        <v>162</v>
+      </c>
+      <c r="B80" t="s">
+        <v>163</v>
+      </c>
       <c r="C80" t="n">
         <v>1.41412601331546</v>
       </c>
@@ -3664,10 +3745,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B81" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C81" t="n">
         <v>0.914552695133569</v>
@@ -3684,10 +3765,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B82" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C82" t="n">
         <v>-0.361930247030631</v>
@@ -3704,10 +3785,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B83" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C83" t="n">
         <v>1.18821593076913</v>
@@ -3724,10 +3805,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B84" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C84" t="n">
         <v>1.71092305249683</v>
@@ -3744,10 +3825,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B85" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C85" t="n">
         <v>-0.545806787730398</v>
@@ -3764,10 +3845,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B86" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C86" t="n">
         <v>-1.13589068313873</v>
@@ -3784,10 +3865,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B87" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C87" t="n">
         <v>-0.816337918102552</v>
@@ -3804,10 +3885,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B88" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C88" t="n">
         <v>-0.403513146154267</v>
@@ -3824,10 +3905,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B89" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C89" t="n">
         <v>-0.468289026939251</v>
@@ -3844,10 +3925,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B90" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C90" t="n">
         <v>1.29395120720687</v>
@@ -3864,10 +3945,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B91" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C91" t="n">
         <v>8.88026853312092</v>
@@ -3884,10 +3965,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B92" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C92" t="n">
         <v>0.595526965536351</v>
@@ -3904,10 +3985,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B93" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C93" t="n">
         <v>-0.579360296178417</v>
@@ -3924,10 +4005,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B94" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C94" t="n">
         <v>-1.93716433334258</v>
@@ -3944,10 +4025,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B95" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C95" t="n">
         <v>1.12012554350237</v>
@@ -3964,10 +4045,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B96" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C96" t="n">
         <v>1.92986774050221</v>
@@ -3984,10 +4065,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B97" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C97" t="n">
         <v>1.81557045772487</v>
@@ -4004,7 +4085,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B98"/>
       <c r="C98" t="n">
@@ -4022,9 +4103,11 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>193</v>
-      </c>
-      <c r="B99"/>
+        <v>199</v>
+      </c>
+      <c r="B99" t="s">
+        <v>200</v>
+      </c>
       <c r="C99" t="n">
         <v>1.59479690745682</v>
       </c>
@@ -4040,10 +4123,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B100" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C100" t="n">
         <v>1.52324296814115</v>
@@ -4060,10 +4143,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B101" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C101" t="n">
         <v>-2.85393147744944</v>
@@ -4080,10 +4163,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B102" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C102" t="n">
         <v>1.06672232604748</v>
@@ -4100,10 +4183,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B103" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C103" t="n">
         <v>0.430464988208846</v>
@@ -4120,10 +4203,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B104" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C104" t="n">
         <v>0.909757025782293</v>
@@ -4140,10 +4223,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B105" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C105" t="n">
         <v>1.73724158497009</v>
@@ -4160,10 +4243,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B106" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C106" t="n">
         <v>0.898148632546458</v>
@@ -4180,9 +4263,11 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>208</v>
-      </c>
-      <c r="B107"/>
+        <v>215</v>
+      </c>
+      <c r="B107" t="s">
+        <v>216</v>
+      </c>
       <c r="C107" t="n">
         <v>0.421437128849645</v>
       </c>
@@ -4198,10 +4283,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B108" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C108" t="n">
         <v>-1.55513811184231</v>
@@ -4218,10 +4303,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B109" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C109" t="n">
         <v>1.11265798103263</v>
@@ -4238,10 +4323,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B110" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C110" t="n">
         <v>-0.674350800508459</v>
@@ -4258,10 +4343,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B111" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C111" t="n">
         <v>1.38364629962279</v>
@@ -4278,9 +4363,11 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>217</v>
-      </c>
-      <c r="B112"/>
+        <v>225</v>
+      </c>
+      <c r="B112" t="s">
+        <v>226</v>
+      </c>
       <c r="C112" t="n">
         <v>-2.10334291717082</v>
       </c>
@@ -4296,10 +4383,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B113" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="C113" t="n">
         <v>-1.35643445731739</v>
@@ -4316,10 +4403,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B114" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C114" t="n">
         <v>-0.570822786892494</v>
@@ -4336,10 +4423,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="B115" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="C115" t="n">
         <v>2.78629164703604</v>
@@ -4356,10 +4443,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="B116" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C116" t="n">
         <v>-1.24753748023059</v>
@@ -4376,7 +4463,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B117"/>
       <c r="C117" t="n">
@@ -4394,10 +4481,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B118" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="C118" t="n">
         <v>-0.963859645865659</v>
@@ -4414,10 +4501,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="B119" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="C119" t="n">
         <v>0.672666174255338</v>
@@ -4434,10 +4521,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="B120" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="C120" t="n">
         <v>0.337171545639972</v>
@@ -4454,10 +4541,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B121" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="C121" t="n">
         <v>1.37410196314489</v>
@@ -4474,10 +4561,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B122" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="C122" t="n">
         <v>-0.491822405115355</v>
@@ -4494,10 +4581,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="B123" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="C123" t="n">
         <v>1.28396645607104</v>
@@ -4514,9 +4601,11 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>239</v>
-      </c>
-      <c r="B124"/>
+        <v>248</v>
+      </c>
+      <c r="B124" t="s">
+        <v>249</v>
+      </c>
       <c r="C124" t="n">
         <v>-0.997366768528037</v>
       </c>
@@ -4532,10 +4621,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="B125" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="C125" t="n">
         <v>-1.26283943812901</v>
@@ -4552,10 +4641,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="B126" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="C126" t="n">
         <v>0.922102138241602</v>
@@ -4572,10 +4661,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="B127" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="C127" t="n">
         <v>1.04164577397254</v>
@@ -4592,10 +4681,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B128" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="C128" t="n">
         <v>-0.512995929777985</v>
@@ -4612,9 +4701,11 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>248</v>
-      </c>
-      <c r="B129"/>
+        <v>258</v>
+      </c>
+      <c r="B129" t="s">
+        <v>259</v>
+      </c>
       <c r="C129" t="n">
         <v>-0.667690068000753</v>
       </c>
@@ -4630,10 +4721,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="B130" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C130" t="n">
         <v>0.668518980843622</v>
@@ -4650,10 +4741,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="B131" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="C131" t="n">
         <v>-1.38020600466825</v>
@@ -4670,10 +4761,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="B132" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="C132" t="n">
         <v>0.494453723479677</v>
@@ -4690,10 +4781,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="B133" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="C133" t="n">
         <v>6.92882618455984</v>
@@ -4710,9 +4801,11 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>257</v>
-      </c>
-      <c r="B134"/>
+        <v>268</v>
+      </c>
+      <c r="B134" t="s">
+        <v>269</v>
+      </c>
       <c r="C134" t="n">
         <v>-0.711926604615854</v>
       </c>
@@ -4728,10 +4821,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B135" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="C135" t="n">
         <v>-2.523447740588</v>
@@ -4748,10 +4841,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="B136" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="C136" t="n">
         <v>-0.913826929950955</v>
@@ -4768,10 +4861,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="B137" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="C137" t="n">
         <v>-0.455164201051049</v>
@@ -4788,10 +4881,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="B138" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="C138" t="n">
         <v>0.913060300216635</v>
@@ -4808,10 +4901,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="B139" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="C139" t="n">
         <v>-0.462089877350446</v>
@@ -4828,10 +4921,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="B140" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="C140" t="n">
         <v>0.982451624764548</v>
@@ -4848,10 +4941,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="B141" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="C141" t="n">
         <v>-0.579111381122436</v>
@@ -4868,10 +4961,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="B142" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="C142" t="n">
         <v>0.689445784931033</v>
@@ -4888,10 +4981,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="B143" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="C143" t="n">
         <v>-2.08897923213421</v>
@@ -4908,10 +5001,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="B144" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="C144" t="n">
         <v>-0.611039442809241</v>
@@ -4928,10 +5021,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="B145" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="C145" t="n">
         <v>-0.660903253871079</v>
@@ -4948,10 +5041,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="B146" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="C146" t="n">
         <v>0.907964190163981</v>
@@ -4968,10 +5061,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B147" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="C147" t="n">
         <v>-1.13066871927927</v>
@@ -4988,10 +5081,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="B148" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="C148" t="n">
         <v>-0.438712610241186</v>
@@ -5008,10 +5101,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="B149" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="C149" t="n">
         <v>-0.795464457097999</v>
@@ -5028,10 +5121,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="B150" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="C150" t="n">
         <v>0.952193235869934</v>
@@ -5048,10 +5141,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="B151" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="C151" t="n">
         <v>0.801224508936476</v>
@@ -5068,10 +5161,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="B152" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="C152" t="n">
         <v>0.455763655512034</v>
@@ -5088,10 +5181,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="B153" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="C153" t="n">
         <v>-0.881153086396227</v>
@@ -5108,10 +5201,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="B154" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="C154" t="n">
         <v>1.08868300753797</v>
@@ -5128,10 +5221,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="B155" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="C155" t="n">
         <v>4.98366851868183</v>
@@ -5148,10 +5241,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="B156" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="C156" t="n">
         <v>1.12173407903948</v>
@@ -5168,10 +5261,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="B157" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="C157" t="n">
         <v>1.42340662348032</v>
@@ -5188,10 +5281,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="B158" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="C158" t="n">
         <v>1.39597841431106</v>
@@ -5208,9 +5301,11 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>306</v>
-      </c>
-      <c r="B159"/>
+        <v>318</v>
+      </c>
+      <c r="B159" t="s">
+        <v>319</v>
+      </c>
       <c r="C159" t="n">
         <v>-0.423762186770283</v>
       </c>
@@ -5226,10 +5321,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="B160" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="C160" t="n">
         <v>1.65071683758571</v>
@@ -5246,10 +5341,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="B161" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="C161" t="n">
         <v>0.882573982529164</v>
@@ -5266,10 +5361,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="B162" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="C162" t="n">
         <v>-6.46179831376267</v>
@@ -5286,10 +5381,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="B163" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="C163" t="n">
         <v>-0.841342943648951</v>
@@ -5306,10 +5401,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="B164" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="C164" t="n">
         <v>-0.565924962193767</v>
@@ -5326,9 +5421,11 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>317</v>
-      </c>
-      <c r="B165"/>
+        <v>330</v>
+      </c>
+      <c r="B165" t="s">
+        <v>331</v>
+      </c>
       <c r="C165" t="n">
         <v>1.21909683272916</v>
       </c>
@@ -5344,10 +5441,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="B166" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="C166" t="n">
         <v>1.2878219155145</v>
@@ -5364,9 +5461,11 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>320</v>
-      </c>
-      <c r="B167"/>
+        <v>334</v>
+      </c>
+      <c r="B167" t="s">
+        <v>335</v>
+      </c>
       <c r="C167" t="n">
         <v>-0.682695557633659</v>
       </c>
@@ -5382,10 +5481,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="B168" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="C168" t="n">
         <v>0.804085159459172</v>
@@ -5402,10 +5501,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B169" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="C169" t="n">
         <v>2.66935941724356</v>
@@ -5422,10 +5521,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="B170" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="C170" t="n">
         <v>-1.46886261154868</v>
@@ -5442,10 +5541,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="B171" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="C171" t="n">
         <v>0.934146207338607</v>
@@ -5462,10 +5561,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="B172" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="C172" t="n">
         <v>-0.689694257964865</v>
@@ -5482,10 +5581,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="B173" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="C173" t="n">
         <v>0.548866498914212</v>
@@ -5502,10 +5601,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="B174" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="C174" t="n">
         <v>-0.718014788331015</v>
@@ -5522,10 +5621,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="B175" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="C175" t="n">
         <v>0.728118049688987</v>
@@ -5542,10 +5641,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="B176" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="C176" t="n">
         <v>1.45161925233552</v>
@@ -5562,10 +5661,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="B177" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="C177" t="n">
         <v>2.00805397204409</v>
@@ -5582,9 +5681,11 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>341</v>
-      </c>
-      <c r="B178"/>
+        <v>356</v>
+      </c>
+      <c r="B178" t="s">
+        <v>357</v>
+      </c>
       <c r="C178" t="n">
         <v>0.765521800414706</v>
       </c>
@@ -5600,10 +5701,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="B179" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="C179" t="n">
         <v>0.446880807699543</v>
@@ -5620,10 +5721,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="B180" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="C180" t="n">
         <v>0.645349144453083</v>
@@ -5640,10 +5741,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="B181" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="C181" t="n">
         <v>-0.881978106027287</v>
@@ -5660,9 +5761,11 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>348</v>
-      </c>
-      <c r="B182"/>
+        <v>364</v>
+      </c>
+      <c r="B182" t="s">
+        <v>365</v>
+      </c>
       <c r="C182" t="n">
         <v>1.57953986788673</v>
       </c>
@@ -5678,10 +5781,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="B183" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="C183" t="n">
         <v>-1.15693751872385</v>
@@ -5698,10 +5801,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="B184" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="C184" t="n">
         <v>0.636879336221171</v>
@@ -5718,10 +5821,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="B185" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="C185" t="n">
         <v>0.541486302863484</v>
@@ -5738,10 +5841,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="B186" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="C186" t="n">
         <v>-1.91575453006224</v>
@@ -5758,10 +5861,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="B187" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="C187" t="n">
         <v>3.24668583500271</v>
@@ -5778,10 +5881,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="B188" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="C188" t="n">
         <v>0.784197126354124</v>
@@ -5798,10 +5901,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="B189" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="C189" t="n">
         <v>0.529917240075084</v>
@@ -5818,10 +5921,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="B190" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="C190" t="n">
         <v>-0.959127507153906</v>
@@ -5838,10 +5941,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="B191" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="C191" t="n">
         <v>2.14339655865055</v>
@@ -5858,10 +5961,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="B192" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="C192" t="n">
         <v>-0.383933600508747</v>
@@ -5878,10 +5981,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="B193" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="C193" t="n">
         <v>1.2706644252335</v>
@@ -5898,10 +6001,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="B194" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="C194" t="n">
         <v>-1.391872421634</v>
@@ -5918,10 +6021,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="B195" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="C195" t="n">
         <v>-0.506299282798707</v>
@@ -5938,10 +6041,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="B196" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="C196" t="n">
         <v>-0.388684470243017</v>
@@ -5958,10 +6061,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="B197" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="C197" t="n">
         <v>-0.889841727512086</v>
@@ -5978,10 +6081,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="B198" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="C198" t="n">
         <v>-0.753190443785652</v>
@@ -5998,10 +6101,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="B199" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="C199" t="n">
         <v>0.948772541512792</v>
@@ -6018,10 +6121,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="B200" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="C200" t="n">
         <v>0.687884607348519</v>
@@ -6038,10 +6141,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="B201" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="C201" t="n">
         <v>-0.935553966956327</v>
@@ -6058,7 +6161,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="B202"/>
       <c r="C202" t="n">
@@ -6076,10 +6179,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="B203" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="C203" t="n">
         <v>1.15345712662646</v>
@@ -6096,10 +6199,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="B204" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="C204" t="n">
         <v>1.85807491220989</v>
@@ -6116,10 +6219,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="B205" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="C205" t="n">
         <v>0.805912758687395</v>
@@ -6136,10 +6239,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="B206" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="C206" t="n">
         <v>2.74844131948508</v>
@@ -6156,10 +6259,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="B207" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="C207" t="n">
         <v>-0.495753535060664</v>
@@ -6176,10 +6279,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="B208" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="C208" t="n">
         <v>0.732345351651516</v>
@@ -6196,10 +6299,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="B209" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="C209" t="n">
         <v>-0.812682593245288</v>
@@ -6216,10 +6319,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="B210" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="C210" t="n">
         <v>-0.588647121295813</v>
@@ -6236,10 +6339,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="B211" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="C211" t="n">
         <v>-3.09539619998189</v>
@@ -6256,10 +6359,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="B212" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="C212" t="n">
         <v>-0.358012953342949</v>
@@ -6276,10 +6379,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="B213" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="C213" t="n">
         <v>-0.645085571054351</v>
@@ -6296,10 +6399,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="B214" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="C214" t="n">
         <v>-0.520781637493295</v>
@@ -6316,10 +6419,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="B215" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="C215" t="n">
         <v>-0.939224080761367</v>
@@ -6336,10 +6439,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="B216" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="C216" t="n">
         <v>1.15343797880589</v>
@@ -6356,10 +6459,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="B217" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="C217" t="n">
         <v>0.485181596619596</v>
@@ -6376,10 +6479,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="B218" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="C218" t="n">
         <v>0.32722688012295</v>
@@ -6396,10 +6499,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="B219" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C219" t="n">
         <v>2.80871751054657</v>
@@ -6416,10 +6519,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="B220" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="C220" t="n">
         <v>-0.432901687720035</v>
@@ -6436,10 +6539,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="B221" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="C221" t="n">
         <v>-1.50877023684672</v>
@@ -6456,10 +6559,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="B222" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="C222" t="n">
         <v>-2.21386233853972</v>
@@ -6476,10 +6579,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="B223" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="C223" t="n">
         <v>-0.834055155457617</v>
@@ -6496,10 +6599,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="B224" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="C224" t="n">
         <v>0.789013558704083</v>
@@ -6516,10 +6619,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="B225" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="C225" t="n">
         <v>-0.844468702864183</v>
@@ -6536,10 +6639,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="B226" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="C226" t="n">
         <v>-0.48380386725187</v>
@@ -6556,10 +6659,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="B227" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="C227" t="n">
         <v>1.69851215259888</v>
@@ -6576,10 +6679,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="B228" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="C228" t="n">
         <v>-1.42016560620637</v>
@@ -6596,10 +6699,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="B229" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="C229" t="n">
         <v>1.61892676062892</v>
@@ -6616,10 +6719,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="B230" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="C230" t="n">
         <v>6.80552998661244</v>
@@ -6636,10 +6739,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="B231" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="C231" t="n">
         <v>-1.51458548920084</v>
@@ -6656,10 +6759,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="B232" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="C232" t="n">
         <v>1.68369294345315</v>
@@ -6676,9 +6779,11 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>448</v>
-      </c>
-      <c r="B233"/>
+        <v>465</v>
+      </c>
+      <c r="B233" t="s">
+        <v>466</v>
+      </c>
       <c r="C233" t="n">
         <v>1.12327493400244</v>
       </c>
@@ -6694,10 +6799,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="B234" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="C234" t="n">
         <v>-0.687841982640829</v>
@@ -6714,10 +6819,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="B235" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="C235" t="n">
         <v>-1.64712288543063</v>
@@ -6734,10 +6839,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="B236" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="C236" t="n">
         <v>-1.41963137058807</v>
@@ -6754,10 +6859,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="B237" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="C237" t="n">
         <v>5.87065416271673</v>
@@ -6774,10 +6879,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="B238" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="C238" t="n">
         <v>1.37140552567137</v>
@@ -6794,10 +6899,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="B239" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="C239" t="n">
         <v>-0.608762743652672</v>
@@ -6814,10 +6919,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="B240" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="C240" t="n">
         <v>1.3849945819712</v>
@@ -6834,10 +6939,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="B241" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="C241" t="n">
         <v>-3.05187356407729</v>
@@ -6854,10 +6959,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="B242" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="C242" t="n">
         <v>-0.326598126530897</v>
@@ -6874,10 +6979,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="B243" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="C243" t="n">
         <v>-1.00116563025979</v>
@@ -6894,10 +6999,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="B244" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="C244" t="n">
         <v>-1.64837508032265</v>
@@ -6914,10 +7019,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="B245" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
       <c r="C245" t="n">
         <v>-0.400525833731504</v>
@@ -6934,10 +7039,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="B246" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="C246" t="n">
         <v>0.893677162918426</v>
@@ -6954,10 +7059,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="B247" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="C247" t="n">
         <v>-0.967594377703446</v>
@@ -6974,10 +7079,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="B248" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="C248" t="n">
         <v>-1.21564468526971</v>
@@ -6994,11 +7099,9 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>479</v>
-      </c>
-      <c r="B249" t="s">
-        <v>480</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="B249"/>
       <c r="C249" t="n">
         <v>0.562230199422059</v>
       </c>
@@ -7014,10 +7117,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="B250" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="C250" t="n">
         <v>0.748007252952246</v>
@@ -7034,10 +7137,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="B251" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="C251" t="n">
         <v>0.882755792445024</v>
@@ -7054,10 +7157,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="B252" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="C252" t="n">
         <v>-2.15367899048276</v>
@@ -7074,9 +7177,11 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>487</v>
-      </c>
-      <c r="B253"/>
+        <v>504</v>
+      </c>
+      <c r="B253" t="s">
+        <v>505</v>
+      </c>
       <c r="C253" t="n">
         <v>-0.552448366897736</v>
       </c>
@@ -7092,9 +7197,11 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>488</v>
-      </c>
-      <c r="B254"/>
+        <v>506</v>
+      </c>
+      <c r="B254" t="s">
+        <v>507</v>
+      </c>
       <c r="C254" t="n">
         <v>0.644660904576836</v>
       </c>
@@ -7110,10 +7217,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="B255" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="C255" t="n">
         <v>-1.53762142728896</v>
@@ -7130,10 +7237,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="B256" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="C256" t="n">
         <v>0.9465102957139</v>
@@ -7150,10 +7257,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="B257" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
       <c r="C257" t="n">
         <v>-0.674452046257205</v>
@@ -7170,10 +7277,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="B258" t="s">
-        <v>496</v>
+        <v>515</v>
       </c>
       <c r="C258" t="n">
         <v>-2.23042604166836</v>
@@ -7190,10 +7297,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
       <c r="B259" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="C259" t="n">
         <v>-0.57218573185137</v>
@@ -7210,10 +7317,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>499</v>
+        <v>518</v>
       </c>
       <c r="B260" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
       <c r="C260" t="n">
         <v>-0.92685567996832</v>
@@ -7230,10 +7337,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>501</v>
+        <v>520</v>
       </c>
       <c r="B261" t="s">
-        <v>502</v>
+        <v>521</v>
       </c>
       <c r="C261" t="n">
         <v>-1.25825150670802</v>
@@ -7250,10 +7357,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="B262" t="s">
-        <v>504</v>
+        <v>523</v>
       </c>
       <c r="C262" t="n">
         <v>3.00958676038468</v>
@@ -7270,10 +7377,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>505</v>
+        <v>524</v>
       </c>
       <c r="B263" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="C263" t="n">
         <v>1.58658176380356</v>
@@ -7290,10 +7397,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
       <c r="B264" t="s">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="C264" t="n">
         <v>-0.718886424243888</v>
@@ -7310,10 +7417,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>509</v>
+        <v>528</v>
       </c>
       <c r="B265" t="s">
-        <v>510</v>
+        <v>529</v>
       </c>
       <c r="C265" t="n">
         <v>2.68418551050861</v>
@@ -7330,10 +7437,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>511</v>
+        <v>530</v>
       </c>
       <c r="B266" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="C266" t="n">
         <v>1.62160281717821</v>
@@ -7350,9 +7457,11 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>513</v>
-      </c>
-      <c r="B267"/>
+        <v>532</v>
+      </c>
+      <c r="B267" t="s">
+        <v>533</v>
+      </c>
       <c r="C267" t="n">
         <v>-1.05836042353364</v>
       </c>
@@ -7368,10 +7477,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>514</v>
+        <v>534</v>
       </c>
       <c r="B268" t="s">
-        <v>515</v>
+        <v>535</v>
       </c>
       <c r="C268" t="n">
         <v>0.562250045959906</v>
@@ -7388,10 +7497,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>516</v>
+        <v>536</v>
       </c>
       <c r="B269" t="s">
-        <v>517</v>
+        <v>537</v>
       </c>
       <c r="C269" t="n">
         <v>-0.25142512279374</v>
@@ -7408,10 +7517,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>518</v>
+        <v>538</v>
       </c>
       <c r="B270" t="s">
-        <v>519</v>
+        <v>539</v>
       </c>
       <c r="C270" t="n">
         <v>-0.661044416244937</v>
@@ -7428,10 +7537,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="B271" t="s">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="C271" t="n">
         <v>0.630402950740229</v>
@@ -7448,10 +7557,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="B272" t="s">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="C272" t="n">
         <v>-0.858015660703802</v>
@@ -7468,10 +7577,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="B273" t="s">
-        <v>525</v>
+        <v>545</v>
       </c>
       <c r="C273" t="n">
         <v>-5.45186527272472</v>
@@ -7488,10 +7597,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="B274" t="s">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="C274" t="n">
         <v>-0.854161368766534</v>
@@ -7508,10 +7617,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>528</v>
+        <v>548</v>
       </c>
       <c r="B275" t="s">
-        <v>529</v>
+        <v>549</v>
       </c>
       <c r="C275" t="n">
         <v>0.614964475637325</v>
@@ -7528,10 +7637,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>530</v>
+        <v>550</v>
       </c>
       <c r="B276" t="s">
-        <v>531</v>
+        <v>551</v>
       </c>
       <c r="C276" t="n">
         <v>-0.430456770838728</v>
@@ -7548,10 +7657,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>532</v>
+        <v>552</v>
       </c>
       <c r="B277" t="s">
-        <v>533</v>
+        <v>553</v>
       </c>
       <c r="C277" t="n">
         <v>-0.931823456085637</v>
@@ -7568,10 +7677,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>534</v>
+        <v>554</v>
       </c>
       <c r="B278" t="s">
-        <v>535</v>
+        <v>555</v>
       </c>
       <c r="C278" t="n">
         <v>-0.899692849431854</v>
@@ -7588,10 +7697,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>536</v>
+        <v>556</v>
       </c>
       <c r="B279" t="s">
-        <v>537</v>
+        <v>557</v>
       </c>
       <c r="C279" t="n">
         <v>2.59718396433158</v>
@@ -7608,10 +7717,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="B280" t="s">
-        <v>539</v>
+        <v>559</v>
       </c>
       <c r="C280" t="n">
         <v>0.482953096249909</v>
@@ -7628,10 +7737,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="B281" t="s">
-        <v>541</v>
+        <v>561</v>
       </c>
       <c r="C281" t="n">
         <v>-0.508367751056144</v>
@@ -7648,10 +7757,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>542</v>
+        <v>562</v>
       </c>
       <c r="B282" t="s">
-        <v>543</v>
+        <v>563</v>
       </c>
       <c r="C282" t="n">
         <v>0.956574161231153</v>
@@ -7668,9 +7777,11 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>544</v>
-      </c>
-      <c r="B283"/>
+        <v>564</v>
+      </c>
+      <c r="B283" t="s">
+        <v>565</v>
+      </c>
       <c r="C283" t="n">
         <v>1.87966929620981</v>
       </c>
@@ -7686,7 +7797,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>545</v>
+        <v>566</v>
       </c>
       <c r="B284"/>
       <c r="C284" t="n">
@@ -7704,10 +7815,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
       <c r="B285" t="s">
-        <v>547</v>
+        <v>568</v>
       </c>
       <c r="C285" t="n">
         <v>-1.56091300067851</v>
@@ -7724,10 +7835,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>548</v>
+        <v>569</v>
       </c>
       <c r="B286" t="s">
-        <v>549</v>
+        <v>570</v>
       </c>
       <c r="C286" t="n">
         <v>-0.974118583117074</v>
@@ -7744,10 +7855,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>550</v>
+        <v>571</v>
       </c>
       <c r="B287" t="s">
-        <v>551</v>
+        <v>572</v>
       </c>
       <c r="C287" t="n">
         <v>1.10528948654768</v>
@@ -7764,10 +7875,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>552</v>
+        <v>573</v>
       </c>
       <c r="B288" t="s">
-        <v>553</v>
+        <v>574</v>
       </c>
       <c r="C288" t="n">
         <v>2.19175567037061</v>
@@ -7784,10 +7895,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>554</v>
+        <v>575</v>
       </c>
       <c r="B289" t="s">
-        <v>555</v>
+        <v>576</v>
       </c>
       <c r="C289" t="n">
         <v>-5.67821160419262</v>
@@ -7804,10 +7915,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>556</v>
+        <v>577</v>
       </c>
       <c r="B290" t="s">
-        <v>557</v>
+        <v>578</v>
       </c>
       <c r="C290" t="n">
         <v>1.01184926230506</v>
@@ -7824,10 +7935,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>558</v>
+        <v>579</v>
       </c>
       <c r="B291" t="s">
-        <v>559</v>
+        <v>580</v>
       </c>
       <c r="C291" t="n">
         <v>-1.14284770033031</v>
@@ -7844,7 +7955,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>560</v>
+        <v>581</v>
       </c>
       <c r="B292"/>
       <c r="C292" t="n">
@@ -7862,9 +7973,11 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>561</v>
-      </c>
-      <c r="B293"/>
+        <v>582</v>
+      </c>
+      <c r="B293" t="s">
+        <v>583</v>
+      </c>
       <c r="C293" t="n">
         <v>-0.683172203176056</v>
       </c>
@@ -7880,10 +7993,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>562</v>
+        <v>584</v>
       </c>
       <c r="B294" t="s">
-        <v>563</v>
+        <v>585</v>
       </c>
       <c r="C294" t="n">
         <v>1.12228893521323</v>
@@ -7900,10 +8013,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>564</v>
+        <v>586</v>
       </c>
       <c r="B295" t="s">
-        <v>565</v>
+        <v>587</v>
       </c>
       <c r="C295" t="n">
         <v>-0.922856337531467</v>
@@ -7920,9 +8033,11 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>566</v>
-      </c>
-      <c r="B296"/>
+        <v>588</v>
+      </c>
+      <c r="B296" t="s">
+        <v>589</v>
+      </c>
       <c r="C296" t="n">
         <v>-0.559457192975431</v>
       </c>
@@ -7938,10 +8053,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>567</v>
+        <v>590</v>
       </c>
       <c r="B297" t="s">
-        <v>568</v>
+        <v>591</v>
       </c>
       <c r="C297" t="n">
         <v>1.17329072974604</v>
@@ -7958,10 +8073,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>569</v>
+        <v>592</v>
       </c>
       <c r="B298" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C298" t="n">
         <v>1.35366976980453</v>
@@ -7978,10 +8093,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>571</v>
+        <v>594</v>
       </c>
       <c r="B299" t="s">
-        <v>572</v>
+        <v>595</v>
       </c>
       <c r="C299" t="n">
         <v>1.00098709267273</v>
@@ -7998,10 +8113,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>573</v>
+        <v>596</v>
       </c>
       <c r="B300" t="s">
-        <v>574</v>
+        <v>597</v>
       </c>
       <c r="C300" t="n">
         <v>1.37663103372167</v>
@@ -8018,10 +8133,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>575</v>
+        <v>598</v>
       </c>
       <c r="B301" t="s">
-        <v>576</v>
+        <v>599</v>
       </c>
       <c r="C301" t="n">
         <v>-1.01665878449352</v>
